--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="10695" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ID Table" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Insert Old ID Table" sheetId="4" r:id="rId5"/>
     <sheet name="Huddle ID Table" sheetId="5" r:id="rId6"/>
     <sheet name="2017 Topps" sheetId="12" r:id="rId7"/>
+    <sheet name="heritage_checklist" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11872" uniqueCount="8507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12925" uniqueCount="8855">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -25541,6 +25542,1050 @@
   </si>
   <si>
     <t>Jim Bunning Tribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago Cubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kris Bryant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jake Arrieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cincinnati Reds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dan Straily</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baltimore Orioles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Gausman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tampa Bay Rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jake Odorizzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jerad Eickhoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alex Colome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texas Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aledmys Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jason Hammel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Donaldson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detroit Tigers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York Yankees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greg Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Houston Astros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ji-Man Choi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington Nationals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trea Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Fulmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nomar Mazara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albert Almora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Willson Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boston Red Sox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.J. Reed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pittsburgh Pirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jameson Taillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los Angeles Dodgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julio Urias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago White Sox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucas Giolito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Francisco Giants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Buster Posey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kansas City Royals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aroldis Chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cleveland Indians</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New York Mets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noah Syndergaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jon Lester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miami Marlins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christian Yelich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minnesota Twins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brian Dozier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arizona Diamondbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jake Lamb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colorado Rockies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jon Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Trumbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starling Marte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ian Desmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dustin Pedroia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jay Bruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ian Kinsler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Milwaukee Brewers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Braun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mike Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atlanta Braves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Freddie Freeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jason Kipnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dee Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edwin Encarnacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trevor Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Diego Padres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corey Seager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hunter Pence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miguel Sano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Todd Frazier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Troy Tulowitzki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charlie Blackmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> George Springer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Abreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mookie Betts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bryce Harper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paul Goldschmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Altuve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Addison Russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyle Schwarber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robinson Cano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jacob deGrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manny Machado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miguel Cabrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justin Verlander</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Kemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anthony Rizzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eric Hosmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Felix Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max Scherzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nolan Arenado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew McCutchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giancarlo Stanton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clayton Kershaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sean Manaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yasiel Puig</t>
+  </si>
+  <si>
+    <t>Team Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rickie Weeks Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yonder Alonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.J. Pollock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topps News All Stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corey Kluber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tyler Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sonny Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huston Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sandy Leon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zach Britton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Kiermaier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Bourn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David Robertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jake McGee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julio Teheran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Craig Kimbrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcus Semien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curtis Granderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alex Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Rua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ervin Santana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joe Musgrove</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Holliday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brad Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ketel Marte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonathan Schoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evan Gattis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jayson Werth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Romine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kendrys Morales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Darwin Barney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.J. Ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yordano Ventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam Eaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gio Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ezequiel Carrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maikel Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Ruiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tyler Lyons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alcides Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brian McCann</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chase Headley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeurys Familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jason Motte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nelson Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Brantley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Garrett Richards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joc Pederson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scooter Gennett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitch Moreland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colby Rasmus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Harvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yasmani Grandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnny Cueto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ender Inciarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victor Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peter Bourjos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Odubel Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neil Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hanley Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Travis Jankowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J.D. Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salvador Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joe Panik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kole Calhoun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Vogelsong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melvin Upton Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scott Schebler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Conforto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Garza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luke Gregerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonathan Lucroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Souza Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jed Lowrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francisco Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Szczur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Jaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joe Mauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jim Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jake Barrett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Rodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Castellanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robbie Grossman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tyler Thornburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martin Maldonado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Randal Grichuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zack Greinke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drew Pomeranz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edwin Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Devon Travis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tommy Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jedd Gyorko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chase Utley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Henry Owens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trayce Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeanmar Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jacoby Ellsbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stephen Piscotty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Shields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brandon Phillips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Capuano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Shoemaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cristhian Adames</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrelton Simmons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chad Bettis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brett Lawrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billy Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David Freese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anibal Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J.J. Hardy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World Series Highlights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coco Crisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jung Ho Kang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clay Buchholz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Zimmerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Byung-Ho Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glen Perkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brock Holt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justin Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phil Gosselin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angel Pagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheslor Cuthbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andre Ethier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steven Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chad Qualls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cam Bedrosian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CC Sabathia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asdrubal Cabrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elvis Andrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Wisler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mallex Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seung-Hwan Oh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roberto Osuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dexter Fowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam Lind</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos Santana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miguel Montero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richie Shaffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Iglesias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam Wainwright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christian Bethancourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javier Baez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gerardo Parra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francisco Liriano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Nola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyle Seager</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starlin Castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brett Gardner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evan Longoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam Rosales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eddie Rosario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adrian Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pedro Baez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yadier Molina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matt Wieters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Hundley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pat Neshek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cincinnati Reds </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yunel Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sean Doolittle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyle Hendricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russell Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alex Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Markakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Peraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cameron Maybin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hernan Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Phegley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C.J. Cron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denard Span</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seth Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melky Cabrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yasmany Tomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anthony DeSclafani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jhonny Peralta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jorge Polanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justin Grimm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jorge Soler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Howie Kendrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron Hicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Schimpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corey Dickerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rougned Odor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logan Morrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logan Forsythe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Francisco Cervelli</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu, Joey Votto, Daniel Murphy</t>
+  </si>
+  <si>
+    <t>Dustin Pedroia, Mookie Betts, Jose Altuve</t>
+  </si>
+  <si>
+    <t>Matt Kemp , Anthony Rizzo , Nolan Arenado</t>
+  </si>
+  <si>
+    <t>Edwin Encarnacion , Albert Pujols , David Ortiz</t>
+  </si>
+  <si>
+    <t>Chris Carter , Nolan Arenado , Kris Bryant</t>
+  </si>
+  <si>
+    <t>Mark Trumbo , Nelson Cruz , Khris Davis</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks , Jon Lester , Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>Justin Verlander, Aaron Sanchez, Masahiro Tanaka</t>
+  </si>
+  <si>
+    <t>Max Scherzer , Jake Arrieta , Jon Lester</t>
+  </si>
+  <si>
+    <t>Corey Kluber , J.A. Happ , Rick Porcello</t>
+  </si>
+  <si>
+    <t>Robbie Ray , Madison Bumgarner , Max Scherzer</t>
+  </si>
+  <si>
+    <t>Justin Verlander , Chris Sale , Chris Archer</t>
+  </si>
+  <si>
+    <t>Manny Margot, Hunter Renfroe</t>
+  </si>
+  <si>
+    <t>Adam Plutko, Perci Garner</t>
+  </si>
+  <si>
+    <t>Josh Bell, Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Austin Brice, Yefri Pérez</t>
+  </si>
+  <si>
+    <t>Tony Renda, Wandy Peralta</t>
+  </si>
+  <si>
+    <t>Dansby Swanson, Rio Ruiz</t>
+  </si>
+  <si>
+    <t>Grant Dayton, Jose De Leon</t>
+  </si>
+  <si>
+    <t>Jon Lester, Jake Arrieta</t>
+  </si>
+  <si>
+    <t>Alex Bregman, Yulieski Gurriel</t>
+  </si>
+  <si>
+    <t>Carson Fulmer, Yoan Moncada</t>
+  </si>
+  <si>
+    <t>Juniel Querecuto, Eddie Gamboa</t>
+  </si>
+  <si>
+    <t>Luke Weaver, Alex Reyes</t>
+  </si>
+  <si>
+    <t>Dustin Molleken, JaCoby Jones</t>
+  </si>
+  <si>
+    <t>Gavin Cecchini, Robert Gsellman</t>
+  </si>
+  <si>
+    <t>James Beresford, Alex Wimmers</t>
+  </si>
+  <si>
+    <t>Jharel Cotton, Ryon Healy</t>
+  </si>
+  <si>
+    <t>Hunter Dozier, Matt Strahm</t>
+  </si>
+  <si>
+    <t>Aaron Judge, Tyler Austin</t>
+  </si>
+  <si>
+    <t>Raimel Tapia, David Dahl</t>
+  </si>
+  <si>
+    <t>Kris Bryant,Bryce Harper</t>
+  </si>
+  <si>
+    <t>Orlando Arcia, Brent Suter</t>
+  </si>
+  <si>
+    <t>Roman Quinn, Jake Thompson</t>
+  </si>
+  <si>
+    <t>Robby Scott, Andrew Benintendi</t>
+  </si>
+  <si>
+    <t>Brian Goodwin, Spencer Kieboom</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu, Charlie Blackmon</t>
+  </si>
+  <si>
+    <t>Braden Shipley, Matt Koch</t>
+  </si>
+  <si>
+    <t>Danny Barnes, Matt Dermody</t>
+  </si>
+  <si>
+    <t>Donnie Hart, Trey Mancini</t>
   </si>
 </sst>
 </file>
@@ -26378,7 +27423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -35077,7 +36122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+    <sheetView topLeftCell="A410" workbookViewId="0">
       <selection activeCell="B521" sqref="B521"/>
     </sheetView>
   </sheetViews>
@@ -40062,7 +41107,7 @@
         <v>7840</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" ref="E300:E331" si="12">TRIM(D300)</f>
+        <f t="shared" ref="E300:E322" si="12">TRIM(D300)</f>
         <v>0B-SU-eAGCKuiYjViOHluaUJjOUU</v>
       </c>
     </row>
@@ -43136,7 +44181,7 @@
         <v>8359</v>
       </c>
       <c r="E516" t="str">
-        <f>TRIM(D516)</f>
+        <f t="shared" ref="E516:E559" si="20">TRIM(D516)</f>
         <v>0B-SU-eAGCKuiX1NfU3NIYmtiMUk</v>
       </c>
     </row>
@@ -43151,7 +44196,7 @@
         <v>8343</v>
       </c>
       <c r="E517" t="str">
-        <f>TRIM(D517)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiRU5iMEFvbU9oNzg</v>
       </c>
     </row>
@@ -43166,7 +44211,7 @@
         <v>8448</v>
       </c>
       <c r="E518" t="str">
-        <f>TRIM(D518)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiMlFfa3RjbV9NUTQ</v>
       </c>
     </row>
@@ -43181,7 +44226,7 @@
         <v>8374</v>
       </c>
       <c r="E519" t="str">
-        <f>TRIM(D519)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuieWlTR0tfY0tJdEU</v>
       </c>
     </row>
@@ -43196,7 +44241,7 @@
         <v>8425</v>
       </c>
       <c r="E520" t="str">
-        <f>TRIM(D520)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiT1JaeFQyc1NoNWc</v>
       </c>
     </row>
@@ -43211,7 +44256,7 @@
         <v>8376</v>
       </c>
       <c r="E521" t="str">
-        <f>TRIM(D521)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiai1YX2l4RmI0eHM</v>
       </c>
     </row>
@@ -43226,7 +44271,7 @@
         <v>8351</v>
       </c>
       <c r="E522" t="str">
-        <f>TRIM(D522)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiSTNzQzA4S0xFR2s</v>
       </c>
     </row>
@@ -43241,7 +44286,7 @@
         <v>8380</v>
       </c>
       <c r="E523" t="str">
-        <f>TRIM(D523)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiQmViNG95Z1M2eEU</v>
       </c>
     </row>
@@ -43256,7 +44301,7 @@
         <v>8465</v>
       </c>
       <c r="E524" t="str">
-        <f>TRIM(D524)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiVnNBMkNSS3dkVmc</v>
       </c>
     </row>
@@ -43271,7 +44316,7 @@
         <v>8368</v>
       </c>
       <c r="E525" t="str">
-        <f>TRIM(D525)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiR0Rqa0dLdVN4ZEE</v>
       </c>
     </row>
@@ -43286,7 +44331,7 @@
         <v>8392</v>
       </c>
       <c r="E526" t="str">
-        <f>TRIM(D526)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiZTRaTklTRk9IYnM</v>
       </c>
     </row>
@@ -43301,7 +44346,7 @@
         <v>8378</v>
       </c>
       <c r="E527" t="str">
-        <f>TRIM(D527)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiZU9CY2lPV08zNE0</v>
       </c>
     </row>
@@ -43316,7 +44361,7 @@
         <v>8450</v>
       </c>
       <c r="E528" t="str">
-        <f>TRIM(D528)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiTDZ4Z1FmRGowY28</v>
       </c>
     </row>
@@ -43331,7 +44376,7 @@
         <v>8443</v>
       </c>
       <c r="E529" t="str">
-        <f>TRIM(D529)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiNnNaRzlwOGVVNzQ</v>
       </c>
     </row>
@@ -43346,7 +44391,7 @@
         <v>8472</v>
       </c>
       <c r="E530" t="str">
-        <f>TRIM(D530)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiRTh0UWxrZnQ2bDg</v>
       </c>
     </row>
@@ -43361,7 +44406,7 @@
         <v>8444</v>
       </c>
       <c r="E531" t="str">
-        <f>TRIM(D531)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiSTY2QTdFX2ZtODA</v>
       </c>
     </row>
@@ -43376,7 +44421,7 @@
         <v>8419</v>
       </c>
       <c r="E532" t="str">
-        <f>TRIM(D532)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuibXVCVUVjV3Z3V3M</v>
       </c>
     </row>
@@ -43391,7 +44436,7 @@
         <v>8446</v>
       </c>
       <c r="E533" t="str">
-        <f>TRIM(D533)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiSHJLVV9RTGpTN2c</v>
       </c>
     </row>
@@ -43406,7 +44451,7 @@
         <v>8476</v>
       </c>
       <c r="E534" t="str">
-        <f>TRIM(D534)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiRXdSbEJCeFZnLTg</v>
       </c>
     </row>
@@ -43421,7 +44466,7 @@
         <v>8442</v>
       </c>
       <c r="E535" t="str">
-        <f>TRIM(D535)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiNnJIYng1QlFBTVE</v>
       </c>
     </row>
@@ -43436,7 +44481,7 @@
         <v>8411</v>
       </c>
       <c r="E536" t="str">
-        <f>TRIM(D536)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuic2w3eVF2YVB6S2c</v>
       </c>
     </row>
@@ -43451,7 +44496,7 @@
         <v>8455</v>
       </c>
       <c r="E537" t="str">
-        <f>TRIM(D537)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiM1RMbXdpRTNWbGM</v>
       </c>
     </row>
@@ -43466,7 +44511,7 @@
         <v>8469</v>
       </c>
       <c r="E538" t="str">
-        <f>TRIM(D538)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuibG5PSURtbFZTM2c</v>
       </c>
     </row>
@@ -43481,7 +44526,7 @@
         <v>8423</v>
       </c>
       <c r="E539" t="str">
-        <f>TRIM(D539)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuidkM2VTI3d05ycE0</v>
       </c>
     </row>
@@ -43496,7 +44541,7 @@
         <v>8357</v>
       </c>
       <c r="E540" t="str">
-        <f>TRIM(D540)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuienFOS0dWeXE4ZUU</v>
       </c>
     </row>
@@ -43511,7 +44556,7 @@
         <v>8370</v>
       </c>
       <c r="E541" t="str">
-        <f>TRIM(D541)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiN2ROM0VvZWVNLVE</v>
       </c>
     </row>
@@ -43526,7 +44571,7 @@
         <v>8382</v>
       </c>
       <c r="E542" t="str">
-        <f>TRIM(D542)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiMFV2c0RTcUFUYW8</v>
       </c>
     </row>
@@ -43541,7 +44586,7 @@
         <v>8474</v>
       </c>
       <c r="E543" t="str">
-        <f>TRIM(D543)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiUExscHNaRjJndmc</v>
       </c>
     </row>
@@ -43556,7 +44601,7 @@
         <v>8421</v>
       </c>
       <c r="E544" t="str">
-        <f>TRIM(D544)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiRzlNOWEzeGFiblk</v>
       </c>
     </row>
@@ -43571,7 +44616,7 @@
         <v>8471</v>
       </c>
       <c r="E545" t="str">
-        <f>TRIM(D545)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiUFBCTWxwYjRUM0E</v>
       </c>
     </row>
@@ -43586,7 +44631,7 @@
         <v>8452</v>
       </c>
       <c r="E546" t="str">
-        <f>TRIM(D546)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiZ1JiNXVqcF81WWc</v>
       </c>
     </row>
@@ -43601,7 +44646,7 @@
         <v>8453</v>
       </c>
       <c r="E547" t="str">
-        <f>TRIM(D547)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiZlRmR2hleF80Q1E</v>
       </c>
     </row>
@@ -43616,7 +44661,7 @@
         <v>8393</v>
       </c>
       <c r="E548" t="str">
-        <f>TRIM(D548)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiSWlHaUNyQ1JIMlk</v>
       </c>
     </row>
@@ -43631,7 +44676,7 @@
         <v>8395</v>
       </c>
       <c r="E549" t="str">
-        <f>TRIM(D549)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiWHdxeElfQTQzNUE</v>
       </c>
     </row>
@@ -43646,7 +44691,7 @@
         <v>8413</v>
       </c>
       <c r="E550" t="str">
-        <f>TRIM(D550)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiVUlHbE5EYmlMZGM</v>
       </c>
     </row>
@@ -43661,7 +44706,7 @@
         <v>8355</v>
       </c>
       <c r="E551" t="str">
-        <f>TRIM(D551)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiWXRVTVpUM1Y2Tnc</v>
       </c>
     </row>
@@ -43676,7 +44721,7 @@
         <v>8367</v>
       </c>
       <c r="E552" t="str">
-        <f>TRIM(D552)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiVF8xbmZkcFUybzg</v>
       </c>
     </row>
@@ -43691,7 +44736,7 @@
         <v>8429</v>
       </c>
       <c r="E553" t="str">
-        <f>TRIM(D553)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiUFNrc2JrSkFMdGM</v>
       </c>
     </row>
@@ -43706,7 +44751,7 @@
         <v>8441</v>
       </c>
       <c r="E554" t="str">
-        <f>TRIM(D554)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiRW1ienZFemVPcTQ</v>
       </c>
     </row>
@@ -43721,7 +44766,7 @@
         <v>8427</v>
       </c>
       <c r="E555" t="str">
-        <f>TRIM(D555)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiZGNLOEE5R1FKX3c</v>
       </c>
     </row>
@@ -43736,7 +44781,7 @@
         <v>8372</v>
       </c>
       <c r="E556" t="str">
-        <f>TRIM(D556)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuidkRXTHotYmkxRUU</v>
       </c>
     </row>
@@ -43751,7 +44796,7 @@
         <v>8353</v>
       </c>
       <c r="E557" t="str">
-        <f>TRIM(D557)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuidUlJSEhySm5Sa1k</v>
       </c>
     </row>
@@ -43766,7 +44811,7 @@
         <v>8349</v>
       </c>
       <c r="E558" t="str">
-        <f>TRIM(D558)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiWG9TdDlzMGtSMUU</v>
       </c>
     </row>
@@ -43781,7 +44826,7 @@
         <v>8415</v>
       </c>
       <c r="E559" t="str">
-        <f>TRIM(D559)</f>
+        <f t="shared" si="20"/>
         <v>0B-SU-eAGCKuiaXRibmJickFLYlU</v>
       </c>
     </row>
@@ -43805,7 +44850,7 @@
         <v>5792</v>
       </c>
       <c r="E571" t="str">
-        <f t="shared" ref="E571:E602" si="20">TRIM(D571)</f>
+        <f t="shared" ref="E571:E602" si="21">TRIM(D571)</f>
         <v>0B-SU-eAGCKuiZndGcEtNVXc4NlE</v>
       </c>
     </row>
@@ -43820,7 +44865,7 @@
         <v>5781</v>
       </c>
       <c r="E572" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiMVVUZUVVUDJQNzA</v>
       </c>
     </row>
@@ -43835,7 +44880,7 @@
         <v>5789</v>
       </c>
       <c r="E573" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiU1d1OWFUZzAtR3M</v>
       </c>
     </row>
@@ -43850,7 +44895,7 @@
         <v>5782</v>
       </c>
       <c r="E574" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiWldrZmpZdlJZNGM</v>
       </c>
     </row>
@@ -43865,7 +44910,7 @@
         <v>5805</v>
       </c>
       <c r="E575" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiOVhseEk0X0E2ZUE</v>
       </c>
     </row>
@@ -43880,7 +44925,7 @@
         <v>5794</v>
       </c>
       <c r="E576" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiQ1gwXzlza3ZzU2M</v>
       </c>
     </row>
@@ -43895,7 +44940,7 @@
         <v>5912</v>
       </c>
       <c r="E577" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiQkpGU083aHc5R28</v>
       </c>
     </row>
@@ -43910,7 +44955,7 @@
         <v>5793</v>
       </c>
       <c r="E578" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiNlJJbGIweE5qeG8</v>
       </c>
     </row>
@@ -43925,7 +44970,7 @@
         <v>5786</v>
       </c>
       <c r="E579" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuia0FJRVI4UWYzYU0</v>
       </c>
     </row>
@@ -43940,7 +44985,7 @@
         <v>5800</v>
       </c>
       <c r="E580" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuicGJBT0h0NU1LSkU</v>
       </c>
     </row>
@@ -43955,7 +45000,7 @@
         <v>5788</v>
       </c>
       <c r="E581" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiT3lUQ0hYWXN0N2M</v>
       </c>
     </row>
@@ -43970,7 +45015,7 @@
         <v>5802</v>
       </c>
       <c r="E582" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiaFJyNWVEZFdkMTA</v>
       </c>
     </row>
@@ -43985,7 +45030,7 @@
         <v>5783</v>
       </c>
       <c r="E583" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiOU10WE1mVEF4Rms</v>
       </c>
     </row>
@@ -44000,7 +45045,7 @@
         <v>5785</v>
       </c>
       <c r="E584" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuieFFjSFp3M01HeE0</v>
       </c>
     </row>
@@ -44015,7 +45060,7 @@
         <v>5804</v>
       </c>
       <c r="E585" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiWmxfaS1kSHFSM0U</v>
       </c>
     </row>
@@ -44030,7 +45075,7 @@
         <v>5795</v>
       </c>
       <c r="E586" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuidjFrendFa1BOS3M</v>
       </c>
     </row>
@@ -44045,7 +45090,7 @@
         <v>5784</v>
       </c>
       <c r="E587" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiQVF3U0JlX21CWUU</v>
       </c>
     </row>
@@ -44060,7 +45105,7 @@
         <v>5787</v>
       </c>
       <c r="E588" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiR2JyaWthcjNNajQ</v>
       </c>
     </row>
@@ -44075,7 +45120,7 @@
         <v>5790</v>
       </c>
       <c r="E589" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiTVAyT2lIUkZfOGc</v>
       </c>
     </row>
@@ -44090,7 +45135,7 @@
         <v>5801</v>
       </c>
       <c r="E590" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiVWU5WjB1eEt1RDQ</v>
       </c>
     </row>
@@ -44105,7 +45150,7 @@
         <v>5796</v>
       </c>
       <c r="E591" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuibURSNE1mNFkyYVE</v>
       </c>
     </row>
@@ -44120,7 +45165,7 @@
         <v>5797</v>
       </c>
       <c r="E592" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiUDdkOGJPd1ZISVk</v>
       </c>
     </row>
@@ -44135,7 +45180,7 @@
         <v>5799</v>
       </c>
       <c r="E593" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiSVM0c1Y1OEVTOVE</v>
       </c>
     </row>
@@ -44150,7 +45195,7 @@
         <v>5892</v>
       </c>
       <c r="E594" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuib2VFcS02RmZsbFU</v>
       </c>
     </row>
@@ -44165,7 +45210,7 @@
         <v>5893</v>
       </c>
       <c r="E595" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiOURyQmVaQ0VoV0k</v>
       </c>
     </row>
@@ -44180,7 +45225,7 @@
         <v>5894</v>
       </c>
       <c r="E596" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuib1FkeVU1TDRRQ3c</v>
       </c>
     </row>
@@ -44195,7 +45240,7 @@
         <v>5895</v>
       </c>
       <c r="E597" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuicHp3Vlh3QzJ3TE0</v>
       </c>
     </row>
@@ -44210,7 +45255,7 @@
         <v>5896</v>
       </c>
       <c r="E598" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiUDNjaWxJTmdBeVE</v>
       </c>
     </row>
@@ -44225,7 +45270,7 @@
         <v>5897</v>
       </c>
       <c r="E599" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiUVJTMGlFbnNxMk0</v>
       </c>
     </row>
@@ -44240,7 +45285,7 @@
         <v>5898</v>
       </c>
       <c r="E600" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiZ0xOUGI1eUVKTEE</v>
       </c>
     </row>
@@ -44255,7 +45300,7 @@
         <v>5899</v>
       </c>
       <c r="E601" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuic1RLY3JKNUZsSUE</v>
       </c>
     </row>
@@ -44270,7 +45315,7 @@
         <v>5900</v>
       </c>
       <c r="E602" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0B-SU-eAGCKuiUkQ4Zi00UnpaYkk</v>
       </c>
     </row>
@@ -44285,7 +45330,7 @@
         <v>5901</v>
       </c>
       <c r="E603" t="str">
-        <f t="shared" ref="E603:E625" si="21">TRIM(D603)</f>
+        <f t="shared" ref="E603:E625" si="22">TRIM(D603)</f>
         <v>0B-SU-eAGCKuiVEM4WWNtaENtWkk</v>
       </c>
     </row>
@@ -44300,7 +45345,7 @@
         <v>5902</v>
       </c>
       <c r="E604" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiV1JNWjhMVkdhWVk</v>
       </c>
     </row>
@@ -44315,7 +45360,7 @@
         <v>5903</v>
       </c>
       <c r="E605" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiNWVIa1d6d3VmMnc</v>
       </c>
     </row>
@@ -44330,7 +45375,7 @@
         <v>5904</v>
       </c>
       <c r="E606" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiR0JFak9pNFpfelE</v>
       </c>
     </row>
@@ -44345,7 +45390,7 @@
         <v>5905</v>
       </c>
       <c r="E607" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuia04xWTFwSEZPa1E</v>
       </c>
     </row>
@@ -44360,7 +45405,7 @@
         <v>5906</v>
       </c>
       <c r="E608" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiUFNmTXpxS1lqOEU</v>
       </c>
     </row>
@@ -44375,7 +45420,7 @@
         <v>5907</v>
       </c>
       <c r="E609" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuibllIT29WY2g5Sm8</v>
       </c>
     </row>
@@ -44390,7 +45435,7 @@
         <v>5908</v>
       </c>
       <c r="E610" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiVGZBNC1uQUFqY0E</v>
       </c>
     </row>
@@ -44405,7 +45450,7 @@
         <v>5909</v>
       </c>
       <c r="E611" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiN3d1MWlVV0MtRGs</v>
       </c>
     </row>
@@ -44420,7 +45465,7 @@
         <v>5910</v>
       </c>
       <c r="E612" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiRGxpQmRCRlJSS28</v>
       </c>
     </row>
@@ -44435,7 +45480,7 @@
         <v>5913</v>
       </c>
       <c r="E613" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiaU5GUFNnS3AxQkU</v>
       </c>
     </row>
@@ -44450,7 +45495,7 @@
         <v>5914</v>
       </c>
       <c r="E614" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiSml1MzFCVThZNk0</v>
       </c>
     </row>
@@ -44465,7 +45510,7 @@
         <v>5915</v>
       </c>
       <c r="E615" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuielhhZWlxazhjczg</v>
       </c>
     </row>
@@ -44480,7 +45525,7 @@
         <v>5916</v>
       </c>
       <c r="E616" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuidFdYNW1XOUdPa2M</v>
       </c>
     </row>
@@ -44495,7 +45540,7 @@
         <v>5918</v>
       </c>
       <c r="E617" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuicG85MENUNHRjc0k</v>
       </c>
     </row>
@@ -44510,7 +45555,7 @@
         <v>5919</v>
       </c>
       <c r="E618" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiZVBXVmhELWlLQ3c</v>
       </c>
     </row>
@@ -44525,7 +45570,7 @@
         <v>5920</v>
       </c>
       <c r="E619" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuidXhYWlplclJhS0E</v>
       </c>
     </row>
@@ -44540,7 +45585,7 @@
         <v>5798</v>
       </c>
       <c r="E620" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuieWNVZXgtMzB1LUk</v>
       </c>
     </row>
@@ -44555,7 +45600,7 @@
         <v>5911</v>
       </c>
       <c r="E621" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiRjhmMUhIcGtDUVU</v>
       </c>
     </row>
@@ -44570,7 +45615,7 @@
         <v>5806</v>
       </c>
       <c r="E622" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuieHpaZTNMQVB3TVU</v>
       </c>
     </row>
@@ -44585,7 +45630,7 @@
         <v>5780</v>
       </c>
       <c r="E623" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiNDk2LWhfdldZc28</v>
       </c>
     </row>
@@ -44600,7 +45645,7 @@
         <v>5803</v>
       </c>
       <c r="E624" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiY3FGeUk4NUNOaHM</v>
       </c>
     </row>
@@ -44615,13 +45660,13 @@
         <v>8037</v>
       </c>
       <c r="E625" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0B-SU-eAGCKuiRC14RXNlSGhpS28</v>
       </c>
     </row>
     <row r="626" spans="2:5">
       <c r="E626" t="str">
-        <f t="shared" ref="E626:E627" si="22">TRIM(D626)</f>
+        <f t="shared" ref="E626:E627" si="23">TRIM(D626)</f>
         <v/>
       </c>
     </row>
@@ -44630,7 +45675,7 @@
         <v>5921</v>
       </c>
       <c r="E627" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -44645,7 +45690,7 @@
         <v>5947</v>
       </c>
       <c r="E628" t="str">
-        <f t="shared" ref="E628:E659" si="23">TRIM(D628)</f>
+        <f t="shared" ref="E628:E659" si="24">TRIM(D628)</f>
         <v>0B-SU-eAGCKuiMnAwMGRPdVBXYUk</v>
       </c>
     </row>
@@ -44660,7 +45705,7 @@
         <v>5953</v>
       </c>
       <c r="E629" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiNDFhUGUybFBQZHc</v>
       </c>
     </row>
@@ -44675,7 +45720,7 @@
         <v>5967</v>
       </c>
       <c r="E630" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiTG1VR2V3NjBOUVk</v>
       </c>
     </row>
@@ -44690,7 +45735,7 @@
         <v>6040</v>
       </c>
       <c r="E631" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiU3J6eGFrRVlEcDA</v>
       </c>
     </row>
@@ -44705,7 +45750,7 @@
         <v>6044</v>
       </c>
       <c r="E632" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiUEU4a3RQMkhjeE0</v>
       </c>
     </row>
@@ -44720,7 +45765,7 @@
         <v>7854</v>
       </c>
       <c r="E633" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuidmE4amFTMU5rZWM</v>
       </c>
     </row>
@@ -44735,7 +45780,7 @@
         <v>8279</v>
       </c>
       <c r="E634" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiRjk2NDdCdTlJVXc</v>
       </c>
     </row>
@@ -44750,7 +45795,7 @@
         <v>7679</v>
       </c>
       <c r="E635" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiSnhTYjZsSlJ0V0U</v>
       </c>
     </row>
@@ -44765,7 +45810,7 @@
         <v>8283</v>
       </c>
       <c r="E636" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiNGNjSVBDeEl2SnM</v>
       </c>
     </row>
@@ -44780,7 +45825,7 @@
         <v>7678</v>
       </c>
       <c r="E637" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiZEc3aDlhczFteVU</v>
       </c>
     </row>
@@ -44795,7 +45840,7 @@
         <v>6011</v>
       </c>
       <c r="E638" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiZTQ4STlhQ3pZaWc</v>
       </c>
     </row>
@@ -44810,7 +45855,7 @@
         <v>6048</v>
       </c>
       <c r="E639" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiYWo4X2QwWW1Ob00</v>
       </c>
     </row>
@@ -44825,7 +45870,7 @@
         <v>7304</v>
       </c>
       <c r="E640" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiX1VfQlJIb19feUE</v>
       </c>
     </row>
@@ -44840,7 +45885,7 @@
         <v>5961</v>
       </c>
       <c r="E641" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiTWN4b1k0SE4zTXM</v>
       </c>
     </row>
@@ -44855,7 +45900,7 @@
         <v>6008</v>
       </c>
       <c r="E642" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiODdlZnBJaElUc1E</v>
       </c>
     </row>
@@ -44870,7 +45915,7 @@
         <v>6009</v>
       </c>
       <c r="E643" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiOXlzQ2lQY2dwWGs</v>
       </c>
     </row>
@@ -44885,7 +45930,7 @@
         <v>6013</v>
       </c>
       <c r="E644" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiY2dJX3lwQTh2Y3c</v>
       </c>
     </row>
@@ -44900,7 +45945,7 @@
         <v>6014</v>
       </c>
       <c r="E645" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiQVRDTkkwU01CQ00</v>
       </c>
     </row>
@@ -44915,7 +45960,7 @@
         <v>6041</v>
       </c>
       <c r="E646" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiVnNveFFpbVBWZ1E</v>
       </c>
     </row>
@@ -44930,7 +45975,7 @@
         <v>7464</v>
       </c>
       <c r="E647" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiTEVWS3JBb3g1RHc</v>
       </c>
     </row>
@@ -44945,7 +45990,7 @@
         <v>5946</v>
       </c>
       <c r="E648" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiWXUwZlQ2WU10Mmc</v>
       </c>
     </row>
@@ -44960,7 +46005,7 @@
         <v>5962</v>
       </c>
       <c r="E649" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiMElqb3VELS1SZ0E</v>
       </c>
     </row>
@@ -44975,7 +46020,7 @@
         <v>5963</v>
       </c>
       <c r="E650" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiRFRRd0h6NTZTTkk</v>
       </c>
     </row>
@@ -44990,7 +46035,7 @@
         <v>5964</v>
       </c>
       <c r="E651" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiNWcwRWw3UVhWZDg</v>
       </c>
     </row>
@@ -45005,7 +46050,7 @@
         <v>5965</v>
       </c>
       <c r="E652" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuid0owcTQ3Y2tWbkE</v>
       </c>
     </row>
@@ -45020,7 +46065,7 @@
         <v>8281</v>
       </c>
       <c r="E653" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiNHIyVjYxd3dvNUk</v>
       </c>
     </row>
@@ -45035,7 +46080,7 @@
         <v>8310</v>
       </c>
       <c r="E654" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiT19aTGZTVG5RTms</v>
       </c>
     </row>
@@ -45050,7 +46095,7 @@
         <v>6001</v>
       </c>
       <c r="E655" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiYUg0cm03NTVvTEE</v>
       </c>
     </row>
@@ -45065,7 +46110,7 @@
         <v>6002</v>
       </c>
       <c r="E656" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiRkVmcm02ekI5SGM</v>
       </c>
     </row>
@@ -45080,7 +46125,7 @@
         <v>6006</v>
       </c>
       <c r="E657" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuicG4zb0phQmVxSTA</v>
       </c>
     </row>
@@ -45095,7 +46140,7 @@
         <v>6017</v>
       </c>
       <c r="E658" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiWUxTVldMazloejA</v>
       </c>
     </row>
@@ -45110,7 +46155,7 @@
         <v>7856</v>
       </c>
       <c r="E659" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0B-SU-eAGCKuiNFduajloelpTbjg</v>
       </c>
     </row>
@@ -45125,7 +46170,7 @@
         <v>6012</v>
       </c>
       <c r="E660" t="str">
-        <f t="shared" ref="E660:E691" si="24">TRIM(D660)</f>
+        <f t="shared" ref="E660:E691" si="25">TRIM(D660)</f>
         <v>0B-SU-eAGCKuiWmVzbk1QLXRUSjQ</v>
       </c>
     </row>
@@ -45140,7 +46185,7 @@
         <v>6016</v>
       </c>
       <c r="E661" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiaElOSTJ0RUdMRXc</v>
       </c>
     </row>
@@ -45155,7 +46200,7 @@
         <v>6043</v>
       </c>
       <c r="E662" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuicnljQ0pMNVFNbTQ</v>
       </c>
     </row>
@@ -45170,7 +46215,7 @@
         <v>7862</v>
       </c>
       <c r="E663" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuieGFyczlDdlVoSDA</v>
       </c>
     </row>
@@ -45185,7 +46230,7 @@
         <v>5950</v>
       </c>
       <c r="E664" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuia244U05uZDBRS2c</v>
       </c>
     </row>
@@ -45200,7 +46245,7 @@
         <v>7465</v>
       </c>
       <c r="E665" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuidUlpanB6MHB4aVk</v>
       </c>
     </row>
@@ -45215,7 +46260,7 @@
         <v>5952</v>
       </c>
       <c r="E666" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuicHEyLTQtVXlvSUU</v>
       </c>
     </row>
@@ -45230,7 +46275,7 @@
         <v>6046</v>
       </c>
       <c r="E667" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuidldBU3IteVFwbDg</v>
       </c>
     </row>
@@ -45245,7 +46290,7 @@
         <v>8285</v>
       </c>
       <c r="E668" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiWTlwQ2VRWnBiZ28</v>
       </c>
     </row>
@@ -45260,7 +46305,7 @@
         <v>6039</v>
       </c>
       <c r="E669" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiMmNSVzhUZnVwbGc</v>
       </c>
     </row>
@@ -45275,7 +46320,7 @@
         <v>5957</v>
       </c>
       <c r="E670" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiWlh6ekEyTTQ2ejg</v>
       </c>
     </row>
@@ -45290,7 +46335,7 @@
         <v>5958</v>
       </c>
       <c r="E671" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuicnFsanBweUlhNXc</v>
       </c>
     </row>
@@ -45305,7 +46350,7 @@
         <v>6007</v>
       </c>
       <c r="E672" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiczNGR3U2SFJlTkE</v>
       </c>
     </row>
@@ -45320,7 +46365,7 @@
         <v>8314</v>
       </c>
       <c r="E673" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiUTloUVl2N0xIRVE</v>
       </c>
     </row>
@@ -45335,7 +46380,7 @@
         <v>5966</v>
       </c>
       <c r="E674" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiMm9VZmQ1N1lUYlk</v>
       </c>
     </row>
@@ -45350,7 +46395,7 @@
         <v>6005</v>
       </c>
       <c r="E675" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuicGVwUTNhTlJySDg</v>
       </c>
     </row>
@@ -45365,7 +46410,7 @@
         <v>7655</v>
       </c>
       <c r="E676" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuidzNKQ3JqY0VZejQ</v>
       </c>
     </row>
@@ -45380,7 +46425,7 @@
         <v>8304</v>
       </c>
       <c r="E677" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiMTVOMGtxdjBMb1U</v>
       </c>
     </row>
@@ -45395,7 +46440,7 @@
         <v>6038</v>
       </c>
       <c r="E678" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiTjhVZEpLOXJURjQ</v>
       </c>
     </row>
@@ -45410,7 +46455,7 @@
         <v>5954</v>
       </c>
       <c r="E679" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiOTJOOWJEd1hfZW8</v>
       </c>
     </row>
@@ -45425,7 +46470,7 @@
         <v>5955</v>
       </c>
       <c r="E680" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuibG1wc3VtQzEzc1U</v>
       </c>
     </row>
@@ -45440,7 +46485,7 @@
         <v>5956</v>
       </c>
       <c r="E681" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiVE5mQzhfandmMlk</v>
       </c>
     </row>
@@ -45455,7 +46500,7 @@
         <v>6004</v>
       </c>
       <c r="E682" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuialRfcUVoS21iWXc</v>
       </c>
     </row>
@@ -45470,7 +46515,7 @@
         <v>8316</v>
       </c>
       <c r="E683" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiRjE1VDZPNEd4anc</v>
       </c>
     </row>
@@ -45485,7 +46530,7 @@
         <v>8273</v>
       </c>
       <c r="E684" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiejV1cGV6Y0h1YjA</v>
       </c>
     </row>
@@ -45500,7 +46545,7 @@
         <v>5948</v>
       </c>
       <c r="E685" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiRjBjZzE3ckhfb00</v>
       </c>
     </row>
@@ -45515,7 +46560,7 @@
         <v>7493</v>
       </c>
       <c r="E686" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiaGszMHlaWXJsNGc</v>
       </c>
     </row>
@@ -45530,7 +46575,7 @@
         <v>6015</v>
       </c>
       <c r="E687" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiVnl5UndLVV9RVDg</v>
       </c>
     </row>
@@ -45545,7 +46590,7 @@
         <v>6010</v>
       </c>
       <c r="E688" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiVlJVeFBHaWtHWkk</v>
       </c>
     </row>
@@ -45560,7 +46605,7 @@
         <v>6042</v>
       </c>
       <c r="E689" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiWDU5Zjg2a0duWjg</v>
       </c>
     </row>
@@ -45575,7 +46620,7 @@
         <v>5945</v>
       </c>
       <c r="E690" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuieGhSTno2QjFCQ3M</v>
       </c>
     </row>
@@ -45590,7 +46635,7 @@
         <v>8312</v>
       </c>
       <c r="E691" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0B-SU-eAGCKuiQVFOWXZNcXhUaTA</v>
       </c>
     </row>
@@ -45605,7 +46650,7 @@
         <v>5959</v>
       </c>
       <c r="E692" t="str">
-        <f t="shared" ref="E692:E700" si="25">TRIM(D692)</f>
+        <f t="shared" ref="E692:E700" si="26">TRIM(D692)</f>
         <v>0B-SU-eAGCKuiR1VSM3VzTkJhOUE</v>
       </c>
     </row>
@@ -45620,7 +46665,7 @@
         <v>5960</v>
       </c>
       <c r="E693" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuiZndVMGpUdzlpblk</v>
       </c>
     </row>
@@ -45635,7 +46680,7 @@
         <v>7866</v>
       </c>
       <c r="E694" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuiUWZDbmN6bUxLSkU</v>
       </c>
     </row>
@@ -45650,7 +46695,7 @@
         <v>5949</v>
       </c>
       <c r="E695" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuiQkFNcndVWV9zME0</v>
       </c>
     </row>
@@ -45665,7 +46710,7 @@
         <v>5951</v>
       </c>
       <c r="E696" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuicG45UFprcUZuNEE</v>
       </c>
     </row>
@@ -45680,7 +46725,7 @@
         <v>6003</v>
       </c>
       <c r="E697" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuiMmd5UUxleEdtOUE</v>
       </c>
     </row>
@@ -45695,7 +46740,7 @@
         <v>7302</v>
       </c>
       <c r="E698" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuidy1FNlBBNHl6b2c</v>
       </c>
     </row>
@@ -45710,7 +46755,7 @@
         <v>7677</v>
       </c>
       <c r="E699" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0B-SU-eAGCKuiWkNwTnl4OFR1WDg</v>
       </c>
     </row>
@@ -45725,7 +46770,7 @@
         <v>7857</v>
       </c>
       <c r="E700" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>17iwjER7dIEFK-A5MeGsXWTxLmA5lItfwng</v>
       </c>
     </row>
@@ -76172,4 +77217,5681 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D532"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8770</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8738</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8804</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8720</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>495</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8517</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>295</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8658</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8679</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8782</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8678</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8715</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8848</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8516</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>413</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8728</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8794</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8751</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8791</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>299</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8668</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>356</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8624</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>486</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8530</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8686</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8709</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8726</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>450</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8570</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8784</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>266</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>386</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8617</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>273</v>
+      </c>
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8703</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>464</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8559</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>328</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8644</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>341</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>426</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8590</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8745</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>392</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8613</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>383</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8798</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8711</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8852</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8558</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8676</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>449</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8572</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8701</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>348</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8631</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8756</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>411</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8599</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8755</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8789</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>92</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8832</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8571</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>289</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8808</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>325</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8645</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8734</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>322</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8647</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>497</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8513</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8596</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>461</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8562</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8780</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>351</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8628</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>353</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8626</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>396</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8854</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8512</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>216</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8743</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>405</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8603</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8632</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>412</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>480</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>195</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8712</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>454</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8565</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8681</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8718</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>462</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>261</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8671</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>428</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8588</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>318</v>
+      </c>
+      <c r="B95" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>354</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8625</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8749</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8708</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>441</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>314</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8849</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8537</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>382</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>424</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8592</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>482</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8535</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>410</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8600</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>326</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>60</v>
+      </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>499</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8509</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>491</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8522</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>166</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>97</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8767</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>333</v>
+      </c>
+      <c r="B112" t="s">
+        <v>97</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>469</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8552</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8802</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>500</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8508</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8786</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>423</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8593</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>224</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8697</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>103</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8762</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>395</v>
+      </c>
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>481</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8536</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>91</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8834</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>171</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>217</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8730</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>210</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8704</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>350</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8629</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>178</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8723</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>429</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8587</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>183</v>
+      </c>
+      <c r="B131" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>476</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8544</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>41</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8797</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>435</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8582</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>310</v>
+      </c>
+      <c r="B136" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>117</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8836</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8543</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>230</v>
+      </c>
+      <c r="B140" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8799</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>90</v>
+      </c>
+      <c r="B142" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>75</v>
+      </c>
+      <c r="B143" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>176</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8724</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>498</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8511</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>130</v>
+      </c>
+      <c r="B146" t="s">
+        <v>282</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>431</v>
+      </c>
+      <c r="B147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8790</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>102</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8763</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>233</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8689</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>245</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>192</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>205</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>69</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8831</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8783</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>208</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8706</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>104</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8761</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>65</v>
+      </c>
+      <c r="B158" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>181</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8620</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>471</v>
+      </c>
+      <c r="B160" t="s">
+        <v>89</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>419</v>
+      </c>
+      <c r="B161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>448</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8573</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>340</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8635</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>202</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>269</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8667</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>37</v>
+      </c>
+      <c r="B166" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>311</v>
+      </c>
+      <c r="B167" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>29</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8828</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>385</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>191</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>437</v>
+      </c>
+      <c r="B172" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8729</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>124</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8750</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>433</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8584</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8727</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>389</v>
+      </c>
+      <c r="B177" t="s">
+        <v>256</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>96</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8768</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>458</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8564</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>349</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8630</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>277</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8665</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>463</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8561</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>357</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8623</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>73</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8781</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>403</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8605</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>443</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8577</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>164</v>
+      </c>
+      <c r="B187" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>336</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8851</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>258</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8845</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8560</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>129</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>63</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8788</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>317</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8650</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>160</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8733</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>489</v>
+      </c>
+      <c r="B195" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>225</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8696</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>452</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8567</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>240</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8683</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>242</v>
+      </c>
+      <c r="B199" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>40</v>
+      </c>
+      <c r="B200" t="s">
+        <v>78</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>101</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8764</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>438</v>
+      </c>
+      <c r="B202" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>417</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8598</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>484</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8533</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>418</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8597</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8705</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>360</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8621</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>251</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8677</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>165</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8839</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8525</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>315</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>479</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8538</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>281</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8662</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>119</v>
+      </c>
+      <c r="B214" t="s">
+        <v>180</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>430</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8586</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>260</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8672</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>47</v>
+      </c>
+      <c r="B217" t="s">
+        <v>250</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>321</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8648</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>432</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8585</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>331</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8641</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>425</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8591</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>259</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8692</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>143</v>
+      </c>
+      <c r="B224" t="s">
+        <v>46</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>487</v>
+      </c>
+      <c r="B225" t="s">
+        <v>231</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>300</v>
+      </c>
+      <c r="B226" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>113</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8835</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8528</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>257</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>284</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8661</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>339</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8636</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>132</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8747</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>474</v>
+      </c>
+      <c r="B233" t="s">
+        <v>275</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>409</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8601</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>288</v>
+      </c>
+      <c r="B235" t="s">
+        <v>277</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>28</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8803</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>253</v>
+      </c>
+      <c r="B237" t="s">
+        <v>289</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>387</v>
+      </c>
+      <c r="B238" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>276</v>
+      </c>
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8684</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>307</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8654</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>203</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8843</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8547</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>305</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>79</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8777</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>131</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8748</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>187</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8717</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>400</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8608</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>440</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8579</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>264</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8669</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>477</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8542</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>138</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8744</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>415</v>
+      </c>
+      <c r="B253" t="s">
+        <v>65</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>78</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8778</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>45</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>185</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8719</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>398</v>
+      </c>
+      <c r="B257" t="s">
+        <v>8610</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8674</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>83</v>
+      </c>
+      <c r="B259" t="s">
+        <v>8833</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8541</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>323</v>
+      </c>
+      <c r="B260" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>309</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8653</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>137</v>
+      </c>
+      <c r="B263" t="s">
+        <v>113</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>466</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8555</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>447</v>
+      </c>
+      <c r="B265" t="s">
+        <v>8574</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>401</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8607</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>298</v>
+      </c>
+      <c r="B267" t="s">
+        <v>292</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>54</v>
+      </c>
+      <c r="B268" t="s">
+        <v>260</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>249</v>
+      </c>
+      <c r="B269" t="s">
+        <v>291</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>455</v>
+      </c>
+      <c r="B270" t="s">
+        <v>181</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>301</v>
+      </c>
+      <c r="B271" t="s">
+        <v>111</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>114</v>
+      </c>
+      <c r="B272" t="s">
+        <v>182</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>42</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8830</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8554</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>347</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>174</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8725</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>324</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8646</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>56</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8792</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>72</v>
+      </c>
+      <c r="B280" t="s">
+        <v>153</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>22</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>231</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8691</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>451</v>
+      </c>
+      <c r="B283" t="s">
+        <v>8569</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>262</v>
+      </c>
+      <c r="B284" t="s">
+        <v>8670</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>118</v>
+      </c>
+      <c r="B285" t="s">
+        <v>63</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>54</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>267</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8847</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8568</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>397</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>465</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8557</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>243</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>142</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8741</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>80</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8776</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>95</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>337</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8638</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>141</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8742</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>271</v>
+      </c>
+      <c r="B297" t="s">
+        <v>48</v>
+      </c>
+      <c r="C297" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>220</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8700</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>32</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8801</v>
+      </c>
+      <c r="C299" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>304</v>
+      </c>
+      <c r="B300" t="s">
+        <v>174</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>313</v>
+      </c>
+      <c r="B301" t="s">
+        <v>102</v>
+      </c>
+      <c r="C301" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>436</v>
+      </c>
+      <c r="B302" t="s">
+        <v>8581</v>
+      </c>
+      <c r="C302" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>206</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8707</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>179</v>
+      </c>
+      <c r="B304" t="s">
+        <v>8841</v>
+      </c>
+      <c r="C304" t="s">
+        <v>8556</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>128</v>
+      </c>
+      <c r="B305" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C305" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>116</v>
+      </c>
+      <c r="B307" t="s">
+        <v>8753</v>
+      </c>
+      <c r="C307" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>342</v>
+      </c>
+      <c r="B308" t="s">
+        <v>8634</v>
+      </c>
+      <c r="C308" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>23</v>
+      </c>
+      <c r="B309" t="s">
+        <v>8807</v>
+      </c>
+      <c r="C309" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>421</v>
+      </c>
+      <c r="B310" t="s">
+        <v>8595</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>453</v>
+      </c>
+      <c r="B311" t="s">
+        <v>8566</v>
+      </c>
+      <c r="C311" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>278</v>
+      </c>
+      <c r="B312" t="s">
+        <v>8664</v>
+      </c>
+      <c r="C312" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>332</v>
+      </c>
+      <c r="B313" t="s">
+        <v>8640</v>
+      </c>
+      <c r="C313" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>46</v>
+      </c>
+      <c r="B314" t="s">
+        <v>164</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8550</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>256</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8673</v>
+      </c>
+      <c r="C315" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>232</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8690</v>
+      </c>
+      <c r="C316" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>246</v>
+      </c>
+      <c r="B317" t="s">
+        <v>8680</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>470</v>
+      </c>
+      <c r="B318" t="s">
+        <v>8551</v>
+      </c>
+      <c r="C318" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>406</v>
+      </c>
+      <c r="B319" t="s">
+        <v>47</v>
+      </c>
+      <c r="C319" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>177</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8840</v>
+      </c>
+      <c r="C320" t="s">
+        <v>8550</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>145</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8550</v>
+      </c>
+      <c r="D321" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>25</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8805</v>
+      </c>
+      <c r="C323" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>472</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8548</v>
+      </c>
+      <c r="C324" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>167</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8731</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>85</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8773</v>
+      </c>
+      <c r="C326" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>120</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8752</v>
+      </c>
+      <c r="C327" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>280</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8663</v>
+      </c>
+      <c r="C328" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>286</v>
+      </c>
+      <c r="B329" t="s">
+        <v>16</v>
+      </c>
+      <c r="C329" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>293</v>
+      </c>
+      <c r="B330" t="s">
+        <v>192</v>
+      </c>
+      <c r="C330" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>444</v>
+      </c>
+      <c r="B331" t="s">
+        <v>268</v>
+      </c>
+      <c r="C331" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>488</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8527</v>
+      </c>
+      <c r="C332" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>182</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8721</v>
+      </c>
+      <c r="C333" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>414</v>
+      </c>
+      <c r="B334" t="s">
+        <v>257</v>
+      </c>
+      <c r="C334" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>330</v>
+      </c>
+      <c r="B335" t="s">
+        <v>8642</v>
+      </c>
+      <c r="C335" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>87</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8772</v>
+      </c>
+      <c r="C336" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>214</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8844</v>
+      </c>
+      <c r="C337" t="s">
+        <v>8526</v>
+      </c>
+      <c r="D337" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>197</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C338" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>226</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8695</v>
+      </c>
+      <c r="C340" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>55</v>
+      </c>
+      <c r="B341" t="s">
+        <v>8793</v>
+      </c>
+      <c r="C341" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>302</v>
+      </c>
+      <c r="B342" t="s">
+        <v>206</v>
+      </c>
+      <c r="C342" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>343</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8633</v>
+      </c>
+      <c r="C343" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>34</v>
+      </c>
+      <c r="B344" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>67</v>
+      </c>
+      <c r="B345" t="s">
+        <v>8785</v>
+      </c>
+      <c r="C345" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>399</v>
+      </c>
+      <c r="B346" t="s">
+        <v>8609</v>
+      </c>
+      <c r="C346" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>359</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8622</v>
+      </c>
+      <c r="C347" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>146</v>
+      </c>
+      <c r="B348" t="s">
+        <v>128</v>
+      </c>
+      <c r="C348" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>388</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8616</v>
+      </c>
+      <c r="C349" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>199</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8842</v>
+      </c>
+      <c r="C350" t="s">
+        <v>100</v>
+      </c>
+      <c r="D350" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>149</v>
+      </c>
+      <c r="B351" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C351" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>402</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8606</v>
+      </c>
+      <c r="C354" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>161</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8732</v>
+      </c>
+      <c r="C355" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>13</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8813</v>
+      </c>
+      <c r="C356" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357">
+        <v>70</v>
+      </c>
+      <c r="B357" t="s">
+        <v>84</v>
+      </c>
+      <c r="C357" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>467</v>
+      </c>
+      <c r="B358" t="s">
+        <v>64</v>
+      </c>
+      <c r="C358" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
+        <v>478</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8540</v>
+      </c>
+      <c r="C359" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>222</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8699</v>
+      </c>
+      <c r="C360" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>270</v>
+      </c>
+      <c r="B361" t="s">
+        <v>148</v>
+      </c>
+      <c r="C361" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>390</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8615</v>
+      </c>
+      <c r="C362" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
+        <v>150</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8737</v>
+      </c>
+      <c r="C363" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>236</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8687</v>
+      </c>
+      <c r="C364" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>459</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8563</v>
+      </c>
+      <c r="C365" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>58</v>
+      </c>
+      <c r="B366" t="s">
+        <v>132</v>
+      </c>
+      <c r="C366" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>36</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8829</v>
+      </c>
+      <c r="C367" t="s">
+        <v>8539</v>
+      </c>
+      <c r="D367" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>283</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C368" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>81</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8775</v>
+      </c>
+      <c r="C370" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>163</v>
+      </c>
+      <c r="B371" t="s">
+        <v>55</v>
+      </c>
+      <c r="C371" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>99</v>
+      </c>
+      <c r="B372" t="s">
+        <v>8766</v>
+      </c>
+      <c r="C372" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>194</v>
+      </c>
+      <c r="B373" t="s">
+        <v>8713</v>
+      </c>
+      <c r="C373" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>345</v>
+      </c>
+      <c r="B374" t="s">
+        <v>269</v>
+      </c>
+      <c r="C374" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>24</v>
+      </c>
+      <c r="B375" t="s">
+        <v>8806</v>
+      </c>
+      <c r="C375" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>241</v>
+      </c>
+      <c r="B376" t="s">
+        <v>8682</v>
+      </c>
+      <c r="C376" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>442</v>
+      </c>
+      <c r="B377" t="s">
+        <v>229</v>
+      </c>
+      <c r="C377" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>16</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8827</v>
+      </c>
+      <c r="C378" t="s">
+        <v>8578</v>
+      </c>
+      <c r="D378" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>358</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C379" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>134</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8746</v>
+      </c>
+      <c r="C381" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>290</v>
+      </c>
+      <c r="B382" t="s">
+        <v>60</v>
+      </c>
+      <c r="C382" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>196</v>
+      </c>
+      <c r="B383" t="s">
+        <v>76</v>
+      </c>
+      <c r="C383" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>475</v>
+      </c>
+      <c r="B384" t="s">
+        <v>8546</v>
+      </c>
+      <c r="C384" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>50</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8795</v>
+      </c>
+      <c r="C385" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>44</v>
+      </c>
+      <c r="B386" t="s">
+        <v>154</v>
+      </c>
+      <c r="C386" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>439</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8580</v>
+      </c>
+      <c r="C387" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>121</v>
+      </c>
+      <c r="B388" t="s">
+        <v>211</v>
+      </c>
+      <c r="C388" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>238</v>
+      </c>
+      <c r="B389" t="s">
+        <v>8685</v>
+      </c>
+      <c r="C389" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>254</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8675</v>
+      </c>
+      <c r="C390" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>460</v>
+      </c>
+      <c r="B391" t="s">
+        <v>208</v>
+      </c>
+      <c r="C391" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>8614</v>
+      </c>
+      <c r="C392" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>189</v>
+      </c>
+      <c r="B393" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C393" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>105</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8760</v>
+      </c>
+      <c r="C395" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>292</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8659</v>
+      </c>
+      <c r="C396" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>109</v>
+      </c>
+      <c r="B397" t="s">
+        <v>251</v>
+      </c>
+      <c r="C397" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>86</v>
+      </c>
+      <c r="B398" t="s">
+        <v>230</v>
+      </c>
+      <c r="C398" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>408</v>
+      </c>
+      <c r="B399" t="s">
+        <v>8602</v>
+      </c>
+      <c r="C399" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>327</v>
+      </c>
+      <c r="B400" t="s">
+        <v>103</v>
+      </c>
+      <c r="C400" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>456</v>
+      </c>
+      <c r="B401" t="s">
+        <v>49</v>
+      </c>
+      <c r="C401" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>88</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8771</v>
+      </c>
+      <c r="C402" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>82</v>
+      </c>
+      <c r="B403" t="s">
+        <v>209</v>
+      </c>
+      <c r="C403" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>274</v>
+      </c>
+      <c r="B404" t="s">
+        <v>8666</v>
+      </c>
+      <c r="C404" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>422</v>
+      </c>
+      <c r="B405" t="s">
+        <v>8594</v>
+      </c>
+      <c r="C405" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>48</v>
+      </c>
+      <c r="B406" t="s">
+        <v>8796</v>
+      </c>
+      <c r="C406" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>202</v>
+      </c>
+      <c r="B407" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C407" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>100</v>
+      </c>
+      <c r="B409" t="s">
+        <v>8765</v>
+      </c>
+      <c r="C409" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>492</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8521</v>
+      </c>
+      <c r="C410" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>106</v>
+      </c>
+      <c r="B411" t="s">
+        <v>8759</v>
+      </c>
+      <c r="C411" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>188</v>
+      </c>
+      <c r="B412" t="s">
+        <v>8716</v>
+      </c>
+      <c r="C412" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>33</v>
+      </c>
+      <c r="B413" t="s">
+        <v>8800</v>
+      </c>
+      <c r="C413" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>344</v>
+      </c>
+      <c r="B414" t="s">
+        <v>98</v>
+      </c>
+      <c r="C414" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>381</v>
+      </c>
+      <c r="B415" t="s">
+        <v>8618</v>
+      </c>
+      <c r="C415" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>200</v>
+      </c>
+      <c r="B416" t="s">
+        <v>8710</v>
+      </c>
+      <c r="C416" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>108</v>
+      </c>
+      <c r="B417" t="s">
+        <v>8757</v>
+      </c>
+      <c r="C417" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>180</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8722</v>
+      </c>
+      <c r="C418" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>285</v>
+      </c>
+      <c r="B419" t="s">
+        <v>8660</v>
+      </c>
+      <c r="C419" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>77</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8779</v>
+      </c>
+      <c r="C420" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>162</v>
+      </c>
+      <c r="B421" t="s">
+        <v>8838</v>
+      </c>
+      <c r="C421" t="s">
+        <v>8520</v>
+      </c>
+      <c r="D421" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>234</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C422" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424">
+        <v>494</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8518</v>
+      </c>
+      <c r="C424" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425">
+        <v>329</v>
+      </c>
+      <c r="B425" t="s">
+        <v>8643</v>
+      </c>
+      <c r="C425" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426">
+        <v>223</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8698</v>
+      </c>
+      <c r="C426" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427">
+        <v>19</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8809</v>
+      </c>
+      <c r="C427" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>84</v>
+      </c>
+      <c r="B428" t="s">
+        <v>8774</v>
+      </c>
+      <c r="C428" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>496</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8515</v>
+      </c>
+      <c r="C429" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>352</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8627</v>
+      </c>
+      <c r="C430" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>14</v>
+      </c>
+      <c r="B431" t="s">
+        <v>8812</v>
+      </c>
+      <c r="C431" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>15</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8811</v>
+      </c>
+      <c r="C432" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>126</v>
+      </c>
+      <c r="B433" t="s">
+        <v>140</v>
+      </c>
+      <c r="C433" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>227</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8694</v>
+      </c>
+      <c r="C434" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>89</v>
+      </c>
+      <c r="B435" t="s">
+        <v>253</v>
+      </c>
+      <c r="C435" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>127</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8837</v>
+      </c>
+      <c r="C436" t="s">
+        <v>8514</v>
+      </c>
+      <c r="D436" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>27</v>
+      </c>
+      <c r="B437" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C437" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>287</v>
+      </c>
+      <c r="B438" t="s">
+        <v>201</v>
+      </c>
+      <c r="C438" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>335</v>
+      </c>
+      <c r="B439" t="s">
+        <v>8639</v>
+      </c>
+      <c r="C439" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>473</v>
+      </c>
+      <c r="B440" t="s">
+        <v>197</v>
+      </c>
+      <c r="C440" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>115</v>
+      </c>
+      <c r="B442" t="s">
+        <v>8754</v>
+      </c>
+      <c r="C442" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>228</v>
+      </c>
+      <c r="B443" t="s">
+        <v>8693</v>
+      </c>
+      <c r="C443" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>296</v>
+      </c>
+      <c r="B444" t="s">
+        <v>146</v>
+      </c>
+      <c r="C444" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>483</v>
+      </c>
+      <c r="B445" t="s">
+        <v>8534</v>
+      </c>
+      <c r="C445" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>17</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8810</v>
+      </c>
+      <c r="C446" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>338</v>
+      </c>
+      <c r="B447" t="s">
+        <v>8637</v>
+      </c>
+      <c r="C447" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>493</v>
+      </c>
+      <c r="B448" t="s">
+        <v>34</v>
+      </c>
+      <c r="C448" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>416</v>
+      </c>
+      <c r="B449" t="s">
+        <v>56</v>
+      </c>
+      <c r="C449" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>394</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C450" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>468</v>
+      </c>
+      <c r="B452" t="s">
+        <v>8553</v>
+      </c>
+      <c r="C452" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>312</v>
+      </c>
+      <c r="B453" t="s">
+        <v>8652</v>
+      </c>
+      <c r="C453" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>193</v>
+      </c>
+      <c r="B454" t="s">
+        <v>8714</v>
+      </c>
+      <c r="C454" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>445</v>
+      </c>
+      <c r="B455" t="s">
+        <v>8576</v>
+      </c>
+      <c r="C455" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>297</v>
+      </c>
+      <c r="B456" t="s">
+        <v>8657</v>
+      </c>
+      <c r="C456" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>94</v>
+      </c>
+      <c r="B457" t="s">
+        <v>8769</v>
+      </c>
+      <c r="C457" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>139</v>
+      </c>
+      <c r="B458" t="s">
+        <v>82</v>
+      </c>
+      <c r="C458" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>446</v>
+      </c>
+      <c r="B459" t="s">
+        <v>8575</v>
+      </c>
+      <c r="C459" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>490</v>
+      </c>
+      <c r="B460" t="s">
+        <v>8524</v>
+      </c>
+      <c r="C460" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>334</v>
+      </c>
+      <c r="B461" t="s">
+        <v>222</v>
+      </c>
+      <c r="C461" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>316</v>
+      </c>
+      <c r="B462" t="s">
+        <v>8651</v>
+      </c>
+      <c r="C462" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>212</v>
+      </c>
+      <c r="B463" t="s">
+        <v>8702</v>
+      </c>
+      <c r="C463" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>61</v>
+      </c>
+      <c r="B464" t="s">
+        <v>94</v>
+      </c>
+      <c r="C464" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465">
+        <v>308</v>
+      </c>
+      <c r="B465" t="s">
+        <v>106</v>
+      </c>
+      <c r="C465" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466">
+        <v>235</v>
+      </c>
+      <c r="B466" t="s">
+        <v>8688</v>
+      </c>
+      <c r="C466" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467">
+        <v>175</v>
+      </c>
+      <c r="B467" t="s">
+        <v>234</v>
+      </c>
+      <c r="C467" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468">
+        <v>107</v>
+      </c>
+      <c r="B468" t="s">
+        <v>8758</v>
+      </c>
+      <c r="C468" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469">
+        <v>64</v>
+      </c>
+      <c r="B469" t="s">
+        <v>8787</v>
+      </c>
+      <c r="C469" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470">
+        <v>434</v>
+      </c>
+      <c r="B470" t="s">
+        <v>8583</v>
+      </c>
+      <c r="C470" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471">
+        <v>393</v>
+      </c>
+      <c r="B471" t="s">
+        <v>8853</v>
+      </c>
+      <c r="C471" t="s">
+        <v>8523</v>
+      </c>
+      <c r="D471" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>221</v>
+      </c>
+      <c r="B472" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C472" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474">
+        <v>306</v>
+      </c>
+      <c r="B474" t="s">
+        <v>8655</v>
+      </c>
+      <c r="C474" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475">
+        <v>355</v>
+      </c>
+      <c r="B475" t="s">
+        <v>142</v>
+      </c>
+      <c r="C475" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476">
+        <v>427</v>
+      </c>
+      <c r="B476" t="s">
+        <v>8589</v>
+      </c>
+      <c r="C476" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477">
+        <v>457</v>
+      </c>
+      <c r="B477" t="s">
+        <v>168</v>
+      </c>
+      <c r="C477" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478">
+        <v>51</v>
+      </c>
+      <c r="B478" t="s">
+        <v>270</v>
+      </c>
+      <c r="C478" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479">
+        <v>303</v>
+      </c>
+      <c r="B479" t="s">
+        <v>8656</v>
+      </c>
+      <c r="C479" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480">
+        <v>320</v>
+      </c>
+      <c r="B480" t="s">
+        <v>8649</v>
+      </c>
+      <c r="C480" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481">
+        <v>404</v>
+      </c>
+      <c r="B481" t="s">
+        <v>8604</v>
+      </c>
+      <c r="C481" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482">
+        <v>265</v>
+      </c>
+      <c r="B482" t="s">
+        <v>136</v>
+      </c>
+      <c r="C482" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483">
+        <v>144</v>
+      </c>
+      <c r="B483" t="s">
+        <v>8740</v>
+      </c>
+      <c r="C483" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484">
+        <v>407</v>
+      </c>
+      <c r="B484" t="s">
+        <v>241</v>
+      </c>
+      <c r="C484" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485">
+        <v>111</v>
+      </c>
+      <c r="B485" t="s">
+        <v>177</v>
+      </c>
+      <c r="C485" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8532</v>
+      </c>
+      <c r="C486" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487">
+        <v>319</v>
+      </c>
+      <c r="B487" t="s">
+        <v>8850</v>
+      </c>
+      <c r="C487" t="s">
+        <v>8531</v>
+      </c>
+      <c r="D487" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488">
+        <v>279</v>
+      </c>
+      <c r="B488" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C488" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490">
+        <v>5</v>
+      </c>
+      <c r="B490" t="s">
+        <v>8819</v>
+      </c>
+      <c r="C490" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491">
+        <v>10</v>
+      </c>
+      <c r="B491" t="s">
+        <v>8824</v>
+      </c>
+      <c r="C491" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492">
+        <v>1</v>
+      </c>
+      <c r="B492" t="s">
+        <v>8815</v>
+      </c>
+      <c r="C492" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493">
+        <v>2</v>
+      </c>
+      <c r="B493" t="s">
+        <v>8816</v>
+      </c>
+      <c r="C493" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>8818</v>
+      </c>
+      <c r="C494" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495">
+        <v>12</v>
+      </c>
+      <c r="B495" t="s">
+        <v>8826</v>
+      </c>
+      <c r="C495" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496">
+        <v>8</v>
+      </c>
+      <c r="B496" t="s">
+        <v>8822</v>
+      </c>
+      <c r="C496" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497">
+        <v>263</v>
+      </c>
+      <c r="B497" t="s">
+        <v>8846</v>
+      </c>
+      <c r="C497" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498">
+        <v>7</v>
+      </c>
+      <c r="B498" t="s">
+        <v>8821</v>
+      </c>
+      <c r="C498" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499">
+        <v>6</v>
+      </c>
+      <c r="B499" t="s">
+        <v>8820</v>
+      </c>
+      <c r="C499" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500">
+        <v>3</v>
+      </c>
+      <c r="B500" t="s">
+        <v>8817</v>
+      </c>
+      <c r="C500" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501">
+        <v>9</v>
+      </c>
+      <c r="B501" t="s">
+        <v>8823</v>
+      </c>
+      <c r="C501" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502">
+        <v>11</v>
+      </c>
+      <c r="B502" t="s">
+        <v>8825</v>
+      </c>
+      <c r="C502" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504">
+        <v>151</v>
+      </c>
+      <c r="B504" t="s">
+        <v>8620</v>
+      </c>
+      <c r="C504" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D504" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505">
+        <v>152</v>
+      </c>
+      <c r="B505" t="s">
+        <v>8593</v>
+      </c>
+      <c r="C505" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D505" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506">
+        <v>153</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8736</v>
+      </c>
+      <c r="C506" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D506" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507">
+        <v>154</v>
+      </c>
+      <c r="B507" t="s">
+        <v>8573</v>
+      </c>
+      <c r="C507" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D507" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508">
+        <v>155</v>
+      </c>
+      <c r="B508" t="s">
+        <v>8548</v>
+      </c>
+      <c r="C508" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D508" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509">
+        <v>156</v>
+      </c>
+      <c r="B509" t="s">
+        <v>8592</v>
+      </c>
+      <c r="C509" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D509" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510">
+        <v>157</v>
+      </c>
+      <c r="B510" t="s">
+        <v>81</v>
+      </c>
+      <c r="C510" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D510" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511">
+        <v>158</v>
+      </c>
+      <c r="B511" t="s">
+        <v>8611</v>
+      </c>
+      <c r="C511" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D511" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513">
+        <v>361</v>
+      </c>
+      <c r="B513" t="s">
+        <v>28</v>
+      </c>
+      <c r="C513" t="s">
+        <v>8537</v>
+      </c>
+      <c r="D513" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514">
+        <v>362</v>
+      </c>
+      <c r="B514" t="s">
+        <v>8588</v>
+      </c>
+      <c r="C514" t="s">
+        <v>8537</v>
+      </c>
+      <c r="D514" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515">
+        <v>363</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8570</v>
+      </c>
+      <c r="C515" t="s">
+        <v>8529</v>
+      </c>
+      <c r="D515" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516">
+        <v>364</v>
+      </c>
+      <c r="B516" t="s">
+        <v>8597</v>
+      </c>
+      <c r="C516" t="s">
+        <v>8525</v>
+      </c>
+      <c r="D516" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517">
+        <v>365</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8524</v>
+      </c>
+      <c r="C517" t="s">
+        <v>8523</v>
+      </c>
+      <c r="D517" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518">
+        <v>366</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8586</v>
+      </c>
+      <c r="C518" t="s">
+        <v>8528</v>
+      </c>
+      <c r="D518" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519">
+        <v>367</v>
+      </c>
+      <c r="B519" t="s">
+        <v>8579</v>
+      </c>
+      <c r="C519" t="s">
+        <v>8541</v>
+      </c>
+      <c r="D519" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520">
+        <v>368</v>
+      </c>
+      <c r="B520" t="s">
+        <v>8596</v>
+      </c>
+      <c r="C520" t="s">
+        <v>8512</v>
+      </c>
+      <c r="D520" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521">
+        <v>369</v>
+      </c>
+      <c r="B521" t="s">
+        <v>8594</v>
+      </c>
+      <c r="C521" t="s">
+        <v>33</v>
+      </c>
+      <c r="D521" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522">
+        <v>370</v>
+      </c>
+      <c r="B522" t="s">
+        <v>8591</v>
+      </c>
+      <c r="C522" t="s">
+        <v>8528</v>
+      </c>
+      <c r="D522" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523">
+        <v>371</v>
+      </c>
+      <c r="B523" t="s">
+        <v>8508</v>
+      </c>
+      <c r="C523" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D523" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524">
+        <v>372</v>
+      </c>
+      <c r="B524" t="s">
+        <v>8600</v>
+      </c>
+      <c r="C524" t="s">
+        <v>8507</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525">
+        <v>373</v>
+      </c>
+      <c r="B525" t="s">
+        <v>8605</v>
+      </c>
+      <c r="C525" t="s">
+        <v>8560</v>
+      </c>
+      <c r="D525" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526">
+        <v>374</v>
+      </c>
+      <c r="B526" t="s">
+        <v>8608</v>
+      </c>
+      <c r="C526" t="s">
+        <v>8541</v>
+      </c>
+      <c r="D526" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527">
+        <v>375</v>
+      </c>
+      <c r="B527" t="s">
+        <v>8546</v>
+      </c>
+      <c r="C527" t="s">
+        <v>8545</v>
+      </c>
+      <c r="D527" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528">
+        <v>376</v>
+      </c>
+      <c r="B528" t="s">
+        <v>208</v>
+      </c>
+      <c r="C528" t="s">
+        <v>8545</v>
+      </c>
+      <c r="D528" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529">
+        <v>377</v>
+      </c>
+      <c r="B529" t="s">
+        <v>8589</v>
+      </c>
+      <c r="C529" t="s">
+        <v>8531</v>
+      </c>
+      <c r="D529" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530">
+        <v>378</v>
+      </c>
+      <c r="B530" t="s">
+        <v>8604</v>
+      </c>
+      <c r="C530" t="s">
+        <v>8531</v>
+      </c>
+      <c r="D530" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531">
+        <v>379</v>
+      </c>
+      <c r="B531" t="s">
+        <v>8551</v>
+      </c>
+      <c r="C531" t="s">
+        <v>8550</v>
+      </c>
+      <c r="D531" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532">
+        <v>380</v>
+      </c>
+      <c r="B532" t="s">
+        <v>8620</v>
+      </c>
+      <c r="C532" t="s">
+        <v>8549</v>
+      </c>
+      <c r="D532" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:E471">
+    <sortCondition ref="C1:C471"/>
+    <sortCondition ref="B1:B471"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="ID Table" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13167" uniqueCount="9039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13169" uniqueCount="9041">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -27138,6 +27138,12 @@
   </si>
   <si>
     <t>0B-SU-eAGCKuiTnl1Ylp5OGpXaVE</t>
+  </si>
+  <si>
+    <t>Howie Kendrick first look.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQV9PblFneFQwOUE</t>
   </si>
 </sst>
 </file>
@@ -27975,7 +27981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -27985,8 +27991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1223"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28651,6 +28657,14 @@
       </c>
       <c r="B85" t="s">
         <v>8996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>9039</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9040</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -37010,7 +37024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+    <sheetView topLeftCell="A579" workbookViewId="0">
       <selection activeCell="D581" sqref="D581"/>
     </sheetView>
   </sheetViews>

--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13789" uniqueCount="9376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13816" uniqueCount="9393">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -28156,6 +28156,57 @@
   </si>
   <si>
     <t>0B-SU-eAGCKuiMXBLWUxNWDdDUFU</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiVW9IaF9vTmExYnM</t>
+  </si>
+  <si>
+    <t>Jedd Gyorko.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQ3dWeXczZTJfSWs</t>
+  </si>
+  <si>
+    <t>Austin Hedges.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiYlgzV2JFSkVZd0k</t>
+  </si>
+  <si>
+    <t>Ubaldo Jimenez.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiRUR1S3prdnlFRkE</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiNVpqZmgtRHQtRW8</t>
+  </si>
+  <si>
+    <t>Colin McHugh.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidXNKX1Z6NXVIR3M</t>
+  </si>
+  <si>
+    <t>Stephen Piscotty.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidHdUdGpNODJsdUE</t>
+  </si>
+  <si>
+    <t>Trea Turner.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZGs3cTVtS1R3bUE</t>
+  </si>
+  <si>
+    <t>Branden Maurer.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiejM5S194SFVTa1U</t>
+  </si>
+  <si>
+    <t>Dbacks</t>
   </si>
 </sst>
 </file>
@@ -29010,8 +29061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29281,6 +29332,9 @@
       <c r="A37" t="s">
         <v>250</v>
       </c>
+      <c r="B37" t="s">
+        <v>9385</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -29647,6 +29701,9 @@
       <c r="A98" t="s">
         <v>543</v>
       </c>
+      <c r="B98" t="s">
+        <v>9378</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -29681,6 +29738,9 @@
       <c r="A103" t="s">
         <v>547</v>
       </c>
+      <c r="B103" t="s">
+        <v>9387</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -29808,6 +29868,9 @@
       <c r="A126" t="s">
         <v>308</v>
       </c>
+      <c r="B126" t="s">
+        <v>9376</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -29914,6 +29977,9 @@
       <c r="A142" t="s">
         <v>9052</v>
       </c>
+      <c r="B142" t="s">
+        <v>9383</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -30440,6 +30506,9 @@
       <c r="A224" t="s">
         <v>581</v>
       </c>
+      <c r="B224" t="s">
+        <v>9389</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -30498,6 +30567,9 @@
       <c r="A235" t="s">
         <v>328</v>
       </c>
+      <c r="B235" t="s">
+        <v>9382</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
@@ -30556,6 +30628,9 @@
       <c r="A246" t="s">
         <v>4195</v>
       </c>
+      <c r="B246" t="s">
+        <v>9380</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -30568,6 +30643,9 @@
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>9080</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9391</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -37232,10 +37310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37243,9 +37321,82 @@
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <sortState ref="A2:C21">
-    <sortCondition ref="C2:C21"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8374</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9388</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9381</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9379</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C10">
+    <sortCondition ref="C2:C10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13816" uniqueCount="9393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13800" uniqueCount="9387">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -28161,52 +28161,34 @@
     <t>0B-SU-eAGCKuiVW9IaF9vTmExYnM</t>
   </si>
   <si>
-    <t>Jedd Gyorko.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuiQ3dWeXczZTJfSWs</t>
   </si>
   <si>
-    <t>Austin Hedges.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuiYlgzV2JFSkVZd0k</t>
   </si>
   <si>
-    <t>Ubaldo Jimenez.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuiRUR1S3prdnlFRkE</t>
   </si>
   <si>
     <t>0B-SU-eAGCKuiNVpqZmgtRHQtRW8</t>
   </si>
   <si>
-    <t>Colin McHugh.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuidXNKX1Z6NXVIR3M</t>
   </si>
   <si>
-    <t>Stephen Piscotty.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuidHdUdGpNODJsdUE</t>
   </si>
   <si>
-    <t>Trea Turner.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuiZGs3cTVtS1R3bUE</t>
   </si>
   <si>
-    <t>Branden Maurer.png</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuiejM5S194SFVTa1U</t>
   </si>
   <si>
-    <t>Dbacks</t>
+    <t>0B-SU-eAGCKuiOFBIRk1tWDRvbW8</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiRElLM2RUZjJLRU0</t>
   </si>
 </sst>
 </file>
@@ -29061,8 +29043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29333,7 +29315,7 @@
         <v>250</v>
       </c>
       <c r="B37" t="s">
-        <v>9385</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -29702,13 +29684,16 @@
         <v>543</v>
       </c>
       <c r="B98" t="s">
-        <v>9378</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>187</v>
       </c>
+      <c r="B99" t="s">
+        <v>9385</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -29739,7 +29724,7 @@
         <v>547</v>
       </c>
       <c r="B103" t="s">
-        <v>9387</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -29978,7 +29963,7 @@
         <v>9052</v>
       </c>
       <c r="B142" t="s">
-        <v>9383</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -30507,7 +30492,7 @@
         <v>581</v>
       </c>
       <c r="B224" t="s">
-        <v>9389</v>
+        <v>9383</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -30568,7 +30553,7 @@
         <v>328</v>
       </c>
       <c r="B235" t="s">
-        <v>9382</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -30629,7 +30614,7 @@
         <v>4195</v>
       </c>
       <c r="B246" t="s">
-        <v>9380</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -30645,7 +30630,7 @@
         <v>9080</v>
       </c>
       <c r="B248" t="s">
-        <v>9391</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -31618,6 +31603,9 @@
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>257</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9386</v>
       </c>
     </row>
   </sheetData>
@@ -37310,10 +37298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37321,80 +37309,7 @@
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9384</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9377</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9386</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8374</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9388</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9381</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9379</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9390</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5384</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sortState ref="A2:C10">
     <sortCondition ref="C2:C10"/>
   </sortState>

--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14028" uniqueCount="9509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14115" uniqueCount="9562">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -28542,9 +28542,6 @@
     <t>Noah Syndergaard Reward</t>
   </si>
   <si>
-    <t>Mothers Day</t>
-  </si>
-  <si>
     <t>0B-SU-eAGCKuiclhTYWpsVTRPQk0</t>
   </si>
   <si>
@@ -28555,6 +28552,168 @@
   </si>
   <si>
     <t>Max Scherzer Cy Young</t>
+  </si>
+  <si>
+    <t>Brandon Belt Opening Day.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiVVNVVm9ZMUVLenM</t>
+  </si>
+  <si>
+    <t>1bsGNylhcaSvlSUQs4eAJA3jIO3rZnwWKJQ</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiVmE0STA4ZE9rbjQ</t>
+  </si>
+  <si>
+    <t>Ichiro Gypsy Queen.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiczBxaGR4Q0dnV00</t>
+  </si>
+  <si>
+    <t>Jose Altuve Bunt.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiUWlUMEhfdnZWX1k</t>
+  </si>
+  <si>
+    <t>Evan Longoria.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiczhBaUFERHZrZmM</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZmVGbFUtMnlCWHc</t>
+  </si>
+  <si>
+    <t>1ZI0tFLblUKqeAxPWDgUdhZCMYS3Dhxs2qg</t>
+  </si>
+  <si>
+    <t>Hunter Renfroe.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiV0E4R0FZVTJtdXM</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuibVFQZGpwWHdjQWc</t>
+  </si>
+  <si>
+    <t>Salvador Perez.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiRUx4c1psVTRBanc</t>
+  </si>
+  <si>
+    <t>Anthony DeScalfani.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidWc2cmprckRjeWs</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiUmFTOU0wYmlIVkk</t>
+  </si>
+  <si>
+    <t>Mike Mustakis Opening Day.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiR2RnVy1ScF9aUGM</t>
+  </si>
+  <si>
+    <t>Kris Bryant Memorial Day.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiN2dqVXZGWU1oXzQ</t>
+  </si>
+  <si>
+    <t>Anthony Rendon.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiNndaM2RncGpnLTg</t>
+  </si>
+  <si>
+    <t>Kyle Seager.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQlVGRmZuTzNSWEk</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTFc0Mm5vYjJrcWc</t>
+  </si>
+  <si>
+    <t>Derek Carr Stadium Club.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuieHlNMG52Nk5laFU</t>
+  </si>
+  <si>
+    <t>Rishard Matthews Tribute.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiMUdWY3JuOHItUjA</t>
+  </si>
+  <si>
+    <t>Paul Perkins Deluxe.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZUZIam1obS1yckE</t>
+  </si>
+  <si>
+    <t>Jordan Reed Whiteout.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiaVoyNng0YzBPQWs</t>
+  </si>
+  <si>
+    <t>Amendola Edelman Duos.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiT0FwVnFPQzdkeWM</t>
+  </si>
+  <si>
+    <t>Jameis Winston Whiteout.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiR3Q3WC1zbXdWUTA</t>
+  </si>
+  <si>
+    <t>Billy Hamilton.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidXc2RzB0VUxHOTQ</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZjlCZlU0TUtmTjA</t>
+  </si>
+  <si>
+    <t>Tommy Joseph Physical.png</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro Physical.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiVWlwRkNnQldOdHM</t>
+  </si>
+  <si>
+    <t>Bryce Harper Opening Day.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQTRKdXBpUTRzSlk</t>
+  </si>
+  <si>
+    <t>Aaron Nola Physical.png</t>
+  </si>
+  <si>
+    <t>1kzCcIRIxe1A0f6CpMfiQpgKOiQjefcl0mw</t>
+  </si>
+  <si>
+    <t>Yu Darvish Gypsy Queen</t>
+  </si>
+  <si>
+    <t>Mothers Day / Memorial Day</t>
+  </si>
+  <si>
+    <t>Mem</t>
   </si>
 </sst>
 </file>
@@ -29414,10 +29573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:XFD463"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E477" sqref="E477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29537,3089 +29696,3108 @@
         <v>9442</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9552</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9510</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9044</v>
+        <v>9553</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9519</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>9557</v>
       </c>
       <c r="B17" t="s">
-        <v>9087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9088</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4754</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9089</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3125</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>9090</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>694</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>9091</v>
+        <v>9088</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>4754</v>
       </c>
       <c r="B22" t="s">
-        <v>9354</v>
+        <v>9089</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>3125</v>
       </c>
       <c r="B23" t="s">
-        <v>9092</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>694</v>
       </c>
       <c r="B24" t="s">
-        <v>9093</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1164</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>9094</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>9095</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9423</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s">
-        <v>9404</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5373</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9429</v>
+        <v>1164</v>
       </c>
       <c r="B28" t="s">
-        <v>9430</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9500</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>9482</v>
-      </c>
-      <c r="C29" t="s">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9423</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9404</v>
+      </c>
+      <c r="C30" t="s">
         <v>5373</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9045</v>
+        <v>9429</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9430</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>9500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9482</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>401</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>9096</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>6460</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>9097</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>402</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>9098</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>6673</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>9099</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>405</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>9100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>226</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>9101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>166</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>9102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>176</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>9103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>250</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>9381</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>412</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>9104</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9514</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9515</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>9047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>485</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>490</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B49" t="s">
-        <v>9108</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>6677</v>
+      <c r="A50" t="s">
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>9109</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>489</v>
       </c>
       <c r="B51" t="s">
-        <v>9110</v>
+        <v>9357</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9046</v>
+        <v>490</v>
       </c>
       <c r="B52" t="s">
-        <v>9111</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s">
-        <v>9112</v>
+        <v>9108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>128</v>
+      <c r="A54" s="2" t="s">
+        <v>6677</v>
       </c>
       <c r="B54" t="s">
-        <v>9113</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9420</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>9401</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9425</v>
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9046</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9112</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9048</v>
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9113</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>564</v>
+        <v>9420</v>
       </c>
       <c r="B59" t="s">
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>566</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9116</v>
+        <v>9401</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9425</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>570</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9117</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B63" t="s">
-        <v>9118</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B64" t="s">
-        <v>9119</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>9120</v>
+        <v>9116</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>570</v>
       </c>
       <c r="B66" t="s">
-        <v>9121</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B67" t="s">
-        <v>9122</v>
+        <v>9118</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B68" t="s">
-        <v>9123</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9501</v>
+        <v>573</v>
       </c>
       <c r="B69" t="s">
-        <v>9485</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5376</v>
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>574</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>575</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9123</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>293</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>317</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9126</v>
+        <v>9501</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9485</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5376</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>254</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9127</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>584</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>9128</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9049</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>9350</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>5355</v>
+      <c r="A80" t="s">
+        <v>317</v>
       </c>
       <c r="B80" t="s">
-        <v>9129</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>9130</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>6420</v>
+        <v>584</v>
       </c>
       <c r="B82" t="s">
-        <v>9131</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>9049</v>
       </c>
       <c r="B83" t="s">
-        <v>9132</v>
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9054</v>
+        <v>6420</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9131</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3694</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s">
-        <v>9351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>6666</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>447</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9134</v>
+        <v>9132</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9135</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>3694</v>
       </c>
       <c r="B91" t="s">
-        <v>9136</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8202</v>
+        <v>6666</v>
       </c>
       <c r="B92" t="s">
-        <v>9137</v>
+        <v>9133</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>447</v>
       </c>
       <c r="B93" t="s">
-        <v>9138</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9050</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>9139</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>449</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9050</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>153</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" t="s">
         <v>9140</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>9055</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>542</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B105" t="s">
         <v>9141</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>5311</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" t="s">
         <v>9142</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>543</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" t="s">
         <v>9377</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>187</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B108" t="s">
         <v>9385</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>271</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B109" t="s">
         <v>9143</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>545</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B110" t="s">
         <v>9144</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>6680</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B111" t="s">
         <v>9145</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>547</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B112" t="s">
         <v>9382</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>549</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B113" t="s">
         <v>9146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>9413</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9394</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5402</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9056</v>
+        <v>98</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9147</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7235</v>
+        <v>9413</v>
       </c>
       <c r="B115" t="s">
-        <v>9360</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>349</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>6473</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9361</v>
+        <v>9394</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5402</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>351</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9149</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>7235</v>
       </c>
       <c r="B119" t="s">
-        <v>9150</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="B120" t="s">
-        <v>9151</v>
+        <v>9148</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>6473</v>
       </c>
       <c r="B121" t="s">
-        <v>9152</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B122" t="s">
-        <v>9153</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>736</v>
+        <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>9367</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>9154</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9407</v>
+        <v>352</v>
       </c>
       <c r="B125" t="s">
-        <v>9388</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5378</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>354</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>736</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>9407</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9388</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>9424</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B130" t="s">
         <v>9405</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C130" t="s">
         <v>5378</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9057</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>748</v>
-      </c>
-      <c r="B132" t="s">
-        <v>9155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>308</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9376</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>307</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9157</v>
+        <v>9530</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9531</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5378</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>9051</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9362</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>306</v>
+        <v>748</v>
       </c>
       <c r="B137" t="s">
-        <v>9158</v>
+        <v>9155</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>9159</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B139" t="s">
-        <v>9160</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="B140" t="s">
-        <v>9161</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>303</v>
+        <v>9051</v>
       </c>
       <c r="B141" t="s">
-        <v>9162</v>
+        <v>9362</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9159</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>9418</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B147" t="s">
         <v>9399</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C147" t="s">
         <v>5416</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>9058</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>424</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B151" t="s">
         <v>9163</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>425</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B152" t="s">
         <v>9164</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>6450</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B153" t="s">
         <v>9165</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>88</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B154" t="s">
         <v>9166</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>428</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B155" t="s">
         <v>9167</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>9052</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B156" t="s">
         <v>9380</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>431</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B157" t="s">
         <v>9168</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>434</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B158" t="s">
         <v>9375</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>436</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B159" t="s">
         <v>9169</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>5481</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B160" t="s">
         <v>9170</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>9059</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>60</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B165" t="s">
         <v>9171</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>76</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B166" t="s">
         <v>9172</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>520</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B167" t="s">
         <v>9173</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>4398</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B168" t="s">
         <v>9174</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>6679</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B169" t="s">
         <v>9175</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>523</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B170" t="s">
         <v>9176</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>525</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
         <v>9177</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>526</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B172" t="s">
         <v>9178</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>211</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B173" t="s">
         <v>9179</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>528</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B174" t="s">
         <v>9180</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>9060</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>151</v>
-      </c>
-      <c r="B173" t="s">
-        <v>9181</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>377</v>
-      </c>
-      <c r="B174" t="s">
-        <v>9182</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>9508</v>
       </c>
       <c r="B175" t="s">
-        <v>9183</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>378</v>
-      </c>
-      <c r="B176" t="s">
-        <v>9363</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>379</v>
-      </c>
-      <c r="B177" t="s">
-        <v>9184</v>
+        <v>9509</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5393</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>380</v>
-      </c>
-      <c r="B178" t="s">
-        <v>9185</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B179" t="s">
-        <v>9186</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="B180" t="s">
-        <v>9187</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6944</v>
+        <v>202</v>
       </c>
       <c r="B181" t="s">
-        <v>9188</v>
+        <v>9183</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>3845</v>
+        <v>378</v>
       </c>
       <c r="B182" t="s">
-        <v>9189</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>9406</v>
+        <v>379</v>
       </c>
       <c r="B183" t="s">
-        <v>9387</v>
-      </c>
-      <c r="C183" t="s">
-        <v>5406</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>9417</v>
+        <v>380</v>
       </c>
       <c r="B184" t="s">
-        <v>9398</v>
-      </c>
-      <c r="C184" t="s">
-        <v>5406</v>
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>480</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>6944</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9188</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>9061</v>
+        <v>3845</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9189</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>531</v>
+        <v>9406</v>
       </c>
       <c r="B189" t="s">
-        <v>9190</v>
+        <v>9387</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5406</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>601</v>
+        <v>9417</v>
       </c>
       <c r="B190" t="s">
-        <v>9191</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>6468</v>
-      </c>
-      <c r="B191" t="s">
-        <v>9192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>533</v>
-      </c>
-      <c r="B192" t="s">
-        <v>9193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>103</v>
-      </c>
-      <c r="B193" t="s">
-        <v>9194</v>
+        <v>9398</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5406</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>209</v>
-      </c>
-      <c r="B194" t="s">
-        <v>9195</v>
+        <v>9061</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>9078</v>
+        <v>531</v>
       </c>
       <c r="B195" t="s">
-        <v>9196</v>
+        <v>9190</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>109</v>
+        <v>601</v>
       </c>
       <c r="B196" t="s">
-        <v>9197</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>538</v>
+        <v>6468</v>
       </c>
       <c r="B197" t="s">
-        <v>9198</v>
+        <v>9192</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B198" t="s">
-        <v>9199</v>
+        <v>9193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>209</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9195</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>9062</v>
+        <v>9078</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9196</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>592</v>
+        <v>109</v>
       </c>
       <c r="B202" t="s">
-        <v>9200</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>441</v>
+        <v>538</v>
       </c>
       <c r="B203" t="s">
-        <v>9201</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>113</v>
+        <v>541</v>
       </c>
       <c r="B204" t="s">
-        <v>9202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>292</v>
-      </c>
-      <c r="B205" t="s">
-        <v>9203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>181</v>
-      </c>
-      <c r="B206" t="s">
-        <v>9204</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>111</v>
-      </c>
-      <c r="B207" t="s">
-        <v>9205</v>
+        <v>9062</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>442</v>
+        <v>592</v>
       </c>
       <c r="B208" t="s">
-        <v>9206</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>260</v>
+        <v>441</v>
       </c>
       <c r="B209" t="s">
-        <v>9207</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>443</v>
+        <v>113</v>
       </c>
       <c r="B210" t="s">
-        <v>9208</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>444</v>
+        <v>292</v>
       </c>
       <c r="B211" t="s">
-        <v>9209</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>9410</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>9391</v>
-      </c>
-      <c r="C212" t="s">
-        <v>5387</v>
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>442</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9206</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>9063</v>
+        <v>260</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9207</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>368</v>
+        <v>443</v>
       </c>
       <c r="B216" t="s">
-        <v>9210</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>47</v>
+        <v>444</v>
       </c>
       <c r="B217" t="s">
-        <v>9211</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>465</v>
+        <v>9410</v>
       </c>
       <c r="B218" t="s">
-        <v>9212</v>
+        <v>9391</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5387</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>466</v>
+        <v>9512</v>
       </c>
       <c r="B219" t="s">
-        <v>9213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>5324</v>
-      </c>
-      <c r="B220" t="s">
-        <v>9214</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>597</v>
-      </c>
-      <c r="B221" t="s">
-        <v>9215</v>
+        <v>9513</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5387</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>470</v>
-      </c>
-      <c r="B222" t="s">
-        <v>9216</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
       <c r="B223" t="s">
-        <v>9217</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>462</v>
+        <v>47</v>
       </c>
       <c r="B224" t="s">
-        <v>9353</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B225" t="s">
-        <v>9352</v>
-      </c>
-      <c r="F225" t="s">
-        <v>5107</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>9412</v>
+        <v>466</v>
       </c>
       <c r="B226" t="s">
-        <v>9393</v>
-      </c>
-      <c r="C226" t="s">
-        <v>5394</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>9503</v>
+        <v>5324</v>
       </c>
       <c r="B227" t="s">
-        <v>9437</v>
-      </c>
-      <c r="C227" t="s">
-        <v>5394</v>
+        <v>9214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>597</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>470</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9216</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>9064</v>
+        <v>472</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9217</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1350</v>
+        <v>462</v>
       </c>
       <c r="B231" t="s">
-        <v>9218</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>576</v>
+        <v>463</v>
       </c>
       <c r="B232" t="s">
-        <v>9219</v>
+        <v>9352</v>
+      </c>
+      <c r="F232" t="s">
+        <v>5107</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>168</v>
+        <v>9412</v>
       </c>
       <c r="B233" t="s">
-        <v>9220</v>
+        <v>9393</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5394</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>142</v>
+        <v>9503</v>
       </c>
       <c r="B234" t="s">
-        <v>9221</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>580</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9222</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>241</v>
-      </c>
-      <c r="B236" t="s">
-        <v>9224</v>
+        <v>9437</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5394</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>7226</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9223</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>581</v>
+        <v>1350</v>
       </c>
       <c r="B238" t="s">
-        <v>9383</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B239" t="s">
-        <v>9226</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>583</v>
+        <v>168</v>
       </c>
       <c r="B240" t="s">
-        <v>9371</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>9408</v>
+        <v>142</v>
       </c>
       <c r="B241" t="s">
-        <v>9389</v>
-      </c>
-      <c r="C241" t="s">
-        <v>5391</v>
+        <v>9221</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>9508</v>
+        <v>580</v>
       </c>
       <c r="B242" t="s">
-        <v>9506</v>
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>7226</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>581</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9383</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>9065</v>
+        <v>582</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9226</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>4153</v>
+        <v>583</v>
       </c>
       <c r="B247" t="s">
-        <v>9225</v>
+        <v>9371</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>9408</v>
       </c>
       <c r="B248" t="s">
-        <v>9229</v>
+        <v>9389</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5391</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>331</v>
+        <v>9507</v>
       </c>
       <c r="B249" t="s">
-        <v>9227</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>330</v>
+        <v>9555</v>
       </c>
       <c r="B250" t="s">
-        <v>9228</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>328</v>
-      </c>
-      <c r="B251" t="s">
-        <v>9379</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>327</v>
-      </c>
-      <c r="B252" t="s">
-        <v>9230</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>9079</v>
-      </c>
-      <c r="B253" t="s">
-        <v>9232</v>
+        <v>9556</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5391</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>326</v>
-      </c>
-      <c r="B254" t="s">
-        <v>9233</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>104</v>
+        <v>4153</v>
       </c>
       <c r="B255" t="s">
-        <v>9231</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B256" t="s">
-        <v>9234</v>
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>331</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>330</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>328</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9379</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>9066</v>
+        <v>327</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9230</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>8236</v>
+        <v>9079</v>
       </c>
       <c r="B261" t="s">
-        <v>9235</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>4195</v>
+        <v>326</v>
       </c>
       <c r="B262" t="s">
-        <v>9378</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>511</v>
+        <v>104</v>
       </c>
       <c r="B263" t="s">
-        <v>9237</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>9080</v>
+        <v>322</v>
       </c>
       <c r="B264" t="s">
-        <v>9384</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>229</v>
-      </c>
-      <c r="B265" t="s">
-        <v>9236</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>9081</v>
-      </c>
-      <c r="B266" t="s">
-        <v>9238</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>9082</v>
-      </c>
-      <c r="B267" t="s">
-        <v>9240</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>9083</v>
-      </c>
-      <c r="B268" t="s">
-        <v>9239</v>
+        <v>9066</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>6682</v>
+      <c r="A269" t="s">
+        <v>8236</v>
       </c>
       <c r="B269" t="s">
-        <v>9241</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>516</v>
+        <v>4195</v>
       </c>
       <c r="B270" t="s">
-        <v>9242</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>511</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9237</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>9080</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>9081</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9238</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>9082</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>9083</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>6682</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9241</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>516</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>9434</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B279" t="s">
         <v>9435</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>9520</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9521</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>9067</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>501</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B283" t="s">
         <v>9254</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>84</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B284" t="s">
         <v>9359</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>8233</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B285" t="s">
         <v>9255</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>502</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B286" t="s">
         <v>9256</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>503</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B287" t="s">
         <v>9257</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>506</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B288" t="s">
         <v>9258</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>5325</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B289" t="s">
         <v>9259</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>4874</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B290" t="s">
         <v>9260</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>1376</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B291" t="s">
         <v>9262</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>132</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B292" t="s">
         <v>9261</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>9068</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>556</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B297" t="s">
         <v>9263</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>557</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B298" t="s">
         <v>9264</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>1401</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B299" t="s">
         <v>9266</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>56</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B300" t="s">
         <v>9265</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>34</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B301" t="s">
         <v>9267</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>406</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B302" t="s">
         <v>9268</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>197</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B303" t="s">
         <v>9269</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
         <v>5367</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B304" t="s">
         <v>9270</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>563</v>
-      </c>
-      <c r="B296" t="s">
-        <v>9370</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>237</v>
-      </c>
-      <c r="B297" t="s">
-        <v>9271</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>9419</v>
-      </c>
-      <c r="B298" t="s">
-        <v>9400</v>
-      </c>
-      <c r="C298" t="s">
-        <v>5374</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>9077</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>4432</v>
-      </c>
-      <c r="B301" t="s">
-        <v>9272</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>8248</v>
-      </c>
-      <c r="B302" t="s">
-        <v>9273</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>4569</v>
-      </c>
-      <c r="B303" t="s">
-        <v>9274</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>4413</v>
-      </c>
-      <c r="B304" t="s">
-        <v>9276</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>5286</v>
+        <v>563</v>
       </c>
       <c r="B305" t="s">
-        <v>9275</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>4402</v>
+        <v>237</v>
       </c>
       <c r="B306" t="s">
-        <v>9356</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>676</v>
+        <v>9419</v>
       </c>
       <c r="B307" t="s">
-        <v>9355</v>
+        <v>9400</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5374</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>553</v>
+        <v>9559</v>
       </c>
       <c r="B308" t="s">
-        <v>9277</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>5314</v>
-      </c>
-      <c r="B309" t="s">
-        <v>9278</v>
+        <v>9518</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5374</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>9416</v>
-      </c>
-      <c r="B310" t="s">
-        <v>9397</v>
-      </c>
-      <c r="C310" t="s">
-        <v>5404</v>
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9272</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>8248</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9273</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>9069</v>
+        <v>4569</v>
+      </c>
+      <c r="B313" t="s">
+        <v>9274</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>6670</v>
+      <c r="A314" t="s">
+        <v>4413</v>
       </c>
       <c r="B314" t="s">
-        <v>9279</v>
+        <v>9276</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>334</v>
+        <v>5286</v>
       </c>
       <c r="B315" t="s">
-        <v>9280</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>15</v>
+        <v>4402</v>
       </c>
       <c r="B316" t="s">
-        <v>9281</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>61</v>
+        <v>676</v>
       </c>
       <c r="B317" t="s">
-        <v>9282</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>553</v>
       </c>
       <c r="B318" t="s">
-        <v>9283</v>
+        <v>9277</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>343</v>
+        <v>5314</v>
       </c>
       <c r="B319" t="s">
-        <v>9285</v>
+        <v>9278</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>215</v>
+        <v>9416</v>
       </c>
       <c r="B320" t="s">
-        <v>9286</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321" t="s">
-        <v>9288</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>344</v>
-      </c>
-      <c r="B322" t="s">
-        <v>9284</v>
+        <v>9397</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5404</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>4437</v>
-      </c>
-      <c r="B323" t="s">
-        <v>9287</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>9497</v>
+      <c r="A324" s="2" t="s">
+        <v>6670</v>
       </c>
       <c r="B324" t="s">
-        <v>9457</v>
-      </c>
-      <c r="C324" t="s">
-        <v>5379</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>9502</v>
+        <v>334</v>
       </c>
       <c r="B325" t="s">
-        <v>9481</v>
-      </c>
-      <c r="C325" t="s">
-        <v>5379</v>
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>61</v>
+      </c>
+      <c r="B327" t="s">
+        <v>9282</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>9070</v>
+        <v>339</v>
+      </c>
+      <c r="B328" t="s">
+        <v>9283</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="B329" t="s">
-        <v>9289</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="B330" t="s">
-        <v>9290</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="B331" t="s">
-        <v>9291</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="B332" t="s">
-        <v>9374</v>
+        <v>9284</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>279</v>
+        <v>4437</v>
       </c>
       <c r="B333" t="s">
-        <v>9292</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>194</v>
+        <v>9497</v>
       </c>
       <c r="B334" t="s">
-        <v>9293</v>
+        <v>9457</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5379</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>119</v>
+        <v>9502</v>
       </c>
       <c r="B335" t="s">
-        <v>9294</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>372</v>
-      </c>
-      <c r="B336" t="s">
-        <v>9295</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>282</v>
-      </c>
-      <c r="B337" t="s">
-        <v>9296</v>
+        <v>9481</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5379</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>62</v>
-      </c>
-      <c r="B338" t="s">
-        <v>9297</v>
+        <v>9070</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>9422</v>
+        <v>19</v>
       </c>
       <c r="B339" t="s">
-        <v>9403</v>
-      </c>
-      <c r="C339" t="s">
-        <v>5383</v>
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>369</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9291</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>9071</v>
+        <v>193</v>
+      </c>
+      <c r="B342" t="s">
+        <v>9374</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="B343" t="s">
-        <v>9298</v>
+        <v>9292</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>194</v>
       </c>
       <c r="B344" t="s">
-        <v>9299</v>
+        <v>9293</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="B345" t="s">
-        <v>9300</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>267</v>
+        <v>372</v>
       </c>
       <c r="B346" t="s">
-        <v>9301</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>6672</v>
+      <c r="A347" t="s">
+        <v>282</v>
       </c>
       <c r="B347" t="s">
-        <v>9358</v>
+        <v>9296</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="B348" t="s">
-        <v>9302</v>
+        <v>9297</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>387</v>
+        <v>9422</v>
       </c>
       <c r="B349" t="s">
-        <v>9303</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>256</v>
-      </c>
-      <c r="B350" t="s">
-        <v>9304</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>588</v>
-      </c>
-      <c r="B351" t="s">
-        <v>9305</v>
+        <v>9403</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5383</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>8173</v>
-      </c>
-      <c r="B352" t="s">
-        <v>9306</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>9415</v>
+        <v>382</v>
       </c>
       <c r="B353" t="s">
-        <v>9396</v>
-      </c>
-      <c r="C353" t="s">
-        <v>5411</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>9432</v>
+        <v>383</v>
       </c>
       <c r="B354" t="s">
-        <v>9433</v>
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>384</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9300</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>9072</v>
+        <v>267</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9301</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>289</v>
+      <c r="A357" s="2" t="s">
+        <v>6672</v>
       </c>
       <c r="B357" t="s">
-        <v>9369</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B358" t="s">
-        <v>9307</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="B359" t="s">
-        <v>9308</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>415</v>
+        <v>256</v>
       </c>
       <c r="B360" t="s">
-        <v>9364</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="B361" t="s">
-        <v>9309</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>417</v>
+        <v>8173</v>
       </c>
       <c r="B362" t="s">
-        <v>9310</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>4191</v>
+        <v>9415</v>
       </c>
       <c r="B363" t="s">
-        <v>9311</v>
+        <v>9396</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5411</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>9084</v>
+        <v>9432</v>
       </c>
       <c r="B364" t="s">
-        <v>9366</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>420</v>
-      </c>
-      <c r="B365" t="s">
-        <v>9373</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>4600</v>
-      </c>
-      <c r="B366" t="s">
-        <v>9368</v>
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>289</v>
+      </c>
+      <c r="B367" t="s">
+        <v>9369</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>275</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9307</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>9073</v>
+        <v>414</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9308</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B370" t="s">
-        <v>9312</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="B371" t="s">
-        <v>9313</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>589</v>
+        <v>417</v>
       </c>
       <c r="B372" t="s">
-        <v>9314</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>392</v>
+        <v>4191</v>
       </c>
       <c r="B373" t="s">
-        <v>9315</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>394</v>
+        <v>9084</v>
       </c>
       <c r="B374" t="s">
-        <v>9316</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B375" t="s">
-        <v>9317</v>
+        <v>9373</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>261</v>
+        <v>4600</v>
       </c>
       <c r="B376" t="s">
-        <v>9318</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>397</v>
+        <v>9528</v>
       </c>
       <c r="B377" t="s">
-        <v>9319</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>399</v>
-      </c>
-      <c r="B378" t="s">
-        <v>9320</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>400</v>
-      </c>
-      <c r="B379" t="s">
-        <v>9321</v>
+        <v>9529</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5380</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>9421</v>
-      </c>
-      <c r="B380" t="s">
-        <v>9402</v>
-      </c>
-      <c r="C380" t="s">
-        <v>5407</v>
+        <v>9073</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>390</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9312</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>9074</v>
+        <v>391</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9313</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="B383" t="s">
-        <v>9322</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="B384" t="s">
-        <v>9323</v>
+        <v>9315</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="B385" t="s">
-        <v>9324</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="B386" t="s">
-        <v>9372</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>9085</v>
+        <v>261</v>
       </c>
       <c r="B387" t="s">
-        <v>9325</v>
+        <v>9318</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="B388" t="s">
-        <v>9326</v>
+        <v>9319</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>9327</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>9328</v>
+        <v>9321</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>459</v>
+        <v>9421</v>
       </c>
       <c r="B391" t="s">
-        <v>9329</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B392" t="s">
-        <v>9330</v>
+        <v>9402</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5407</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>9414</v>
-      </c>
-      <c r="B393" t="s">
-        <v>9395</v>
-      </c>
-      <c r="C393" t="s">
-        <v>5392</v>
+        <v>9074</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>453</v>
+      </c>
+      <c r="B394" t="s">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>7</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9323</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>9075</v>
+        <v>175</v>
+      </c>
+      <c r="B396" t="s">
+        <v>9324</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="B397" t="s">
-        <v>9331</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>6665</v>
+        <v>9085</v>
       </c>
       <c r="B398" t="s">
-        <v>9332</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>362</v>
+        <v>455</v>
       </c>
       <c r="B399" t="s">
-        <v>9333</v>
+        <v>9326</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>457</v>
+      </c>
+      <c r="B400" t="s">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>458</v>
+      </c>
+      <c r="B401" t="s">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>459</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9329</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B403" t="s">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>9414</v>
+      </c>
+      <c r="B404" t="s">
+        <v>9395</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>358</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>6665</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>362</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>2</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B411" t="s">
         <v>9365</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
         <v>4139</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B412" t="s">
         <v>9334</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
         <v>191</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B413" t="s">
         <v>9335</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>365</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B414" t="s">
         <v>9336</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>839</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B415" t="s">
         <v>9337</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
         <v>9086</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B416" t="s">
         <v>9338</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>587</v>
-      </c>
-      <c r="B406" t="s">
-        <v>9339</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>9076</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>16</v>
-      </c>
-      <c r="B410" t="s">
-        <v>9340</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>681</v>
-      </c>
-      <c r="B411" t="s">
-        <v>9341</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>475</v>
-      </c>
-      <c r="B412" t="s">
-        <v>9342</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>477</v>
-      </c>
-      <c r="B413" t="s">
-        <v>9343</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>192</v>
-      </c>
-      <c r="B414" t="s">
-        <v>9344</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>478</v>
-      </c>
-      <c r="B415" t="s">
-        <v>9345</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>242</v>
-      </c>
-      <c r="B416" t="s">
-        <v>9346</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
       <c r="B417" t="s">
-        <v>9347</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>268</v>
-      </c>
-      <c r="B418" t="s">
-        <v>9348</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>257</v>
-      </c>
-      <c r="B419" t="s">
-        <v>9386</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>9409</v>
-      </c>
-      <c r="B420" t="s">
-        <v>9390</v>
-      </c>
-      <c r="C420" t="s">
-        <v>5386</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>9411</v>
+        <v>16</v>
       </c>
       <c r="B421" t="s">
-        <v>9392</v>
-      </c>
-      <c r="C421" t="s">
-        <v>5386</v>
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>681</v>
+      </c>
+      <c r="B422" t="s">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>475</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9342</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>9426</v>
+        <v>477</v>
+      </c>
+      <c r="B424" t="s">
+        <v>9343</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>405</v>
+        <v>192</v>
       </c>
       <c r="B425" t="s">
-        <v>9486</v>
-      </c>
-      <c r="C425" t="s">
-        <v>5381</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>4048</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>9428</v>
-      </c>
-      <c r="C426" t="s">
-        <v>5413</v>
+        <v>478</v>
+      </c>
+      <c r="B426" t="s">
+        <v>9345</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>6420</v>
+        <v>242</v>
       </c>
       <c r="B427" t="s">
-        <v>9436</v>
-      </c>
-      <c r="C427" t="s">
-        <v>5413</v>
+        <v>9346</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>545</v>
+        <v>482</v>
       </c>
       <c r="B428" t="s">
-        <v>9483</v>
-      </c>
-      <c r="C428" t="s">
-        <v>5402</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>739</v>
+        <v>268</v>
       </c>
       <c r="B429" t="s">
-        <v>9427</v>
-      </c>
-      <c r="C429" t="s">
-        <v>5378</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
       <c r="B430" t="s">
-        <v>9484</v>
-      </c>
-      <c r="C430" t="s">
-        <v>5403</v>
+        <v>9386</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>424</v>
+        <v>9409</v>
       </c>
       <c r="B431" t="s">
-        <v>9505</v>
+        <v>9390</v>
       </c>
       <c r="C431" t="s">
-        <v>5403</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>3845</v>
+        <v>9411</v>
       </c>
       <c r="B432" t="s">
-        <v>9431</v>
+        <v>9392</v>
       </c>
       <c r="C432" t="s">
-        <v>5406</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>480</v>
-      </c>
-      <c r="B433" t="s">
-        <v>9459</v>
-      </c>
-      <c r="C433" t="s">
-        <v>5406</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>9498</v>
-      </c>
-      <c r="B434" t="s">
-        <v>9458</v>
-      </c>
-      <c r="C434" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>576</v>
-      </c>
-      <c r="B435" t="s">
-        <v>9441</v>
-      </c>
-      <c r="C435" t="s">
-        <v>5391</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="B436" t="s">
-        <v>9461</v>
+        <v>9486</v>
       </c>
       <c r="C436" t="s">
-        <v>5391</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>8251</v>
-      </c>
-      <c r="B437" t="s">
-        <v>9440</v>
+        <v>4048</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>9428</v>
       </c>
       <c r="C437" t="s">
-        <v>5374</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>9444</v>
+        <v>6420</v>
       </c>
       <c r="B438" t="s">
-        <v>9439</v>
+        <v>9436</v>
       </c>
       <c r="C438" t="s">
-        <v>5379</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>9499</v>
+        <v>9008</v>
       </c>
       <c r="B439" t="s">
-        <v>9479</v>
+        <v>9511</v>
       </c>
       <c r="C439" t="s">
-        <v>5411</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>459</v>
+        <v>7202</v>
       </c>
       <c r="B440" t="s">
-        <v>9438</v>
+        <v>9522</v>
       </c>
       <c r="C440" t="s">
-        <v>5407</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>395</v>
+        <v>545</v>
       </c>
       <c r="B441" t="s">
-        <v>9460</v>
+        <v>9483</v>
       </c>
       <c r="C441" t="s">
-        <v>5407</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>455</v>
+        <v>739</v>
       </c>
       <c r="B442" t="s">
-        <v>9480</v>
+        <v>9427</v>
       </c>
       <c r="C442" t="s">
-        <v>5392</v>
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>432</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9484</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>424</v>
+      </c>
+      <c r="B444" t="s">
+        <v>9504</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5403</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>9504</v>
+        <v>8894</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9554</v>
+      </c>
+      <c r="C445" t="s">
+        <v>5403</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>296</v>
+        <v>3845</v>
       </c>
       <c r="B446" t="s">
-        <v>9472</v>
+        <v>9431</v>
       </c>
       <c r="C446" t="s">
-        <v>5373</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="B447" t="s">
-        <v>9469</v>
+        <v>9459</v>
       </c>
       <c r="C447" t="s">
-        <v>5381</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>564</v>
+        <v>9498</v>
       </c>
       <c r="B448" t="s">
-        <v>9462</v>
+        <v>9458</v>
       </c>
       <c r="C448" t="s">
-        <v>5376</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>447</v>
+        <v>7039</v>
       </c>
       <c r="B449" t="s">
-        <v>9474</v>
+        <v>9527</v>
       </c>
       <c r="C449" t="s">
-        <v>5375</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="B450" t="s">
-        <v>9478</v>
+        <v>9441</v>
       </c>
       <c r="C450" t="s">
-        <v>5403</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>526</v>
+        <v>361</v>
       </c>
       <c r="B451" t="s">
-        <v>9464</v>
+        <v>9461</v>
       </c>
       <c r="C451" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>777</v>
+        <v>8251</v>
       </c>
       <c r="B452" t="s">
-        <v>9468</v>
+        <v>9440</v>
       </c>
       <c r="C452" t="s">
-        <v>5387</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>576</v>
+        <v>9516</v>
       </c>
       <c r="B453" t="s">
-        <v>9471</v>
+        <v>9517</v>
       </c>
       <c r="C453" t="s">
-        <v>5391</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>5329</v>
+        <v>9444</v>
       </c>
       <c r="B454" t="s">
-        <v>9473</v>
+        <v>9439</v>
       </c>
       <c r="C454" t="s">
-        <v>5377</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>4176</v>
+        <v>7204</v>
       </c>
       <c r="B455" t="s">
-        <v>9477</v>
+        <v>9551</v>
       </c>
       <c r="C455" t="s">
-        <v>5384</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>499</v>
+        <v>9525</v>
       </c>
       <c r="B456" t="s">
-        <v>9507</v>
+        <v>9526</v>
       </c>
       <c r="C456" t="s">
-        <v>5410</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>4490</v>
+        <v>9549</v>
       </c>
       <c r="B457" t="s">
-        <v>9466</v>
+        <v>9550</v>
       </c>
       <c r="C457" t="s">
         <v>5383</v>
@@ -32627,10 +32805,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>382</v>
+        <v>9499</v>
       </c>
       <c r="B458" t="s">
-        <v>9470</v>
+        <v>9479</v>
       </c>
       <c r="C458" t="s">
         <v>5411</v>
@@ -32638,32 +32816,32 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>4563</v>
+        <v>9523</v>
       </c>
       <c r="B459" t="s">
-        <v>9476</v>
+        <v>9524</v>
       </c>
       <c r="C459" t="s">
-        <v>5411</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>9463</v>
+        <v>9438</v>
       </c>
       <c r="C460" t="s">
-        <v>5380</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B461" t="s">
-        <v>9465</v>
+        <v>9460</v>
       </c>
       <c r="C461" t="s">
         <v>5407</v>
@@ -32671,31 +32849,265 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>455</v>
+      </c>
+      <c r="B462" t="s">
+        <v>9480</v>
+      </c>
+      <c r="C462" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>296</v>
+      </c>
+      <c r="B466" t="s">
+        <v>9472</v>
+      </c>
+      <c r="C466" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>402</v>
+      </c>
+      <c r="B467" t="s">
+        <v>9469</v>
+      </c>
+      <c r="C467" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>564</v>
+      </c>
+      <c r="B468" t="s">
+        <v>9462</v>
+      </c>
+      <c r="C468" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>447</v>
+      </c>
+      <c r="B469" t="s">
+        <v>9474</v>
+      </c>
+      <c r="C469" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>434</v>
+      </c>
+      <c r="B470" t="s">
+        <v>9478</v>
+      </c>
+      <c r="C470" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>526</v>
+      </c>
+      <c r="B471" t="s">
+        <v>9464</v>
+      </c>
+      <c r="C471" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>777</v>
+      </c>
+      <c r="B472" t="s">
+        <v>9468</v>
+      </c>
+      <c r="C472" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>576</v>
+      </c>
+      <c r="B473" t="s">
+        <v>9471</v>
+      </c>
+      <c r="C473" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B474" t="s">
+        <v>9473</v>
+      </c>
+      <c r="C474" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B475" t="s">
+        <v>9477</v>
+      </c>
+      <c r="C475" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>499</v>
+      </c>
+      <c r="B476" t="s">
+        <v>9506</v>
+      </c>
+      <c r="C476" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B477" t="s">
+        <v>9466</v>
+      </c>
+      <c r="C477" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>382</v>
+      </c>
+      <c r="B478" t="s">
+        <v>9470</v>
+      </c>
+      <c r="C478" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9476</v>
+      </c>
+      <c r="C479" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>415</v>
+      </c>
+      <c r="B480" t="s">
+        <v>9463</v>
+      </c>
+      <c r="C480" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>390</v>
+      </c>
+      <c r="B481" t="s">
+        <v>9465</v>
+      </c>
+      <c r="C481" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
         <v>393</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B482" t="s">
         <v>9467</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C482" t="s">
         <v>5407</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
         <v>400</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B483" t="s">
         <v>9475</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C483" t="s">
         <v>5407</v>
       </c>
     </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>9532</v>
+      </c>
+      <c r="B484" t="s">
+        <v>9533</v>
+      </c>
+      <c r="C484" t="s">
+        <v>5391</v>
+      </c>
+      <c r="E484" t="s">
+        <v>9561</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>9534</v>
+      </c>
+      <c r="B485" t="s">
+        <v>9535</v>
+      </c>
+      <c r="C485" t="s">
+        <v>5396</v>
+      </c>
+      <c r="E485" t="s">
+        <v>9561</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>8376</v>
+      </c>
+      <c r="B486" t="s">
+        <v>9536</v>
+      </c>
+      <c r="C486" t="s">
+        <v>5376</v>
+      </c>
+      <c r="E486" t="s">
+        <v>9561</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A446:F463">
-    <sortCondition ref="C446:C463"/>
+  <sortState ref="A428:F454">
+    <sortCondition ref="C428:C454"/>
   </sortState>
-  <conditionalFormatting sqref="A133">
+  <conditionalFormatting sqref="A138">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>"AND(ISBLANK(D17),ISBLANK(E17),ISBLANK(F17),ISBLANK(G17),ISBLANK(H17),ISBLANK(I17),ISBLANK(J17),ISBLANK(K17),ISBLANK(L17),ISBLANK(M17))"</formula>
     </cfRule>
@@ -38386,8 +38798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38396,8 +38808,8 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <sortState ref="A2:C20">
-    <sortCondition ref="C2:C20"/>
+  <sortState ref="A4:F11">
+    <sortCondition ref="C4:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -60783,10 +61195,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C782"/>
+  <dimension ref="A1:C788"/>
   <sheetViews>
-    <sheetView topLeftCell="A681" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E692" sqref="E692"/>
+    <sheetView topLeftCell="A687" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C692" sqref="C692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67742,854 +68154,920 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>7718</v>
+        <v>9547</v>
       </c>
       <c r="B706" t="s">
-        <v>5402</v>
+        <v>6587</v>
       </c>
       <c r="C706" t="s">
-        <v>7719</v>
+        <v>9548</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>7738</v>
+        <v>7718</v>
       </c>
       <c r="B707" t="s">
         <v>5402</v>
       </c>
       <c r="C707" t="s">
-        <v>7739</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>8123</v>
+        <v>7738</v>
       </c>
       <c r="B708" t="s">
         <v>5402</v>
       </c>
       <c r="C708" t="s">
-        <v>8098</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>8324</v>
+        <v>8123</v>
       </c>
       <c r="B709" t="s">
         <v>5402</v>
       </c>
       <c r="C709" t="s">
-        <v>8265</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>9494</v>
+        <v>8324</v>
       </c>
       <c r="B710" t="s">
         <v>5402</v>
       </c>
       <c r="C710" t="s">
-        <v>9453</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>7714</v>
+        <v>9494</v>
       </c>
       <c r="B711" t="s">
-        <v>6584</v>
+        <v>5402</v>
       </c>
       <c r="C711" t="s">
-        <v>7715</v>
+        <v>9453</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>8080</v>
+        <v>7714</v>
       </c>
       <c r="B712" t="s">
         <v>6584</v>
       </c>
       <c r="C712" t="s">
-        <v>8072</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>9490</v>
+        <v>8080</v>
       </c>
       <c r="B713" t="s">
         <v>6584</v>
       </c>
       <c r="C713" t="s">
-        <v>9449</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>7696</v>
+        <v>9490</v>
       </c>
       <c r="B714" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
       <c r="C714" t="s">
-        <v>7697</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>7821</v>
+        <v>7696</v>
       </c>
       <c r="B715" t="s">
         <v>6585</v>
       </c>
       <c r="C715" t="s">
-        <v>7822</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>8124</v>
+        <v>7821</v>
       </c>
       <c r="B716" t="s">
         <v>6585</v>
       </c>
       <c r="C716" t="s">
-        <v>8097</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>8323</v>
+        <v>8124</v>
       </c>
       <c r="B717" t="s">
         <v>6585</v>
       </c>
       <c r="C717" t="s">
-        <v>8263</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>7690</v>
+        <v>8323</v>
       </c>
       <c r="B718" t="s">
-        <v>6579</v>
+        <v>6585</v>
       </c>
       <c r="C718" t="s">
-        <v>7691</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>7692</v>
+        <v>7690</v>
       </c>
       <c r="B719" t="s">
         <v>6579</v>
       </c>
       <c r="C719" t="s">
-        <v>7693</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>7694</v>
+        <v>7692</v>
       </c>
       <c r="B720" t="s">
         <v>6579</v>
       </c>
       <c r="C720" t="s">
-        <v>7695</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>7722</v>
+        <v>7694</v>
       </c>
       <c r="B721" t="s">
         <v>6579</v>
       </c>
       <c r="C721" t="s">
-        <v>7723</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>7752</v>
+        <v>7722</v>
       </c>
       <c r="B722" t="s">
         <v>6579</v>
       </c>
       <c r="C722" t="s">
-        <v>7753</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>7712</v>
+        <v>7752</v>
       </c>
       <c r="B723" t="s">
         <v>6579</v>
       </c>
       <c r="C723" t="s">
-        <v>7713</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7916</v>
+        <v>7712</v>
       </c>
       <c r="B724" t="s">
         <v>6579</v>
       </c>
       <c r="C724" t="s">
-        <v>7885</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>9495</v>
+        <v>7916</v>
       </c>
       <c r="B725" t="s">
         <v>6579</v>
       </c>
       <c r="C725" t="s">
-        <v>9455</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7724</v>
+        <v>9495</v>
       </c>
       <c r="B726" t="s">
-        <v>6575</v>
+        <v>6579</v>
       </c>
       <c r="C726" t="s">
-        <v>7725</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>7740</v>
+        <v>7724</v>
       </c>
       <c r="B727" t="s">
         <v>6575</v>
       </c>
       <c r="C727" t="s">
-        <v>7741</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7813</v>
+        <v>7740</v>
       </c>
       <c r="B728" t="s">
-        <v>6654</v>
+        <v>6575</v>
       </c>
       <c r="C728" t="s">
-        <v>7814</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7921</v>
+        <v>7813</v>
       </c>
       <c r="B729" t="s">
         <v>6654</v>
       </c>
       <c r="C729" t="s">
-        <v>7890</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7734</v>
+        <v>7921</v>
       </c>
       <c r="B730" t="s">
         <v>6654</v>
       </c>
       <c r="C730" t="s">
-        <v>7735</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7726</v>
+        <v>7734</v>
       </c>
       <c r="B731" t="s">
-        <v>6578</v>
+        <v>6654</v>
       </c>
       <c r="C731" t="s">
-        <v>7727</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7736</v>
+        <v>7726</v>
       </c>
       <c r="B732" t="s">
         <v>6578</v>
       </c>
       <c r="C732" t="s">
-        <v>7737</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>7914</v>
+        <v>7736</v>
       </c>
       <c r="B733" t="s">
         <v>6578</v>
       </c>
       <c r="C733" t="s">
-        <v>7883</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>8381</v>
+        <v>7914</v>
       </c>
       <c r="B734" t="s">
         <v>6578</v>
       </c>
       <c r="C734" t="s">
-        <v>8382</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>8396</v>
+        <v>8381</v>
       </c>
       <c r="B735" t="s">
         <v>6578</v>
       </c>
       <c r="C735" t="s">
-        <v>8397</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>8400</v>
+        <v>8396</v>
       </c>
       <c r="B736" t="s">
         <v>6578</v>
       </c>
       <c r="C736" t="s">
-        <v>8401</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>9496</v>
+        <v>8400</v>
       </c>
       <c r="B737" t="s">
         <v>6578</v>
       </c>
       <c r="C737" t="s">
-        <v>9456</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>8068</v>
+        <v>9496</v>
       </c>
       <c r="B738" t="s">
-        <v>5393</v>
+        <v>6578</v>
       </c>
       <c r="C738" t="s">
-        <v>8031</v>
+        <v>9456</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>7702</v>
+        <v>8068</v>
       </c>
       <c r="B739" t="s">
-        <v>6574</v>
+        <v>5393</v>
       </c>
       <c r="C739" t="s">
-        <v>7703</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>7728</v>
+        <v>9541</v>
       </c>
       <c r="B740" t="s">
-        <v>6574</v>
+        <v>5393</v>
       </c>
       <c r="C740" t="s">
-        <v>7729</v>
+        <v>9542</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>8977</v>
+        <v>7702</v>
       </c>
       <c r="B741" t="s">
         <v>6574</v>
       </c>
       <c r="C741" t="s">
-        <v>8978</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>7730</v>
+        <v>7728</v>
       </c>
       <c r="B742" t="s">
         <v>6574</v>
       </c>
       <c r="C742" t="s">
-        <v>7731</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>7919</v>
+        <v>8977</v>
       </c>
       <c r="B743" t="s">
         <v>6574</v>
       </c>
       <c r="C743" t="s">
-        <v>7888</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>8325</v>
+        <v>7730</v>
       </c>
       <c r="B744" t="s">
-        <v>6583</v>
+        <v>6574</v>
       </c>
       <c r="C744" t="s">
-        <v>8288</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>9488</v>
+        <v>7919</v>
       </c>
       <c r="B745" t="s">
-        <v>6583</v>
+        <v>6574</v>
       </c>
       <c r="C745" t="s">
-        <v>9446</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>7716</v>
+        <v>8325</v>
       </c>
       <c r="B746" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
       <c r="C746" t="s">
-        <v>7717</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>7732</v>
+        <v>9488</v>
       </c>
       <c r="B747" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
       <c r="C747" t="s">
-        <v>7733</v>
+        <v>9446</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>8125</v>
+        <v>7716</v>
       </c>
       <c r="B748" t="s">
         <v>6582</v>
       </c>
       <c r="C748" t="s">
-        <v>8096</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>7687</v>
+        <v>7732</v>
       </c>
       <c r="B749" t="s">
-        <v>6662</v>
+        <v>6582</v>
       </c>
       <c r="C749" t="s">
-        <v>7688</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>7748</v>
+        <v>8125</v>
       </c>
       <c r="B750" t="s">
-        <v>6662</v>
+        <v>6582</v>
       </c>
       <c r="C750" t="s">
-        <v>7749</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>7920</v>
+        <v>7687</v>
       </c>
       <c r="B751" t="s">
         <v>6662</v>
       </c>
       <c r="C751" t="s">
-        <v>7889</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>8398</v>
+        <v>7748</v>
       </c>
       <c r="B752" t="s">
         <v>6662</v>
       </c>
       <c r="C752" t="s">
-        <v>8399</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>8402</v>
+        <v>7920</v>
       </c>
       <c r="B753" t="s">
         <v>6662</v>
       </c>
       <c r="C753" t="s">
-        <v>8403</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>8404</v>
+        <v>8398</v>
       </c>
       <c r="B754" t="s">
         <v>6662</v>
       </c>
       <c r="C754" t="s">
-        <v>8405</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>8078</v>
+        <v>8402</v>
       </c>
       <c r="B755" t="s">
-        <v>8086</v>
+        <v>6662</v>
       </c>
       <c r="C755" t="s">
-        <v>8070</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>8067</v>
+        <v>8404</v>
       </c>
       <c r="B756" t="s">
-        <v>6593</v>
+        <v>6662</v>
       </c>
       <c r="C756" t="s">
-        <v>8035</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>9489</v>
+        <v>9545</v>
       </c>
       <c r="B757" t="s">
-        <v>6593</v>
+        <v>6662</v>
       </c>
       <c r="C757" t="s">
-        <v>9448</v>
+        <v>9546</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>9492</v>
+        <v>8078</v>
       </c>
       <c r="B758" t="s">
-        <v>6593</v>
+        <v>8086</v>
       </c>
       <c r="C758" t="s">
-        <v>9451</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>7742</v>
+        <v>8067</v>
       </c>
       <c r="B759" t="s">
-        <v>6572</v>
+        <v>6593</v>
       </c>
       <c r="C759" t="s">
-        <v>7743</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>7698</v>
+        <v>9489</v>
       </c>
       <c r="B760" t="s">
-        <v>6650</v>
+        <v>6593</v>
       </c>
       <c r="C760" t="s">
-        <v>7699</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>7828</v>
+        <v>9492</v>
       </c>
       <c r="B761" t="s">
-        <v>6650</v>
+        <v>6593</v>
       </c>
       <c r="C761" t="s">
-        <v>7829</v>
+        <v>9451</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>7830</v>
+        <v>9537</v>
       </c>
       <c r="B762" t="s">
-        <v>6650</v>
+        <v>6593</v>
       </c>
       <c r="C762" t="s">
-        <v>7831</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>7750</v>
+        <v>7742</v>
       </c>
       <c r="B763" t="s">
-        <v>6650</v>
+        <v>6572</v>
       </c>
       <c r="C763" t="s">
-        <v>7751</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>7912</v>
+        <v>7698</v>
       </c>
       <c r="B764" t="s">
         <v>6650</v>
       </c>
       <c r="C764" t="s">
-        <v>7881</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>7925</v>
+        <v>7828</v>
       </c>
       <c r="B765" t="s">
-        <v>6589</v>
+        <v>6650</v>
       </c>
       <c r="C765" t="s">
-        <v>7895</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>8069</v>
+        <v>7830</v>
       </c>
       <c r="B766" t="s">
-        <v>6571</v>
+        <v>6650</v>
       </c>
       <c r="C766" t="s">
-        <v>8032</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>8079</v>
+        <v>7750</v>
       </c>
       <c r="B767" t="s">
-        <v>6571</v>
+        <v>6650</v>
       </c>
       <c r="C767" t="s">
-        <v>8071</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>9491</v>
+        <v>7912</v>
       </c>
       <c r="B768" t="s">
-        <v>6571</v>
+        <v>6650</v>
       </c>
       <c r="C768" t="s">
-        <v>9450</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>7710</v>
+        <v>9543</v>
       </c>
       <c r="B769" t="s">
-        <v>6588</v>
+        <v>6650</v>
       </c>
       <c r="C769" t="s">
-        <v>7711</v>
+        <v>9544</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>7819</v>
+        <v>7925</v>
       </c>
       <c r="B770" t="s">
-        <v>6588</v>
+        <v>6589</v>
       </c>
       <c r="C770" t="s">
-        <v>7820</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>7708</v>
+        <v>8069</v>
       </c>
       <c r="B771" t="s">
-        <v>6588</v>
+        <v>6571</v>
       </c>
       <c r="C771" t="s">
-        <v>7709</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>7823</v>
+        <v>8079</v>
       </c>
       <c r="B772" t="s">
-        <v>6588</v>
+        <v>6571</v>
       </c>
       <c r="C772" t="s">
-        <v>7824</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>7913</v>
+        <v>9491</v>
       </c>
       <c r="B773" t="s">
-        <v>6588</v>
+        <v>6571</v>
       </c>
       <c r="C773" t="s">
-        <v>7882</v>
+        <v>9450</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>8027</v>
+        <v>7710</v>
       </c>
       <c r="B774" t="s">
-        <v>6663</v>
+        <v>6588</v>
       </c>
       <c r="C774" t="s">
-        <v>8028</v>
+        <v>7711</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>7858</v>
+        <v>7819</v>
       </c>
       <c r="B775" t="s">
-        <v>6590</v>
+        <v>6588</v>
       </c>
       <c r="C775" t="s">
-        <v>7825</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>7918</v>
+        <v>7708</v>
       </c>
       <c r="B776" t="s">
-        <v>6590</v>
+        <v>6588</v>
       </c>
       <c r="C776" t="s">
-        <v>7887</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>7923</v>
+        <v>7823</v>
       </c>
       <c r="B777" t="s">
-        <v>6590</v>
+        <v>6588</v>
       </c>
       <c r="C777" t="s">
-        <v>7893</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>7700</v>
+        <v>7913</v>
       </c>
       <c r="B778" t="s">
-        <v>6581</v>
+        <v>6588</v>
       </c>
       <c r="C778" t="s">
-        <v>7701</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>7704</v>
+        <v>8027</v>
       </c>
       <c r="B779" t="s">
-        <v>6581</v>
+        <v>6663</v>
       </c>
       <c r="C779" t="s">
-        <v>7705</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>7706</v>
+        <v>7858</v>
       </c>
       <c r="B780" t="s">
-        <v>6581</v>
+        <v>6590</v>
       </c>
       <c r="C780" t="s">
-        <v>7707</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1027</v>
+        <v>7918</v>
       </c>
       <c r="B781" t="s">
-        <v>6581</v>
+        <v>6590</v>
       </c>
       <c r="C781" t="s">
-        <v>7826</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
+        <v>7923</v>
+      </c>
+      <c r="B782" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C782" t="s">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>9539</v>
+      </c>
+      <c r="B783" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C783" t="s">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>7700</v>
+      </c>
+      <c r="B784" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C784" t="s">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>7704</v>
+      </c>
+      <c r="B785" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C785" t="s">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>7706</v>
+      </c>
+      <c r="B786" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C786" t="s">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B787" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C787" t="s">
+        <v>7826</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
         <v>7910</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B788" t="s">
         <v>6581</v>
       </c>
-      <c r="C782" t="s">
+      <c r="C788" t="s">
         <v>7878</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A694:D782">
-    <sortCondition ref="B694:B782"/>
+  <sortState ref="A694:F788">
+    <sortCondition ref="B694:B788"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="6600"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="6600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017 Bunt" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14115" uniqueCount="9562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14188" uniqueCount="9606">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -28714,6 +28714,138 @@
   </si>
   <si>
     <t>Mem</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiN3UyTTZDaEwxNzQ</t>
+  </si>
+  <si>
+    <t>Josh Harrison.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiM29WdTlEeHA1cnc</t>
+  </si>
+  <si>
+    <t>Yaz and Trout.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuia0xUN3pUVWphekU</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTVNPVC1CdFZ0X3M</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiOVd4eGxBV3A2YWM</t>
+  </si>
+  <si>
+    <t>Oriole Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiSktycDVrOWJQN0E</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidmF0b3dLbUhPYU0</t>
+  </si>
+  <si>
+    <t>As Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQkEwVkx2ZmVnZWs</t>
+  </si>
+  <si>
+    <t>Phil Rizzuto Tribute.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuieXFxNVBoSkFBTmc</t>
+  </si>
+  <si>
+    <t>Astros Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiMEptcFg0UjVJVTQ</t>
+  </si>
+  <si>
+    <t>Dexter Fowler Now.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTmw0ZW5nNG5GNTQ</t>
+  </si>
+  <si>
+    <t>Brock Villar.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicjhsRVF2LXA1V3M</t>
+  </si>
+  <si>
+    <t>Pirate Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZ1FrdUxXNFVWVzA</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiRndUS2FQMFFHYlE</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicEs3UVcxQzVhcmc</t>
+  </si>
+  <si>
+    <t>Nolan Arenado bunt.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiOWYxdFlINWZhRVU</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZkkxWldqNnZvdzA</t>
+  </si>
+  <si>
+    <t>howard arenado.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTkFLRW4wSmR4TUE</t>
+  </si>
+  <si>
+    <t>Ty Cobb.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiOFU1WmNBa1o4X2s</t>
+  </si>
+  <si>
+    <t>Joe Morgan.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiN3RucTRzZlctY0U</t>
+  </si>
+  <si>
+    <t>Tony Larusa.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQ2N3Yy1vMkY1NzA</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiT2wzQUY2ZVVUN3M</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiVGJub0d2WTdZZjA</t>
+  </si>
+  <si>
+    <t>1hgD7VRvxruTLGVcxQwrQzAGRLWvzoAXP_g</t>
+  </si>
+  <si>
+    <t>Jake Thompson Physical</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Monty Irvin Bowman</t>
+  </si>
+  <si>
+    <t>Tribute</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuib2VjSTJjRlZrQjg</t>
+  </si>
+  <si>
+    <t>Todd Frazier Gypsy Queen</t>
   </si>
 </sst>
 </file>
@@ -29573,10 +29705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F486"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E477" sqref="E477"/>
+    <sheetView topLeftCell="A406" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29720,3394 +29852,3665 @@
         <v>9558</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9044</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9600</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9599</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9087</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>9088</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4754</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>9089</v>
+        <v>9088</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3125</v>
+        <v>4754</v>
       </c>
       <c r="B23" t="s">
-        <v>9090</v>
+        <v>9089</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>3125</v>
       </c>
       <c r="B24" t="s">
-        <v>9091</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>694</v>
       </c>
       <c r="B25" t="s">
-        <v>9354</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>9092</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
-        <v>9093</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1164</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>1164</v>
       </c>
       <c r="B29" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9423</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>9404</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5373</v>
+        <v>9095</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9429</v>
+        <v>9423</v>
       </c>
       <c r="B31" t="s">
-        <v>9430</v>
+        <v>9404</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5373</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>9429</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>9500</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>9482</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>5373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9045</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>401</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9096</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6460</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
-        <v>9097</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>6460</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>402</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>9098</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>6673</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>9099</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>405</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>9101</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>9102</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>9103</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>9381</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s">
-        <v>9104</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>9514</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>9515</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>5381</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9047</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>485</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9105</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>485</v>
       </c>
       <c r="B50" t="s">
-        <v>9106</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>489</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>9357</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B52" t="s">
-        <v>9107</v>
+        <v>9357</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>490</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>491</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>9108</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>6677</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>9109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9046</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>9111</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>494</v>
+        <v>9046</v>
       </c>
       <c r="B57" t="s">
-        <v>9112</v>
+        <v>9111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>494</v>
       </c>
       <c r="B58" t="s">
-        <v>9113</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>9420</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>9401</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>9425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>9048</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>564</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9114</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B64" t="s">
-        <v>9115</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>9116</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>9117</v>
+        <v>9116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B67" t="s">
-        <v>9118</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B68" t="s">
-        <v>9119</v>
+        <v>9118</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B69" t="s">
-        <v>9120</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>573</v>
       </c>
       <c r="B70" t="s">
-        <v>9121</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>574</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>9122</v>
+        <v>9121</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B72" t="s">
-        <v>9123</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>575</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>9501</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>9485</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>5376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>9053</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>293</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9124</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s">
-        <v>9125</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>9126</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s">
-        <v>9127</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>584</v>
+        <v>254</v>
       </c>
       <c r="B82" t="s">
-        <v>9128</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>584</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>9049</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>9350</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>5355</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>9129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6420</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>9131</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>6420</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>313</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>9132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>9054</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9351</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>6666</v>
+        <v>3694</v>
       </c>
       <c r="B92" t="s">
-        <v>9133</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>447</v>
+        <v>6666</v>
       </c>
       <c r="B93" t="s">
-        <v>9134</v>
+        <v>9133</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>447</v>
       </c>
       <c r="B94" t="s">
-        <v>9135</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>9136</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8202</v>
+        <v>449</v>
       </c>
       <c r="B96" t="s">
-        <v>9137</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>8202</v>
       </c>
       <c r="B97" t="s">
-        <v>9138</v>
+        <v>9137</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9050</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>9139</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>9050</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>153</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>9140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>9055</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>542</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9141</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>5311</v>
+        <v>542</v>
       </c>
       <c r="B106" t="s">
-        <v>9142</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>543</v>
+        <v>5311</v>
       </c>
       <c r="B107" t="s">
-        <v>9377</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>543</v>
       </c>
       <c r="B108" t="s">
-        <v>9385</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="B109" t="s">
-        <v>9143</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>545</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>9144</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>6680</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>9145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>547</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9382</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B113" t="s">
-        <v>9146</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>549</v>
       </c>
       <c r="B114" t="s">
-        <v>9147</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>9413</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>9394</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>5402</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>9056</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>7235</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9360</v>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9578</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9579</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>349</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9148</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6473</v>
+        <v>7235</v>
       </c>
       <c r="B121" t="s">
-        <v>9361</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B122" t="s">
-        <v>9149</v>
+        <v>9148</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>6473</v>
       </c>
       <c r="B123" t="s">
-        <v>9150</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="B124" t="s">
-        <v>9151</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>9152</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>9153</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>736</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
-        <v>9367</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>9154</v>
+        <v>9153</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9407</v>
+        <v>736</v>
       </c>
       <c r="B129" t="s">
-        <v>9388</v>
-      </c>
-      <c r="C129" t="s">
-        <v>5378</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9424</v>
+        <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>9405</v>
-      </c>
-      <c r="C130" t="s">
-        <v>5378</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9530</v>
+        <v>9407</v>
       </c>
       <c r="B131" t="s">
-        <v>9531</v>
+        <v>9388</v>
       </c>
       <c r="C131" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>9057</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>748</v>
-      </c>
-      <c r="B137" t="s">
-        <v>9155</v>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9424</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9405</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>9530</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9531</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5378</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>233</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9156</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>308</v>
+        <v>748</v>
       </c>
       <c r="B139" t="s">
-        <v>9376</v>
+        <v>9155</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="B140" t="s">
-        <v>9157</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9051</v>
+        <v>308</v>
       </c>
       <c r="B141" t="s">
-        <v>9362</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B142" t="s">
-        <v>9158</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>9051</v>
       </c>
       <c r="B143" t="s">
-        <v>9159</v>
+        <v>9362</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B144" t="s">
-        <v>9160</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>9161</v>
+        <v>9159</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B146" t="s">
-        <v>9162</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>9418</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B149" t="s">
         <v>9399</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C149" t="s">
         <v>5416</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>9058</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>424</v>
-      </c>
-      <c r="B151" t="s">
-        <v>9163</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>425</v>
-      </c>
-      <c r="B152" t="s">
-        <v>9164</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>6450</v>
+        <v>424</v>
       </c>
       <c r="B153" t="s">
-        <v>9165</v>
+        <v>9163</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="B154" t="s">
-        <v>9166</v>
+        <v>9164</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>6450</v>
       </c>
       <c r="B155" t="s">
-        <v>9167</v>
+        <v>9165</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>9052</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>9380</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B157" t="s">
-        <v>9168</v>
+        <v>9167</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>434</v>
+        <v>9052</v>
       </c>
       <c r="B158" t="s">
-        <v>9375</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B159" t="s">
-        <v>9169</v>
+        <v>9168</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>434</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>5481</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>9170</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>9059</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>60</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B167" t="s">
         <v>9171</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>76</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B168" t="s">
         <v>9172</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>520</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B169" t="s">
         <v>9173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>4398</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B170" t="s">
         <v>9174</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>6679</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B171" t="s">
         <v>9175</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>523</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B172" t="s">
         <v>9176</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>525</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B173" t="s">
         <v>9177</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>526</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B174" t="s">
         <v>9178</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>211</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
         <v>9179</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>528</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B176" t="s">
         <v>9180</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>9508</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B177" t="s">
         <v>9509</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C177" t="s">
         <v>5393</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>9060</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" t="s">
-        <v>9181</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>377</v>
-      </c>
-      <c r="B180" t="s">
-        <v>9182</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B181" t="s">
-        <v>9183</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B182" t="s">
-        <v>9363</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>379</v>
+        <v>202</v>
       </c>
       <c r="B183" t="s">
-        <v>9184</v>
+        <v>9183</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s">
-        <v>9185</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="B185" t="s">
-        <v>9186</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="B186" t="s">
-        <v>9187</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>6944</v>
+        <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>9188</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>3845</v>
+        <v>480</v>
       </c>
       <c r="B188" t="s">
-        <v>9189</v>
+        <v>9187</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>9406</v>
+        <v>6944</v>
       </c>
       <c r="B189" t="s">
-        <v>9387</v>
-      </c>
-      <c r="C189" t="s">
-        <v>5406</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>9406</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9387</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>9417</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
         <v>9398</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C192" t="s">
         <v>5406</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>9061</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>531</v>
-      </c>
-      <c r="B195" t="s">
-        <v>9190</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>601</v>
-      </c>
-      <c r="B196" t="s">
-        <v>9191</v>
+        <v>9061</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>6468</v>
+        <v>531</v>
       </c>
       <c r="B197" t="s">
-        <v>9192</v>
+        <v>9190</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="B198" t="s">
-        <v>9193</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>103</v>
+        <v>6468</v>
       </c>
       <c r="B199" t="s">
-        <v>9194</v>
+        <v>9192</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>533</v>
       </c>
       <c r="B200" t="s">
-        <v>9195</v>
+        <v>9193</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>9078</v>
+        <v>103</v>
       </c>
       <c r="B201" t="s">
-        <v>9196</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>9197</v>
+        <v>9195</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>538</v>
+        <v>9078</v>
       </c>
       <c r="B203" t="s">
-        <v>9198</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>109</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>538</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9198</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>541</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B206" t="s">
         <v>9199</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>9062</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>592</v>
-      </c>
-      <c r="B208" t="s">
-        <v>9200</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>441</v>
-      </c>
-      <c r="B209" t="s">
-        <v>9201</v>
+        <v>9062</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>113</v>
+        <v>592</v>
       </c>
       <c r="B210" t="s">
-        <v>9202</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="B211" t="s">
-        <v>9203</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="B212" t="s">
-        <v>9204</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
-        <v>9205</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>442</v>
+        <v>181</v>
       </c>
       <c r="B214" t="s">
-        <v>9206</v>
+        <v>9204</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="B215" t="s">
-        <v>9207</v>
+        <v>9205</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B216" t="s">
-        <v>9208</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>444</v>
+        <v>260</v>
       </c>
       <c r="B217" t="s">
-        <v>9209</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>9410</v>
+        <v>443</v>
       </c>
       <c r="B218" t="s">
-        <v>9391</v>
-      </c>
-      <c r="C218" t="s">
-        <v>5387</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>9410</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9391</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>9512</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B221" t="s">
         <v>9513</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C221" t="s">
         <v>5387</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>9063</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>368</v>
-      </c>
-      <c r="B223" t="s">
-        <v>9210</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>47</v>
-      </c>
-      <c r="B224" t="s">
-        <v>9211</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>465</v>
+        <v>368</v>
       </c>
       <c r="B225" t="s">
-        <v>9212</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>466</v>
+        <v>47</v>
       </c>
       <c r="B226" t="s">
-        <v>9213</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>5324</v>
+        <v>465</v>
       </c>
       <c r="B227" t="s">
-        <v>9214</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>597</v>
+        <v>466</v>
       </c>
       <c r="B228" t="s">
-        <v>9215</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>470</v>
+        <v>5324</v>
       </c>
       <c r="B229" t="s">
-        <v>9216</v>
+        <v>9214</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="B230" t="s">
-        <v>9217</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B231" t="s">
-        <v>9353</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B232" t="s">
-        <v>9352</v>
-      </c>
-      <c r="F232" t="s">
-        <v>5107</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>9412</v>
+        <v>462</v>
       </c>
       <c r="B233" t="s">
-        <v>9393</v>
-      </c>
-      <c r="C233" t="s">
-        <v>5394</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>463</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9352</v>
+      </c>
+      <c r="F234" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>9412</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9393</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>9503</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B236" t="s">
         <v>9437</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C236" t="s">
         <v>5394</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>9064</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B238" t="s">
-        <v>9218</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>576</v>
-      </c>
-      <c r="B239" t="s">
-        <v>9219</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>168</v>
+        <v>1350</v>
       </c>
       <c r="B240" t="s">
-        <v>9220</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>142</v>
+        <v>576</v>
       </c>
       <c r="B241" t="s">
-        <v>9221</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>580</v>
+        <v>168</v>
       </c>
       <c r="B242" t="s">
-        <v>9222</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="B243" t="s">
-        <v>9224</v>
+        <v>9221</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>7226</v>
+        <v>580</v>
       </c>
       <c r="B244" t="s">
-        <v>9223</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>581</v>
+        <v>241</v>
       </c>
       <c r="B245" t="s">
-        <v>9383</v>
+        <v>9224</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>582</v>
+        <v>7226</v>
       </c>
       <c r="B246" t="s">
-        <v>9226</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B247" t="s">
-        <v>9371</v>
+        <v>9383</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>9408</v>
+        <v>582</v>
       </c>
       <c r="B248" t="s">
-        <v>9389</v>
-      </c>
-      <c r="C248" t="s">
-        <v>5391</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>9507</v>
+        <v>583</v>
       </c>
       <c r="B249" t="s">
-        <v>9505</v>
+        <v>9371</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>9555</v>
+        <v>9408</v>
       </c>
       <c r="B250" t="s">
-        <v>9556</v>
+        <v>9389</v>
       </c>
       <c r="C250" t="s">
         <v>5391</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>9065</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>4153</v>
-      </c>
-      <c r="B255" t="s">
-        <v>9225</v>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>9507</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>9555</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9556</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5391</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>332</v>
-      </c>
-      <c r="B256" t="s">
-        <v>9229</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>331</v>
+        <v>4153</v>
       </c>
       <c r="B257" t="s">
-        <v>9227</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B258" t="s">
-        <v>9228</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B259" t="s">
-        <v>9379</v>
+        <v>9227</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B260" t="s">
-        <v>9230</v>
+        <v>9228</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>9079</v>
+        <v>328</v>
       </c>
       <c r="B261" t="s">
-        <v>9232</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B262" t="s">
-        <v>9233</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>104</v>
+        <v>9079</v>
       </c>
       <c r="B263" t="s">
-        <v>9231</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>326</v>
+      </c>
+      <c r="B264" t="s">
+        <v>9233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>104</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9231</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>322</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B266" t="s">
         <v>9234</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>9066</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>8236</v>
-      </c>
-      <c r="B269" t="s">
-        <v>9235</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>4195</v>
-      </c>
-      <c r="B270" t="s">
-        <v>9378</v>
+        <v>9066</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>511</v>
+        <v>8236</v>
       </c>
       <c r="B271" t="s">
-        <v>9237</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>9080</v>
+        <v>4195</v>
       </c>
       <c r="B272" t="s">
-        <v>9384</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>229</v>
+        <v>511</v>
       </c>
       <c r="B273" t="s">
-        <v>9236</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>9081</v>
+        <v>9080</v>
       </c>
       <c r="B274" t="s">
-        <v>9238</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>9082</v>
+        <v>229</v>
       </c>
       <c r="B275" t="s">
-        <v>9240</v>
+        <v>9236</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>9083</v>
+        <v>9081</v>
       </c>
       <c r="B276" t="s">
-        <v>9239</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>6682</v>
+      <c r="A277" t="s">
+        <v>9082</v>
       </c>
       <c r="B277" t="s">
-        <v>9241</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>516</v>
+        <v>9083</v>
       </c>
       <c r="B278" t="s">
-        <v>9242</v>
+        <v>9239</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>9434</v>
+      <c r="A279" s="2" t="s">
+        <v>6682</v>
       </c>
       <c r="B279" t="s">
-        <v>9435</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>9520</v>
+        <v>516</v>
       </c>
       <c r="B280" t="s">
-        <v>9521</v>
-      </c>
-      <c r="C280" t="s">
-        <v>5384</v>
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>9434</v>
+      </c>
+      <c r="B281" t="s">
+        <v>9435</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>9067</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>501</v>
-      </c>
-      <c r="B283" t="s">
-        <v>9254</v>
+        <v>9520</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9521</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5384</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>84</v>
-      </c>
-      <c r="B284" t="s">
-        <v>9359</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>8233</v>
+        <v>501</v>
       </c>
       <c r="B285" t="s">
-        <v>9255</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>502</v>
+        <v>84</v>
       </c>
       <c r="B286" t="s">
-        <v>9256</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>503</v>
+        <v>8233</v>
       </c>
       <c r="B287" t="s">
-        <v>9257</v>
+        <v>9255</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B288" t="s">
-        <v>9258</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>5325</v>
+        <v>503</v>
       </c>
       <c r="B289" t="s">
-        <v>9259</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>4874</v>
+        <v>506</v>
       </c>
       <c r="B290" t="s">
-        <v>9260</v>
+        <v>9258</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1376</v>
+        <v>5325</v>
       </c>
       <c r="B291" t="s">
-        <v>9262</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>132</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B294" t="s">
         <v>9261</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>9068</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>556</v>
-      </c>
-      <c r="B297" t="s">
-        <v>9263</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>557</v>
-      </c>
-      <c r="B298" t="s">
-        <v>9264</v>
+        <v>9068</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1401</v>
+        <v>556</v>
       </c>
       <c r="B299" t="s">
-        <v>9266</v>
+        <v>9263</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>56</v>
+        <v>557</v>
       </c>
       <c r="B300" t="s">
-        <v>9265</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>34</v>
+        <v>1401</v>
       </c>
       <c r="B301" t="s">
-        <v>9267</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="B302" t="s">
-        <v>9268</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="B303" t="s">
-        <v>9269</v>
+        <v>9267</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>5367</v>
+      <c r="A304" t="s">
+        <v>406</v>
       </c>
       <c r="B304" t="s">
-        <v>9270</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>563</v>
+        <v>197</v>
       </c>
       <c r="B305" t="s">
-        <v>9370</v>
+        <v>9269</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>237</v>
+      <c r="A306" s="2" t="s">
+        <v>5367</v>
       </c>
       <c r="B306" t="s">
-        <v>9271</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>9419</v>
+        <v>563</v>
       </c>
       <c r="B307" t="s">
-        <v>9400</v>
-      </c>
-      <c r="C307" t="s">
-        <v>5374</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>9559</v>
+        <v>237</v>
       </c>
       <c r="B308" t="s">
-        <v>9518</v>
-      </c>
-      <c r="C308" t="s">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>9419</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9400</v>
+      </c>
+      <c r="C309" t="s">
         <v>5374</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>9077</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>4432</v>
-      </c>
-      <c r="B311" t="s">
-        <v>9272</v>
+        <v>9559</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9518</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5374</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>8248</v>
-      </c>
-      <c r="B312" t="s">
-        <v>9273</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>4569</v>
+        <v>4432</v>
       </c>
       <c r="B313" t="s">
-        <v>9274</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>4413</v>
+        <v>8248</v>
       </c>
       <c r="B314" t="s">
-        <v>9276</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>5286</v>
+        <v>4569</v>
       </c>
       <c r="B315" t="s">
-        <v>9275</v>
+        <v>9274</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>4402</v>
+        <v>4413</v>
       </c>
       <c r="B316" t="s">
-        <v>9356</v>
+        <v>9276</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>676</v>
+        <v>5286</v>
       </c>
       <c r="B317" t="s">
-        <v>9355</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>553</v>
+        <v>4402</v>
       </c>
       <c r="B318" t="s">
-        <v>9277</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>5314</v>
+        <v>676</v>
       </c>
       <c r="B319" t="s">
-        <v>9278</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>553</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9277</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B321" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>9416</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B322" t="s">
         <v>9397</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C322" t="s">
         <v>5404</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>9069</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>6670</v>
-      </c>
-      <c r="B324" t="s">
-        <v>9279</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>334</v>
-      </c>
-      <c r="B325" t="s">
-        <v>9280</v>
+        <v>9069</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>15</v>
+      <c r="A326" s="2" t="s">
+        <v>6670</v>
       </c>
       <c r="B326" t="s">
-        <v>9281</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>61</v>
+        <v>334</v>
       </c>
       <c r="B327" t="s">
-        <v>9282</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c r="B328" t="s">
-        <v>9283</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>343</v>
+        <v>61</v>
       </c>
       <c r="B329" t="s">
-        <v>9285</v>
+        <v>9282</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="B330" t="s">
-        <v>9286</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="B331" t="s">
-        <v>9288</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="B332" t="s">
-        <v>9284</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>4437</v>
+        <v>83</v>
       </c>
       <c r="B333" t="s">
-        <v>9287</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>9497</v>
+        <v>344</v>
       </c>
       <c r="B334" t="s">
-        <v>9457</v>
-      </c>
-      <c r="C334" t="s">
-        <v>5379</v>
+        <v>9284</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>9497</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9457</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>9502</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B337" t="s">
         <v>9481</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C337" t="s">
         <v>5379</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>9070</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>19</v>
-      </c>
-      <c r="B339" t="s">
-        <v>9289</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>18</v>
-      </c>
-      <c r="B340" t="s">
-        <v>9290</v>
+        <v>9070</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="B341" t="s">
-        <v>9291</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="B342" t="s">
-        <v>9374</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="B343" t="s">
-        <v>9292</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B344" t="s">
-        <v>9293</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="B345" t="s">
-        <v>9294</v>
+        <v>9292</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="B346" t="s">
-        <v>9295</v>
+        <v>9293</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>282</v>
+        <v>119</v>
       </c>
       <c r="B347" t="s">
-        <v>9296</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="B348" t="s">
-        <v>9297</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>282</v>
+      </c>
+      <c r="B349" t="s">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>62</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9297</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>9422</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B351" t="s">
         <v>9403</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C351" t="s">
         <v>5383</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>9071</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>382</v>
-      </c>
-      <c r="B353" t="s">
-        <v>9298</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>383</v>
-      </c>
-      <c r="B354" t="s">
-        <v>9299</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B355" t="s">
-        <v>9300</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
       <c r="B356" t="s">
-        <v>9301</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>6672</v>
+      <c r="A357" t="s">
+        <v>384</v>
       </c>
       <c r="B357" t="s">
-        <v>9358</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B358" t="s">
-        <v>9302</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>387</v>
+      <c r="A359" s="2" t="s">
+        <v>6672</v>
       </c>
       <c r="B359" t="s">
-        <v>9303</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B360" t="s">
-        <v>9304</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>588</v>
+        <v>387</v>
       </c>
       <c r="B361" t="s">
-        <v>9305</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>8173</v>
+        <v>256</v>
       </c>
       <c r="B362" t="s">
-        <v>9306</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>9415</v>
+        <v>588</v>
       </c>
       <c r="B363" t="s">
-        <v>9396</v>
-      </c>
-      <c r="C363" t="s">
-        <v>5411</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>9432</v>
+        <v>8173</v>
       </c>
       <c r="B364" t="s">
-        <v>9433</v>
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>9415</v>
+      </c>
+      <c r="B365" t="s">
+        <v>9396</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5411</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>9072</v>
+        <v>9432</v>
+      </c>
+      <c r="B366" t="s">
+        <v>9433</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>289</v>
+        <v>9586</v>
       </c>
       <c r="B367" t="s">
-        <v>9369</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>275</v>
-      </c>
-      <c r="B368" t="s">
-        <v>9307</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>414</v>
-      </c>
-      <c r="B369" t="s">
-        <v>9308</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
       <c r="B370" t="s">
-        <v>9364</v>
+        <v>9369</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="B371" t="s">
-        <v>9309</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B372" t="s">
-        <v>9310</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>4191</v>
+        <v>415</v>
       </c>
       <c r="B373" t="s">
-        <v>9311</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>9084</v>
+        <v>38</v>
       </c>
       <c r="B374" t="s">
-        <v>9366</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B375" t="s">
-        <v>9373</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>4600</v>
+        <v>4191</v>
       </c>
       <c r="B376" t="s">
-        <v>9368</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>9528</v>
+        <v>9084</v>
       </c>
       <c r="B377" t="s">
-        <v>9529</v>
-      </c>
-      <c r="C377" t="s">
-        <v>5380</v>
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>420</v>
+      </c>
+      <c r="B378" t="s">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B379" t="s">
+        <v>9368</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>9073</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>390</v>
-      </c>
-      <c r="B381" t="s">
-        <v>9312</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>391</v>
-      </c>
-      <c r="B382" t="s">
-        <v>9313</v>
+        <v>9528</v>
+      </c>
+      <c r="B380" t="s">
+        <v>9529</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5380</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>589</v>
-      </c>
-      <c r="B383" t="s">
-        <v>9314</v>
+        <v>9073</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B384" t="s">
-        <v>9315</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B385" t="s">
-        <v>9316</v>
+        <v>9313</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>395</v>
+        <v>589</v>
       </c>
       <c r="B386" t="s">
-        <v>9317</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="B387" t="s">
-        <v>9318</v>
+        <v>9315</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B388" t="s">
-        <v>9319</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B389" t="s">
-        <v>9320</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
       <c r="B390" t="s">
-        <v>9321</v>
+        <v>9318</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>9421</v>
+        <v>397</v>
       </c>
       <c r="B391" t="s">
-        <v>9402</v>
-      </c>
-      <c r="C391" t="s">
-        <v>5407</v>
+        <v>9319</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>399</v>
+      </c>
+      <c r="B392" t="s">
+        <v>9320</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>9074</v>
+        <v>400</v>
+      </c>
+      <c r="B393" t="s">
+        <v>9321</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>453</v>
+        <v>9421</v>
       </c>
       <c r="B394" t="s">
-        <v>9322</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>7</v>
-      </c>
-      <c r="B395" t="s">
-        <v>9323</v>
+        <v>9402</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5407</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>175</v>
-      </c>
-      <c r="B396" t="s">
-        <v>9324</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>102</v>
+        <v>453</v>
       </c>
       <c r="B397" t="s">
-        <v>9372</v>
+        <v>9322</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>9085</v>
+        <v>7</v>
       </c>
       <c r="B398" t="s">
-        <v>9325</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>455</v>
+        <v>175</v>
       </c>
       <c r="B399" t="s">
-        <v>9326</v>
+        <v>9324</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>457</v>
+        <v>102</v>
       </c>
       <c r="B400" t="s">
-        <v>9327</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>458</v>
+        <v>9085</v>
       </c>
       <c r="B401" t="s">
-        <v>9328</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B402" t="s">
-        <v>9329</v>
+        <v>9326</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>3115</v>
+        <v>457</v>
       </c>
       <c r="B403" t="s">
-        <v>9330</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>9414</v>
+        <v>458</v>
       </c>
       <c r="B404" t="s">
-        <v>9395</v>
-      </c>
-      <c r="C404" t="s">
-        <v>5392</v>
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>459</v>
+      </c>
+      <c r="B405" t="s">
+        <v>9329</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B406" t="s">
+        <v>9330</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>9075</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>358</v>
-      </c>
-      <c r="B408" t="s">
-        <v>9331</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>6665</v>
-      </c>
-      <c r="B409" t="s">
-        <v>9332</v>
+        <v>9414</v>
+      </c>
+      <c r="B407" t="s">
+        <v>9395</v>
+      </c>
+      <c r="C407" t="s">
+        <v>5392</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>362</v>
-      </c>
-      <c r="B410" t="s">
-        <v>9333</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="B411" t="s">
-        <v>9365</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>4139</v>
+        <v>6665</v>
       </c>
       <c r="B412" t="s">
-        <v>9334</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>191</v>
+        <v>362</v>
       </c>
       <c r="B413" t="s">
-        <v>9335</v>
+        <v>9333</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="B414" t="s">
-        <v>9336</v>
+        <v>9365</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>839</v>
+        <v>4139</v>
       </c>
       <c r="B415" t="s">
-        <v>9337</v>
+        <v>9334</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>191</v>
+      </c>
+      <c r="B416" t="s">
+        <v>9335</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>365</v>
+      </c>
+      <c r="B417" t="s">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>839</v>
+      </c>
+      <c r="B418" t="s">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
         <v>9086</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B419" t="s">
         <v>9338</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
         <v>587</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B420" t="s">
         <v>9339</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>9605</v>
+      </c>
+      <c r="B421" t="s">
+        <v>9567</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>9076</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
         <v>16</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B425" t="s">
         <v>9340</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
         <v>681</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B426" t="s">
         <v>9341</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>475</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B427" t="s">
         <v>9342</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
         <v>477</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B428" t="s">
         <v>9343</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
         <v>192</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B429" t="s">
         <v>9344</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
         <v>478</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B430" t="s">
         <v>9345</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
         <v>242</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B431" t="s">
         <v>9346</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>482</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B432" t="s">
         <v>9347</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>268</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B433" t="s">
         <v>9348</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
         <v>257</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B434" t="s">
         <v>9386</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>9409</v>
-      </c>
-      <c r="B431" t="s">
-        <v>9390</v>
-      </c>
-      <c r="C431" t="s">
-        <v>5386</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>9411</v>
-      </c>
-      <c r="B432" t="s">
-        <v>9392</v>
-      </c>
-      <c r="C432" t="s">
-        <v>5386</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>9426</v>
+        <v>9409</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9390</v>
+      </c>
+      <c r="C435" t="s">
+        <v>5386</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>405</v>
+        <v>9411</v>
       </c>
       <c r="B436" t="s">
-        <v>9486</v>
+        <v>9392</v>
       </c>
       <c r="C436" t="s">
-        <v>5381</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>4048</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>9428</v>
-      </c>
-      <c r="C437" t="s">
-        <v>5413</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>6420</v>
-      </c>
-      <c r="B438" t="s">
-        <v>9436</v>
-      </c>
-      <c r="C438" t="s">
-        <v>5413</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>9008</v>
-      </c>
-      <c r="B439" t="s">
-        <v>9511</v>
-      </c>
-      <c r="C439" t="s">
-        <v>5413</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>7202</v>
+        <v>9572</v>
       </c>
       <c r="B440" t="s">
-        <v>9522</v>
+        <v>9573</v>
       </c>
       <c r="C440" t="s">
-        <v>5375</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>545</v>
+        <v>405</v>
       </c>
       <c r="B441" t="s">
-        <v>9483</v>
+        <v>9486</v>
       </c>
       <c r="C441" t="s">
-        <v>5402</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>739</v>
+        <v>9576</v>
       </c>
       <c r="B442" t="s">
-        <v>9427</v>
+        <v>9577</v>
       </c>
       <c r="C442" t="s">
-        <v>5378</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>432</v>
-      </c>
-      <c r="B443" t="s">
-        <v>9484</v>
+        <v>4048</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>9428</v>
       </c>
       <c r="C443" t="s">
-        <v>5403</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>424</v>
+        <v>6420</v>
       </c>
       <c r="B444" t="s">
-        <v>9504</v>
+        <v>9436</v>
       </c>
       <c r="C444" t="s">
-        <v>5403</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>8894</v>
+        <v>9008</v>
       </c>
       <c r="B445" t="s">
-        <v>9554</v>
+        <v>9511</v>
       </c>
       <c r="C445" t="s">
-        <v>5403</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>3845</v>
+        <v>7202</v>
       </c>
       <c r="B446" t="s">
-        <v>9431</v>
+        <v>9522</v>
       </c>
       <c r="C446" t="s">
-        <v>5406</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="B447" t="s">
-        <v>9459</v>
+        <v>9483</v>
       </c>
       <c r="C447" t="s">
-        <v>5406</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>9498</v>
+        <v>739</v>
       </c>
       <c r="B448" t="s">
-        <v>9458</v>
+        <v>9427</v>
       </c>
       <c r="C448" t="s">
-        <v>5387</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>7039</v>
+        <v>7083</v>
       </c>
       <c r="B449" t="s">
-        <v>9527</v>
+        <v>9585</v>
       </c>
       <c r="C449" t="s">
-        <v>5394</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="B450" t="s">
-        <v>9441</v>
+        <v>9484</v>
       </c>
       <c r="C450" t="s">
-        <v>5391</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="B451" t="s">
-        <v>9461</v>
+        <v>9504</v>
       </c>
       <c r="C451" t="s">
-        <v>5391</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>8251</v>
+        <v>8894</v>
       </c>
       <c r="B452" t="s">
-        <v>9440</v>
+        <v>9554</v>
       </c>
       <c r="C452" t="s">
-        <v>5374</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>9516</v>
+        <v>8415</v>
       </c>
       <c r="B453" t="s">
-        <v>9517</v>
+        <v>9571</v>
       </c>
       <c r="C453" t="s">
-        <v>5404</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>9444</v>
+        <v>3845</v>
       </c>
       <c r="B454" t="s">
-        <v>9439</v>
+        <v>9431</v>
       </c>
       <c r="C454" t="s">
-        <v>5379</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>7204</v>
+        <v>480</v>
       </c>
       <c r="B455" t="s">
-        <v>9551</v>
+        <v>9459</v>
       </c>
       <c r="C455" t="s">
-        <v>5379</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>9525</v>
+        <v>9565</v>
       </c>
       <c r="B456" t="s">
-        <v>9526</v>
+        <v>9566</v>
       </c>
       <c r="C456" t="s">
-        <v>5383</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>9549</v>
+        <v>9580</v>
       </c>
       <c r="B457" t="s">
-        <v>9550</v>
+        <v>9581</v>
       </c>
       <c r="C457" t="s">
-        <v>5383</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>9499</v>
+        <v>9589</v>
       </c>
       <c r="B458" t="s">
-        <v>9479</v>
+        <v>9590</v>
       </c>
       <c r="C458" t="s">
-        <v>5411</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>9523</v>
+        <v>9498</v>
       </c>
       <c r="B459" t="s">
-        <v>9524</v>
+        <v>9458</v>
       </c>
       <c r="C459" t="s">
-        <v>5380</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>459</v>
+        <v>7039</v>
       </c>
       <c r="B460" t="s">
-        <v>9438</v>
+        <v>9527</v>
       </c>
       <c r="C460" t="s">
-        <v>5407</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>395</v>
+        <v>576</v>
       </c>
       <c r="B461" t="s">
-        <v>9460</v>
+        <v>9441</v>
       </c>
       <c r="C461" t="s">
-        <v>5407</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="B462" t="s">
-        <v>9480</v>
+        <v>9461</v>
       </c>
       <c r="C462" t="s">
-        <v>5392</v>
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>9569</v>
+      </c>
+      <c r="B463" t="s">
+        <v>9570</v>
+      </c>
+      <c r="C463" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>9563</v>
+      </c>
+      <c r="B464" t="s">
+        <v>9564</v>
+      </c>
+      <c r="C464" t="s">
+        <v>5390</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>9560</v>
+        <v>9582</v>
+      </c>
+      <c r="B465" t="s">
+        <v>9583</v>
+      </c>
+      <c r="C465" t="s">
+        <v>5390</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>296</v>
+        <v>8251</v>
       </c>
       <c r="B466" t="s">
-        <v>9472</v>
+        <v>9440</v>
       </c>
       <c r="C466" t="s">
-        <v>5373</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>402</v>
+        <v>9516</v>
       </c>
       <c r="B467" t="s">
-        <v>9469</v>
+        <v>9517</v>
       </c>
       <c r="C467" t="s">
-        <v>5381</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>564</v>
+        <v>9444</v>
       </c>
       <c r="B468" t="s">
-        <v>9462</v>
+        <v>9439</v>
       </c>
       <c r="C468" t="s">
-        <v>5376</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>447</v>
+        <v>7204</v>
       </c>
       <c r="B469" t="s">
-        <v>9474</v>
+        <v>9551</v>
       </c>
       <c r="C469" t="s">
-        <v>5375</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>434</v>
+        <v>7206</v>
       </c>
       <c r="B470" t="s">
-        <v>9478</v>
+        <v>9584</v>
       </c>
       <c r="C470" t="s">
-        <v>5403</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>526</v>
+        <v>9525</v>
       </c>
       <c r="B471" t="s">
-        <v>9464</v>
+        <v>9526</v>
       </c>
       <c r="C471" t="s">
-        <v>5393</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>777</v>
+        <v>9549</v>
       </c>
       <c r="B472" t="s">
-        <v>9468</v>
+        <v>9550</v>
       </c>
       <c r="C472" t="s">
-        <v>5387</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>576</v>
+        <v>9549</v>
       </c>
       <c r="B473" t="s">
-        <v>9471</v>
+        <v>9568</v>
       </c>
       <c r="C473" t="s">
-        <v>5391</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>5329</v>
+        <v>9499</v>
       </c>
       <c r="B474" t="s">
-        <v>9473</v>
+        <v>9479</v>
       </c>
       <c r="C474" t="s">
-        <v>5377</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>4176</v>
+        <v>9523</v>
       </c>
       <c r="B475" t="s">
-        <v>9477</v>
+        <v>9524</v>
       </c>
       <c r="C475" t="s">
-        <v>5384</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="B476" t="s">
-        <v>9506</v>
+        <v>9438</v>
       </c>
       <c r="C476" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>4490</v>
+        <v>395</v>
       </c>
       <c r="B477" t="s">
-        <v>9466</v>
+        <v>9460</v>
       </c>
       <c r="C477" t="s">
-        <v>5383</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>455</v>
+      </c>
+      <c r="B478" t="s">
+        <v>9480</v>
+      </c>
+      <c r="C478" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>296</v>
+      </c>
+      <c r="B482" t="s">
+        <v>9472</v>
+      </c>
+      <c r="C482" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>402</v>
+      </c>
+      <c r="B483" t="s">
+        <v>9469</v>
+      </c>
+      <c r="C483" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>564</v>
+      </c>
+      <c r="B484" t="s">
+        <v>9462</v>
+      </c>
+      <c r="C484" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>447</v>
+      </c>
+      <c r="B485" t="s">
+        <v>9474</v>
+      </c>
+      <c r="C485" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>434</v>
+      </c>
+      <c r="B486" t="s">
+        <v>9478</v>
+      </c>
+      <c r="C486" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>526</v>
+      </c>
+      <c r="B487" t="s">
+        <v>9464</v>
+      </c>
+      <c r="C487" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>777</v>
+      </c>
+      <c r="B488" t="s">
+        <v>9468</v>
+      </c>
+      <c r="C488" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>576</v>
+      </c>
+      <c r="B489" t="s">
+        <v>9471</v>
+      </c>
+      <c r="C489" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B490" t="s">
+        <v>9473</v>
+      </c>
+      <c r="C490" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B491" t="s">
+        <v>9477</v>
+      </c>
+      <c r="C491" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>499</v>
+      </c>
+      <c r="B492" t="s">
+        <v>9506</v>
+      </c>
+      <c r="C492" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9466</v>
+      </c>
+      <c r="C493" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>382</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B494" t="s">
         <v>9470</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C494" t="s">
         <v>5411</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>4563</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B495" t="s">
         <v>9476</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C495" t="s">
         <v>5411</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>415</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B496" t="s">
         <v>9463</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C496" t="s">
         <v>5380</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>390</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B497" t="s">
         <v>9465</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C497" t="s">
         <v>5407</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>393</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B498" t="s">
         <v>9467</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C498" t="s">
         <v>5407</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>400</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B499" t="s">
         <v>9475</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C499" t="s">
         <v>5407</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
         <v>9532</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B500" t="s">
         <v>9533</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C500" t="s">
         <v>5391</v>
       </c>
-      <c r="E484" t="s">
+      <c r="E500" t="s">
         <v>9561</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
         <v>9534</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B501" t="s">
         <v>9535</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C501" t="s">
         <v>5396</v>
       </c>
-      <c r="E485" t="s">
+      <c r="E501" t="s">
         <v>9561</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>8376</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B502" t="s">
         <v>9536</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C502" t="s">
         <v>5376</v>
       </c>
-      <c r="E486" t="s">
+      <c r="E502" t="s">
         <v>9561</v>
       </c>
     </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>8355</v>
+      </c>
+      <c r="B503" t="s">
+        <v>9562</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5373</v>
+      </c>
+      <c r="E503" t="s">
+        <v>9561</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>9574</v>
+      </c>
+      <c r="B506" t="s">
+        <v>9575</v>
+      </c>
+      <c r="C506" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>9591</v>
+      </c>
+      <c r="B507" t="s">
+        <v>9592</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>9593</v>
+      </c>
+      <c r="B508" t="s">
+        <v>9594</v>
+      </c>
+      <c r="C508" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>9595</v>
+      </c>
+      <c r="B509" t="s">
+        <v>9596</v>
+      </c>
+      <c r="C509" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>9027</v>
+      </c>
+      <c r="B510" t="s">
+        <v>9597</v>
+      </c>
+      <c r="C510" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>7173</v>
+      </c>
+      <c r="B511" t="s">
+        <v>9598</v>
+      </c>
+      <c r="C511" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>9602</v>
+      </c>
+      <c r="B512" t="s">
+        <v>9588</v>
+      </c>
+      <c r="C512" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>382</v>
+      </c>
+      <c r="B513" t="s">
+        <v>9604</v>
+      </c>
+      <c r="C513" t="s">
+        <v>5411</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A428:F454">
-    <sortCondition ref="C428:C454"/>
+  <sortState ref="A436:F474">
+    <sortCondition ref="C436:C474"/>
   </sortState>
-  <conditionalFormatting sqref="A138">
+  <conditionalFormatting sqref="A140">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>"AND(ISBLANK(D17),ISBLANK(E17),ISBLANK(F17),ISBLANK(G17),ISBLANK(H17),ISBLANK(I17),ISBLANK(J17),ISBLANK(K17),ISBLANK(L17),ISBLANK(M17))"</formula>
     </cfRule>
@@ -38798,8 +39201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/buntseries2.xlsx
+++ b/buntseries2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="6600" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18390" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="2017 Bunt" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14188" uniqueCount="9606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14359" uniqueCount="9688">
   <si>
     <t xml:space="preserve"> Joey Gallo</t>
   </si>
@@ -28710,9 +28710,6 @@
     <t>Yu Darvish Gypsy Queen</t>
   </si>
   <si>
-    <t>Mothers Day / Memorial Day</t>
-  </si>
-  <si>
     <t>Mem</t>
   </si>
   <si>
@@ -28846,6 +28843,255 @@
   </si>
   <si>
     <t>Todd Frazier Gypsy Queen</t>
+  </si>
+  <si>
+    <t>Tigers Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiS3I4aEhBTE1hcDQ</t>
+  </si>
+  <si>
+    <t>Odubell Herrera.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiNWdFaS1VaHVCLVU</t>
+  </si>
+  <si>
+    <t>Mets Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiSzJkZlBJdldaZFE</t>
+  </si>
+  <si>
+    <t>Dbacks Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQ0VyS1d6NXhaS3c</t>
+  </si>
+  <si>
+    <t>Braves Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTG1GeGhTSVlqNjg</t>
+  </si>
+  <si>
+    <t>Odubell Herrera Heritage</t>
+  </si>
+  <si>
+    <t>Mike Moustakas.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuibFp4bFZYblRnOVk</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiNGJoZVRYcmpVbzQ</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiWUczOEVmS1drRE0</t>
+  </si>
+  <si>
+    <t>Orlando Arcia.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiak1UdUVQb3NzZlk</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicUcwYTlmSXh5YlU</t>
+  </si>
+  <si>
+    <t>Jake Lamb.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiVkl1Y0hCSjdQV0U</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiMnVCcGt0RzVIVXM</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidzRvekJ2SW44aDQ</t>
+  </si>
+  <si>
+    <t>Joe Musgrove.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuibTlMWDVyWjdjYjg</t>
+  </si>
+  <si>
+    <t>Troy Tulowitsky.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuibWtRa2Vld0Npbmc</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiamt2aVA4Rms3M3c</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiemhxQXdwalhrZlU</t>
+  </si>
+  <si>
+    <t>Aledmys Diaz.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuid01QdWwwTURlWFU</t>
+  </si>
+  <si>
+    <t>Randall Grichuk.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiUk9Ba21zbk1nWms</t>
+  </si>
+  <si>
+    <t>Ian Kinsler.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicHA1STUtc1NXQmM</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiOVR5MGxHNE56S1U</t>
+  </si>
+  <si>
+    <t>Lance McCullers.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicWN4S2tJN0p1Q3c</t>
+  </si>
+  <si>
+    <t>Ryan Schimpf.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiamFMNkUyYjVWZW8</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQllMZE5iVVNaTHM</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiRTN4SjdEc0Jkak0</t>
+  </si>
+  <si>
+    <t>Miguel Sano programs.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiMEloNEU0QlFVVzA</t>
+  </si>
+  <si>
+    <t>Ryan Schimpf programs.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiY1dWeVJVMHBCdGs</t>
+  </si>
+  <si>
+    <t>Royals Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiZmg0TXhkZGdvSUE</t>
+  </si>
+  <si>
+    <t>Nats Rookies.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiblhPV1VvNE9sQVk</t>
+  </si>
+  <si>
+    <t>Bellinger Then and Now.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiSl9YZU52cVJaZ0k</t>
+  </si>
+  <si>
+    <t>Danny Duffy.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiaHNiTXZRTVUxa3M</t>
+  </si>
+  <si>
+    <t>Chicago Aces.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiWnZJV2g1MWEwM1k</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuidXgwQVRCU1VlYkU</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiS1lNcndndTc5TU0</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiOFRIempIa3I4VFk</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicjN0U0xnRDBJMHc</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiWEF0ejhhcWRYSmc</t>
+  </si>
+  <si>
+    <t>Joe Mauer.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTjRUdzhDem5nMW8</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicXpzVHd3MV9oRWs</t>
+  </si>
+  <si>
+    <t>Jacob deGrom.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiaFNRbUVVelFzbEU</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQjlNelJNa29TR0U</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiQ184d1pQYUlHNGs</t>
+  </si>
+  <si>
+    <t>Carlos Rodon.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiN1ItMGNkOEtaLTg</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiR1BiSFBSWHJFb1E</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiTmJGeF9UMzlJNTg</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiRFh0bk52cTB1WEE</t>
+  </si>
+  <si>
+    <t>Manny Machado.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicVZXSFk3aGstaTA</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiUElmUXFLeThjQW8</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuiSGlPN1FtV0czdEE</t>
+  </si>
+  <si>
+    <t>Yadier Molina.png</t>
+  </si>
+  <si>
+    <t>0B-SU-eAGCKuicWZtSmxpM0dIOUE</t>
+  </si>
+  <si>
+    <t>Mookie Betts Bowman</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts Bowman</t>
+  </si>
+  <si>
+    <t>Fathers Day</t>
+  </si>
+  <si>
+    <t>Mothers Day / Memorial Day / Fathers Day</t>
+  </si>
+  <si>
+    <t>Programs</t>
   </si>
 </sst>
 </file>
@@ -29705,10 +29951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F513"/>
+  <dimension ref="A1:F567"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
+    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:XFD495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29854,783 +30100,783 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9600</v>
+        <v>9599</v>
       </c>
       <c r="B18" t="s">
-        <v>9599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9044</v>
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9615</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9608</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5410</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9087</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>9088</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4754</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>9089</v>
+        <v>9088</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3125</v>
+        <v>4754</v>
       </c>
       <c r="B24" t="s">
-        <v>9090</v>
+        <v>9089</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>694</v>
+        <v>3125</v>
       </c>
       <c r="B25" t="s">
-        <v>9091</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>694</v>
       </c>
       <c r="B26" t="s">
-        <v>9354</v>
+        <v>9091</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
-        <v>9092</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s">
-        <v>9093</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1164</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>1164</v>
       </c>
       <c r="B30" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9423</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
-        <v>9404</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5373</v>
+        <v>9095</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9429</v>
+        <v>9423</v>
       </c>
       <c r="B32" t="s">
-        <v>9430</v>
+        <v>9404</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5373</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>9429</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>9500</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>9482</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>5373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9045</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9096</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6460</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>9097</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>6460</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>402</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>9098</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>6673</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>9099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>405</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s">
-        <v>9101</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>9102</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>9103</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>9381</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>412</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>9104</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>9514</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>9515</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>5381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>9047</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>485</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9105</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
-        <v>9106</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>489</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s">
-        <v>9357</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B53" t="s">
-        <v>9107</v>
+        <v>9357</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>490</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>491</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>9108</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>6677</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>9109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9046</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>9111</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>494</v>
+        <v>9046</v>
       </c>
       <c r="B58" t="s">
-        <v>9112</v>
+        <v>9111</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s">
-        <v>9113</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>9420</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>9401</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>9425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>9048</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>564</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9114</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B65" t="s">
-        <v>9115</v>
+        <v>9114</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="B66" t="s">
-        <v>9116</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>9117</v>
+        <v>9116</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B68" t="s">
-        <v>9118</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B69" t="s">
-        <v>9119</v>
+        <v>9118</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B70" t="s">
-        <v>9120</v>
+        <v>9119</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>573</v>
       </c>
       <c r="B71" t="s">
-        <v>9121</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>574</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>9122</v>
+        <v>9121</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B73" t="s">
-        <v>9123</v>
+        <v>9122</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>575</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>9501</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>9485</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>5376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>9053</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>293</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9124</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>9125</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>9126</v>
+        <v>9125</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>9127</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>584</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>9128</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>584</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>9049</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>9350</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>5355</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>9129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>315</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6420</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>9131</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>6420</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>313</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>9132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>9054</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>3694</v>
-      </c>
-      <c r="B92" t="s">
-        <v>9351</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6666</v>
+        <v>3694</v>
       </c>
       <c r="B93" t="s">
-        <v>9133</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>447</v>
+        <v>6666</v>
       </c>
       <c r="B94" t="s">
-        <v>9134</v>
+        <v>9133</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>447</v>
       </c>
       <c r="B95" t="s">
-        <v>9135</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>9136</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8202</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s">
-        <v>9137</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>8202</v>
       </c>
       <c r="B98" t="s">
-        <v>9138</v>
+        <v>9137</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9050</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>9139</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>9050</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>153</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>9140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>9055</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>542</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9141</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5311</v>
+        <v>542</v>
       </c>
       <c r="B107" t="s">
-        <v>9142</v>
+        <v>9141</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>543</v>
+        <v>5311</v>
       </c>
       <c r="B108" t="s">
-        <v>9377</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>543</v>
       </c>
       <c r="B109" t="s">
-        <v>9385</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>9143</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>545</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>9144</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>6680</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>9145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>547</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9382</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B114" t="s">
-        <v>9146</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>549</v>
       </c>
       <c r="B115" t="s">
-        <v>9147</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>9413</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>9394</v>
-      </c>
-      <c r="C116" t="s">
-        <v>5402</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>9413</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9394</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9577</v>
+      </c>
+      <c r="B118" t="s">
         <v>9578</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9579</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>9056</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7235</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9360</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>7235</v>
       </c>
       <c r="B122" t="s">
-        <v>9148</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6473</v>
+        <v>349</v>
       </c>
       <c r="B123" t="s">
-        <v>9361</v>
+        <v>9148</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>6473</v>
       </c>
       <c r="B124" t="s">
-        <v>9149</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="B125" t="s">
-        <v>9150</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>9151</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>352</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>9152</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B128" t="s">
-        <v>9153</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>736</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
-        <v>9367</v>
+        <v>9153</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>736</v>
       </c>
       <c r="B130" t="s">
-        <v>9154</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9407</v>
+        <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>9388</v>
-      </c>
-      <c r="C131" t="s">
-        <v>5378</v>
+        <v>9154</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9424</v>
+        <v>9407</v>
       </c>
       <c r="B132" t="s">
-        <v>9405</v>
+        <v>9388</v>
       </c>
       <c r="C132" t="s">
         <v>5378</v>
@@ -30638,2879 +30884,3498 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9530</v>
+        <v>9424</v>
       </c>
       <c r="B133" t="s">
-        <v>9531</v>
+        <v>9405</v>
       </c>
       <c r="C133" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>9057</v>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>9530</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5378</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>748</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9155</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>748</v>
       </c>
       <c r="B140" t="s">
-        <v>9156</v>
+        <v>9155</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="B141" t="s">
-        <v>9376</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B142" t="s">
-        <v>9157</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>9051</v>
+        <v>307</v>
       </c>
       <c r="B143" t="s">
-        <v>9362</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>9051</v>
       </c>
       <c r="B144" t="s">
-        <v>9158</v>
+        <v>9362</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
-        <v>9159</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>9160</v>
+        <v>9159</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="B147" t="s">
-        <v>9161</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>9418</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>9399</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>5416</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>9058</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>424</v>
-      </c>
-      <c r="B153" t="s">
-        <v>9163</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B154" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>6450</v>
+        <v>425</v>
       </c>
       <c r="B155" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>6450</v>
       </c>
       <c r="B156" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>428</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>9052</v>
+        <v>428</v>
       </c>
       <c r="B158" t="s">
-        <v>9380</v>
+        <v>9167</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>431</v>
+        <v>9052</v>
       </c>
       <c r="B159" t="s">
-        <v>9168</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B160" t="s">
-        <v>9375</v>
+        <v>9168</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B161" t="s">
-        <v>9169</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>436</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>5481</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>9170</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>9059</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>60</v>
-      </c>
-      <c r="B167" t="s">
-        <v>9171</v>
+        <v>9059</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>9172</v>
+        <v>9171</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>520</v>
+        <v>76</v>
       </c>
       <c r="B169" t="s">
-        <v>9173</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>520</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>4398</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>9174</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>6679</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>9175</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>523</v>
-      </c>
-      <c r="B172" t="s">
-        <v>9176</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B173" t="s">
-        <v>9177</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B174" t="s">
-        <v>9178</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>211</v>
+        <v>526</v>
       </c>
       <c r="B175" t="s">
-        <v>9179</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>528</v>
+        <v>211</v>
       </c>
       <c r="B176" t="s">
-        <v>9180</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>528</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>9508</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>9509</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>5393</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>9060</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>151</v>
-      </c>
-      <c r="B181" t="s">
-        <v>9181</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>377</v>
+        <v>151</v>
       </c>
       <c r="B182" t="s">
-        <v>9182</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="B183" t="s">
-        <v>9183</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="B184" t="s">
-        <v>9363</v>
+        <v>9183</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B185" t="s">
-        <v>9184</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B186" t="s">
-        <v>9185</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="B187" t="s">
-        <v>9186</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>480</v>
+        <v>74</v>
       </c>
       <c r="B188" t="s">
-        <v>9187</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>6944</v>
+        <v>480</v>
       </c>
       <c r="B189" t="s">
-        <v>9188</v>
+        <v>9187</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>3845</v>
+        <v>6944</v>
       </c>
       <c r="B190" t="s">
-        <v>9189</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>9406</v>
+        <v>3845</v>
       </c>
       <c r="B191" t="s">
-        <v>9387</v>
-      </c>
-      <c r="C191" t="s">
-        <v>5406</v>
+        <v>9189</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>9417</v>
+        <v>9406</v>
       </c>
       <c r="B192" t="s">
-        <v>9398</v>
+        <v>9387</v>
       </c>
       <c r="C192" t="s">
         <v>5406</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>9417</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9398</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>9061</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>531</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>9190</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>601</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>9191</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>6468</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>9192</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>533</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>9193</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>103</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>9194</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>209</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>9195</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>9078</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>9196</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>109</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>9197</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>538</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>9198</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>541</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>9199</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>9062</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>592</v>
-      </c>
-      <c r="B210" t="s">
-        <v>9200</v>
+        <v>9062</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>441</v>
+        <v>592</v>
       </c>
       <c r="B211" t="s">
-        <v>9201</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="B212" t="s">
-        <v>9202</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>113</v>
       </c>
       <c r="B213" t="s">
-        <v>9203</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>9204</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B215" t="s">
-        <v>9205</v>
+        <v>9204</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>111</v>
       </c>
       <c r="B216" t="s">
-        <v>9206</v>
+        <v>9205</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
       <c r="B217" t="s">
-        <v>9207</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="B218" t="s">
-        <v>9208</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B219" t="s">
-        <v>9209</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>9410</v>
+        <v>444</v>
       </c>
       <c r="B220" t="s">
-        <v>9391</v>
-      </c>
-      <c r="C220" t="s">
-        <v>5387</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>9512</v>
+        <v>9410</v>
       </c>
       <c r="B221" t="s">
-        <v>9513</v>
+        <v>9391</v>
       </c>
       <c r="C221" t="s">
         <v>5387</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>9063</v>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>9512</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9513</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5387</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>368</v>
-      </c>
-      <c r="B225" t="s">
-        <v>9210</v>
+        <v>9063</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="B226" t="s">
-        <v>9211</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>465</v>
+        <v>47</v>
       </c>
       <c r="B227" t="s">
-        <v>9212</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B228" t="s">
-        <v>9213</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>5324</v>
+        <v>466</v>
       </c>
       <c r="B229" t="s">
-        <v>9214</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>597</v>
+        <v>5324</v>
       </c>
       <c r="B230" t="s">
-        <v>9215</v>
+        <v>9214</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="B231" t="s">
-        <v>9216</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B232" t="s">
-        <v>9217</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B233" t="s">
-        <v>9353</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B234" t="s">
-        <v>9352</v>
-      </c>
-      <c r="F234" t="s">
-        <v>5107</v>
+        <v>9353</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>9412</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
-        <v>9393</v>
-      </c>
-      <c r="C235" t="s">
-        <v>5394</v>
+        <v>9352</v>
+      </c>
+      <c r="F235" t="s">
+        <v>5107</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>9503</v>
+        <v>9412</v>
       </c>
       <c r="B236" t="s">
-        <v>9437</v>
+        <v>9393</v>
       </c>
       <c r="C236" t="s">
         <v>5394</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>9064</v>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>9503</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9437</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5394</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B240" t="s">
-        <v>9218</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>576</v>
+        <v>1350</v>
       </c>
       <c r="B241" t="s">
-        <v>9219</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>168</v>
+        <v>576</v>
       </c>
       <c r="B242" t="s">
-        <v>9220</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B243" t="s">
-        <v>9221</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>580</v>
+        <v>142</v>
       </c>
       <c r="B244" t="s">
-        <v>9222</v>
+        <v>9221</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>580</v>
       </c>
       <c r="B245" t="s">
-        <v>9224</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>7226</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
-        <v>9223</v>
+        <v>9224</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>581</v>
+        <v>7226</v>
       </c>
       <c r="B247" t="s">
-        <v>9383</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B248" t="s">
-        <v>9226</v>
+        <v>9383</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B249" t="s">
-        <v>9371</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>9408</v>
+        <v>583</v>
       </c>
       <c r="B250" t="s">
-        <v>9389</v>
-      </c>
-      <c r="C250" t="s">
-        <v>5391</v>
+        <v>9371</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>9507</v>
+        <v>9408</v>
       </c>
       <c r="B251" t="s">
-        <v>9505</v>
+        <v>9389</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5391</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>9507</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>9555</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>9556</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C253" t="s">
         <v>5391</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>9065</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>4153</v>
-      </c>
-      <c r="B257" t="s">
-        <v>9225</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>332</v>
+        <v>4153</v>
       </c>
       <c r="B258" t="s">
-        <v>9229</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B259" t="s">
-        <v>9227</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B260" t="s">
-        <v>9228</v>
+        <v>9227</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B261" t="s">
-        <v>9379</v>
+        <v>9228</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B262" t="s">
-        <v>9230</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>9079</v>
+        <v>327</v>
       </c>
       <c r="B263" t="s">
-        <v>9232</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>326</v>
+        <v>9079</v>
       </c>
       <c r="B264" t="s">
-        <v>9233</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="B265" t="s">
-        <v>9231</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>104</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9231</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>322</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>9234</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>9066</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>8236</v>
-      </c>
-      <c r="B271" t="s">
-        <v>9235</v>
+        <v>9066</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>4195</v>
+        <v>8236</v>
       </c>
       <c r="B272" t="s">
-        <v>9378</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>511</v>
+        <v>4195</v>
       </c>
       <c r="B273" t="s">
-        <v>9237</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>9080</v>
+        <v>511</v>
       </c>
       <c r="B274" t="s">
-        <v>9384</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>229</v>
+        <v>9080</v>
       </c>
       <c r="B275" t="s">
-        <v>9236</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>9081</v>
+        <v>229</v>
       </c>
       <c r="B276" t="s">
-        <v>9238</v>
+        <v>9236</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>9082</v>
+        <v>9081</v>
       </c>
       <c r="B277" t="s">
-        <v>9240</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>9082</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>9083</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>9239</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>6682</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>9241</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>516</v>
-      </c>
-      <c r="B280" t="s">
-        <v>9242</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>9434</v>
+        <v>516</v>
       </c>
       <c r="B281" t="s">
-        <v>9435</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>9434</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9435</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>9520</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>9521</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>5384</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>9067</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>501</v>
-      </c>
-      <c r="B285" t="s">
-        <v>9254</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>84</v>
+        <v>501</v>
       </c>
       <c r="B286" t="s">
-        <v>9359</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>8233</v>
+        <v>84</v>
       </c>
       <c r="B287" t="s">
-        <v>9255</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>502</v>
+        <v>8233</v>
       </c>
       <c r="B288" t="s">
-        <v>9256</v>
+        <v>9255</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B289" t="s">
-        <v>9257</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B290" t="s">
-        <v>9258</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>5325</v>
+        <v>506</v>
       </c>
       <c r="B291" t="s">
-        <v>9259</v>
+        <v>9258</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>4874</v>
+        <v>5325</v>
       </c>
       <c r="B292" t="s">
-        <v>9260</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1376</v>
+        <v>4874</v>
       </c>
       <c r="B293" t="s">
-        <v>9262</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>132</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>9261</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>9068</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>556</v>
-      </c>
-      <c r="B299" t="s">
-        <v>9263</v>
+        <v>9068</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B300" t="s">
-        <v>9264</v>
+        <v>9263</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1401</v>
+        <v>557</v>
       </c>
       <c r="B301" t="s">
-        <v>9266</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>56</v>
+        <v>1401</v>
       </c>
       <c r="B302" t="s">
-        <v>9265</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B303" t="s">
-        <v>9267</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>406</v>
+        <v>34</v>
       </c>
       <c r="B304" t="s">
-        <v>9268</v>
+        <v>9267</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>406</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>197</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>9269</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>5367</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>9270</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>563</v>
-      </c>
-      <c r="B307" t="s">
-        <v>9370</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>237</v>
+        <v>563</v>
       </c>
       <c r="B308" t="s">
-        <v>9271</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>9419</v>
+        <v>237</v>
       </c>
       <c r="B309" t="s">
-        <v>9400</v>
-      </c>
-      <c r="C309" t="s">
-        <v>5374</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>9559</v>
+        <v>9419</v>
       </c>
       <c r="B310" t="s">
-        <v>9518</v>
+        <v>9400</v>
       </c>
       <c r="C310" t="s">
         <v>5374</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>9077</v>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>9559</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9518</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5374</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>4432</v>
-      </c>
-      <c r="B313" t="s">
-        <v>9272</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>8248</v>
+        <v>4432</v>
       </c>
       <c r="B314" t="s">
-        <v>9273</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>4569</v>
+        <v>8248</v>
       </c>
       <c r="B315" t="s">
-        <v>9274</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>4413</v>
+        <v>4569</v>
       </c>
       <c r="B316" t="s">
-        <v>9276</v>
+        <v>9274</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>5286</v>
+        <v>4413</v>
       </c>
       <c r="B317" t="s">
-        <v>9275</v>
+        <v>9276</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>4402</v>
+        <v>5286</v>
       </c>
       <c r="B318" t="s">
-        <v>9356</v>
+        <v>9275</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>676</v>
+        <v>4402</v>
       </c>
       <c r="B319" t="s">
-        <v>9355</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>553</v>
+        <v>676</v>
       </c>
       <c r="B320" t="s">
-        <v>9277</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>5314</v>
+        <v>553</v>
       </c>
       <c r="B321" t="s">
-        <v>9278</v>
+        <v>9277</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B322" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>9416</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>9397</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C323" t="s">
         <v>5404</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>9069</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>6670</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>9279</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>334</v>
-      </c>
-      <c r="B327" t="s">
-        <v>9280</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="B328" t="s">
-        <v>9281</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B329" t="s">
-        <v>9282</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="B330" t="s">
-        <v>9283</v>
+        <v>9282</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B331" t="s">
-        <v>9285</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>9286</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B333" t="s">
-        <v>9288</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="B334" t="s">
-        <v>9284</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>4437</v>
+        <v>344</v>
       </c>
       <c r="B335" t="s">
-        <v>9287</v>
+        <v>9284</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>9497</v>
+        <v>4437</v>
       </c>
       <c r="B336" t="s">
-        <v>9457</v>
-      </c>
-      <c r="C336" t="s">
-        <v>5379</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>9502</v>
+        <v>9497</v>
       </c>
       <c r="B337" t="s">
-        <v>9481</v>
+        <v>9457</v>
       </c>
       <c r="C337" t="s">
         <v>5379</v>
       </c>
     </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>9502</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9481</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>9683</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9644</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5379</v>
+      </c>
+    </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>9070</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>19</v>
-      </c>
-      <c r="B341" t="s">
-        <v>9289</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>18</v>
-      </c>
-      <c r="B342" t="s">
-        <v>9290</v>
+        <v>9684</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9645</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5379</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>369</v>
-      </c>
-      <c r="B343" t="s">
-        <v>9291</v>
+        <v>9070</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="B344" t="s">
-        <v>9374</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="B345" t="s">
-        <v>9292</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>194</v>
+        <v>369</v>
       </c>
       <c r="B346" t="s">
-        <v>9293</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B347" t="s">
-        <v>9294</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
       <c r="B348" t="s">
-        <v>9295</v>
+        <v>9292</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="B349" t="s">
-        <v>9296</v>
+        <v>9293</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B350" t="s">
-        <v>9297</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>9422</v>
+        <v>372</v>
       </c>
       <c r="B351" t="s">
-        <v>9403</v>
-      </c>
-      <c r="C351" t="s">
-        <v>5383</v>
+        <v>9295</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>282</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>62</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9297</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>9071</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>382</v>
-      </c>
-      <c r="B355" t="s">
-        <v>9298</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>383</v>
-      </c>
-      <c r="B356" t="s">
-        <v>9299</v>
+        <v>9422</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9403</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5383</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>384</v>
-      </c>
-      <c r="B357" t="s">
-        <v>9300</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>267</v>
+        <v>382</v>
       </c>
       <c r="B358" t="s">
-        <v>9301</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>6672</v>
+      <c r="A359" t="s">
+        <v>383</v>
       </c>
       <c r="B359" t="s">
-        <v>9358</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="B360" t="s">
-        <v>9302</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="B361" t="s">
-        <v>9303</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>256</v>
+      <c r="A362" s="2" t="s">
+        <v>6672</v>
       </c>
       <c r="B362" t="s">
-        <v>9304</v>
+        <v>9358</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>588</v>
+        <v>276</v>
       </c>
       <c r="B363" t="s">
-        <v>9305</v>
+        <v>9302</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>8173</v>
+        <v>387</v>
       </c>
       <c r="B364" t="s">
-        <v>9306</v>
+        <v>9303</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>9415</v>
+        <v>256</v>
       </c>
       <c r="B365" t="s">
-        <v>9396</v>
-      </c>
-      <c r="C365" t="s">
-        <v>5411</v>
+        <v>9304</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>9432</v>
+        <v>588</v>
       </c>
       <c r="B366" t="s">
-        <v>9433</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>9586</v>
+        <v>8173</v>
       </c>
       <c r="B367" t="s">
-        <v>9587</v>
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>9415</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9396</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5411</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>9072</v>
+        <v>9432</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9433</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>289</v>
+        <v>9585</v>
       </c>
       <c r="B370" t="s">
-        <v>9369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>275</v>
-      </c>
-      <c r="B371" t="s">
-        <v>9307</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>414</v>
-      </c>
-      <c r="B372" t="s">
-        <v>9308</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
       <c r="B373" t="s">
-        <v>9364</v>
+        <v>9369</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="B374" t="s">
-        <v>9309</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B375" t="s">
-        <v>9310</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>4191</v>
+        <v>415</v>
       </c>
       <c r="B376" t="s">
-        <v>9311</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>9084</v>
+        <v>38</v>
       </c>
       <c r="B377" t="s">
-        <v>9366</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B378" t="s">
-        <v>9373</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>4600</v>
+        <v>4191</v>
       </c>
       <c r="B379" t="s">
-        <v>9368</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>9528</v>
+        <v>9084</v>
       </c>
       <c r="B380" t="s">
-        <v>9529</v>
-      </c>
-      <c r="C380" t="s">
-        <v>5380</v>
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>420</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9368</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>9073</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>390</v>
-      </c>
-      <c r="B384" t="s">
-        <v>9312</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>391</v>
-      </c>
-      <c r="B385" t="s">
-        <v>9313</v>
+        <v>9528</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9529</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5380</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>589</v>
-      </c>
-      <c r="B386" t="s">
-        <v>9314</v>
+        <v>9073</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>9315</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>9316</v>
+        <v>9313</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>395</v>
+        <v>589</v>
       </c>
       <c r="B389" t="s">
-        <v>9317</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>9318</v>
+        <v>9315</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>9319</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>9320</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
       <c r="B393" t="s">
-        <v>9321</v>
+        <v>9318</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>9421</v>
+        <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>9402</v>
-      </c>
-      <c r="C394" t="s">
-        <v>5407</v>
+        <v>9319</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>399</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9320</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>9074</v>
+        <v>400</v>
+      </c>
+      <c r="B396" t="s">
+        <v>9321</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>453</v>
+        <v>9421</v>
       </c>
       <c r="B397" t="s">
-        <v>9322</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>7</v>
-      </c>
-      <c r="B398" t="s">
-        <v>9323</v>
+        <v>9402</v>
+      </c>
+      <c r="C397" t="s">
+        <v>5407</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>175</v>
-      </c>
-      <c r="B399" t="s">
-        <v>9324</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>102</v>
+        <v>453</v>
       </c>
       <c r="B400" t="s">
-        <v>9372</v>
+        <v>9322</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>9085</v>
+        <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>9325</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>455</v>
+        <v>175</v>
       </c>
       <c r="B402" t="s">
-        <v>9326</v>
+        <v>9324</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>457</v>
+        <v>102</v>
       </c>
       <c r="B403" t="s">
-        <v>9327</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>458</v>
+        <v>9085</v>
       </c>
       <c r="B404" t="s">
-        <v>9328</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B405" t="s">
-        <v>9329</v>
+        <v>9326</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>3115</v>
+        <v>457</v>
       </c>
       <c r="B406" t="s">
-        <v>9330</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>9414</v>
+        <v>458</v>
       </c>
       <c r="B407" t="s">
-        <v>9395</v>
-      </c>
-      <c r="C407" t="s">
-        <v>5392</v>
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>459</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9329</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9330</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>9075</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>358</v>
-      </c>
-      <c r="B411" t="s">
-        <v>9331</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>6665</v>
-      </c>
-      <c r="B412" t="s">
-        <v>9332</v>
+        <v>9414</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9395</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5392</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>362</v>
-      </c>
-      <c r="B413" t="s">
-        <v>9333</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="B414" t="s">
-        <v>9365</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>4139</v>
+        <v>6665</v>
       </c>
       <c r="B415" t="s">
-        <v>9334</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>191</v>
+        <v>362</v>
       </c>
       <c r="B416" t="s">
-        <v>9335</v>
+        <v>9333</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="B417" t="s">
-        <v>9336</v>
+        <v>9365</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>839</v>
+        <v>4139</v>
       </c>
       <c r="B418" t="s">
-        <v>9337</v>
+        <v>9334</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>9086</v>
+        <v>191</v>
       </c>
       <c r="B419" t="s">
-        <v>9338</v>
+        <v>9335</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>587</v>
+        <v>365</v>
       </c>
       <c r="B420" t="s">
-        <v>9339</v>
+        <v>9336</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>9605</v>
+        <v>839</v>
       </c>
       <c r="B421" t="s">
-        <v>9567</v>
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>9086</v>
+      </c>
+      <c r="B422" t="s">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>587</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9339</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>9076</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>16</v>
-      </c>
-      <c r="B425" t="s">
-        <v>9340</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>681</v>
-      </c>
-      <c r="B426" t="s">
-        <v>9341</v>
+        <v>9604</v>
+      </c>
+      <c r="B424" t="s">
+        <v>9566</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>475</v>
-      </c>
-      <c r="B427" t="s">
-        <v>9342</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>477</v>
+        <v>16</v>
       </c>
       <c r="B428" t="s">
-        <v>9343</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>192</v>
+        <v>681</v>
       </c>
       <c r="B429" t="s">
-        <v>9344</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B430" t="s">
-        <v>9345</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>242</v>
+        <v>477</v>
       </c>
       <c r="B431" t="s">
-        <v>9346</v>
+        <v>9343</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>482</v>
+        <v>192</v>
       </c>
       <c r="B432" t="s">
-        <v>9347</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>268</v>
+        <v>478</v>
       </c>
       <c r="B433" t="s">
-        <v>9348</v>
+        <v>9345</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B434" t="s">
-        <v>9386</v>
+        <v>9346</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>9409</v>
+        <v>482</v>
       </c>
       <c r="B435" t="s">
-        <v>9390</v>
-      </c>
-      <c r="C435" t="s">
-        <v>5386</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>9411</v>
+        <v>268</v>
       </c>
       <c r="B436" t="s">
-        <v>9392</v>
-      </c>
-      <c r="C436" t="s">
+        <v>9348</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>257</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9386</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>9409</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9390</v>
+      </c>
+      <c r="C438" t="s">
         <v>5386</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>9426</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>9572</v>
-      </c>
-      <c r="B440" t="s">
-        <v>9573</v>
-      </c>
-      <c r="C440" t="s">
-        <v>6569</v>
+        <v>9411</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9392</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5386</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>405</v>
-      </c>
-      <c r="B441" t="s">
-        <v>9486</v>
-      </c>
-      <c r="C441" t="s">
-        <v>5381</v>
+        <v>9687</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>9576</v>
+        <v>9646</v>
       </c>
       <c r="B442" t="s">
-        <v>9577</v>
+        <v>9647</v>
       </c>
       <c r="C442" t="s">
-        <v>5381</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>4048</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>9428</v>
+        <v>9648</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9649</v>
       </c>
       <c r="C443" t="s">
-        <v>5413</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>6420</v>
-      </c>
-      <c r="B444" t="s">
-        <v>9436</v>
-      </c>
-      <c r="C444" t="s">
-        <v>5413</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>9008</v>
-      </c>
-      <c r="B445" t="s">
-        <v>9511</v>
-      </c>
-      <c r="C445" t="s">
-        <v>5413</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>7202</v>
+        <v>9627</v>
       </c>
       <c r="B446" t="s">
-        <v>9522</v>
+        <v>9628</v>
       </c>
       <c r="C446" t="s">
-        <v>5375</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>545</v>
+        <v>9640</v>
       </c>
       <c r="B447" t="s">
-        <v>9483</v>
+        <v>9641</v>
       </c>
       <c r="C447" t="s">
-        <v>5402</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>739</v>
+        <v>9629</v>
       </c>
       <c r="B448" t="s">
-        <v>9427</v>
+        <v>9630</v>
       </c>
       <c r="C448" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>7083</v>
+        <v>9620</v>
       </c>
       <c r="B449" t="s">
-        <v>9585</v>
+        <v>9621</v>
       </c>
       <c r="C449" t="s">
-        <v>5378</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>432</v>
+        <v>9633</v>
       </c>
       <c r="B450" t="s">
-        <v>9484</v>
+        <v>9634</v>
       </c>
       <c r="C450" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>424</v>
+        <v>9635</v>
       </c>
       <c r="B451" t="s">
-        <v>9504</v>
+        <v>9636</v>
       </c>
       <c r="C451" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>8894</v>
+        <v>9681</v>
       </c>
       <c r="B452" t="s">
-        <v>9554</v>
+        <v>9682</v>
       </c>
       <c r="C452" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>8415</v>
+        <v>7095</v>
       </c>
       <c r="B453" t="s">
-        <v>9571</v>
+        <v>9631</v>
       </c>
       <c r="C453" t="s">
-        <v>5393</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>3845</v>
+        <v>9623</v>
       </c>
       <c r="B454" t="s">
-        <v>9431</v>
+        <v>9624</v>
       </c>
       <c r="C454" t="s">
-        <v>5406</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>480</v>
+        <v>7115</v>
       </c>
       <c r="B455" t="s">
-        <v>9459</v>
+        <v>9639</v>
       </c>
       <c r="C455" t="s">
-        <v>5406</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>9565</v>
+        <v>7151</v>
       </c>
       <c r="B456" t="s">
-        <v>9566</v>
+        <v>9632</v>
       </c>
       <c r="C456" t="s">
-        <v>9601</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>9580</v>
+        <v>7059</v>
       </c>
       <c r="B457" t="s">
-        <v>9581</v>
+        <v>9626</v>
       </c>
       <c r="C457" t="s">
-        <v>9601</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>9589</v>
+        <v>8472</v>
       </c>
       <c r="B458" t="s">
-        <v>9590</v>
+        <v>9622</v>
       </c>
       <c r="C458" t="s">
-        <v>9601</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>9498</v>
+        <v>9642</v>
       </c>
       <c r="B459" t="s">
-        <v>9458</v>
+        <v>9643</v>
       </c>
       <c r="C459" t="s">
-        <v>5387</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>7039</v>
+        <v>9637</v>
       </c>
       <c r="B460" t="s">
-        <v>9527</v>
+        <v>9638</v>
       </c>
       <c r="C460" t="s">
-        <v>5394</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>576</v>
+        <v>7017</v>
       </c>
       <c r="B461" t="s">
-        <v>9441</v>
+        <v>9625</v>
       </c>
       <c r="C461" t="s">
-        <v>5391</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>361</v>
-      </c>
-      <c r="B462" t="s">
-        <v>9461</v>
-      </c>
-      <c r="C462" t="s">
-        <v>5391</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>9569</v>
-      </c>
-      <c r="B463" t="s">
-        <v>9570</v>
-      </c>
-      <c r="C463" t="s">
-        <v>5377</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>9563</v>
+        <v>9571</v>
       </c>
       <c r="B464" t="s">
-        <v>9564</v>
+        <v>9572</v>
       </c>
       <c r="C464" t="s">
-        <v>5390</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>9582</v>
+        <v>405</v>
       </c>
       <c r="B465" t="s">
-        <v>9583</v>
+        <v>9486</v>
       </c>
       <c r="C465" t="s">
-        <v>5390</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>8251</v>
+        <v>9575</v>
       </c>
       <c r="B466" t="s">
-        <v>9440</v>
+        <v>9576</v>
       </c>
       <c r="C466" t="s">
-        <v>5374</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>9516</v>
-      </c>
-      <c r="B467" t="s">
-        <v>9517</v>
+        <v>4048</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>9428</v>
       </c>
       <c r="C467" t="s">
-        <v>5404</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>9444</v>
+        <v>6420</v>
       </c>
       <c r="B468" t="s">
-        <v>9439</v>
+        <v>9436</v>
       </c>
       <c r="C468" t="s">
-        <v>5379</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>7204</v>
+        <v>9008</v>
       </c>
       <c r="B469" t="s">
-        <v>9551</v>
+        <v>9511</v>
       </c>
       <c r="C469" t="s">
-        <v>5379</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>7206</v>
+        <v>9613</v>
       </c>
       <c r="B470" t="s">
-        <v>9584</v>
+        <v>9614</v>
       </c>
       <c r="C470" t="s">
-        <v>5379</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>9525</v>
+        <v>7202</v>
       </c>
       <c r="B471" t="s">
-        <v>9526</v>
+        <v>9522</v>
       </c>
       <c r="C471" t="s">
-        <v>5383</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>9549</v>
+        <v>545</v>
       </c>
       <c r="B472" t="s">
-        <v>9550</v>
+        <v>9483</v>
       </c>
       <c r="C472" t="s">
-        <v>5383</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>9549</v>
+        <v>739</v>
       </c>
       <c r="B473" t="s">
-        <v>9568</v>
+        <v>9427</v>
       </c>
       <c r="C473" t="s">
-        <v>5383</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>9499</v>
+        <v>7083</v>
       </c>
       <c r="B474" t="s">
-        <v>9479</v>
+        <v>9584</v>
       </c>
       <c r="C474" t="s">
-        <v>5411</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>9523</v>
+        <v>9658</v>
       </c>
       <c r="B475" t="s">
-        <v>9524</v>
+        <v>9659</v>
       </c>
       <c r="C475" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>459</v>
+        <v>9611</v>
       </c>
       <c r="B476" t="s">
-        <v>9438</v>
+        <v>9612</v>
       </c>
       <c r="C476" t="s">
-        <v>5407</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="B477" t="s">
-        <v>9460</v>
+        <v>9484</v>
       </c>
       <c r="C477" t="s">
-        <v>5407</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B478" t="s">
-        <v>9480</v>
+        <v>9504</v>
       </c>
       <c r="C478" t="s">
-        <v>5392</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>8894</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9554</v>
+      </c>
+      <c r="C479" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>9654</v>
+      </c>
+      <c r="B480" t="s">
+        <v>9655</v>
+      </c>
+      <c r="C480" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>9560</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8415</v>
+      </c>
+      <c r="B481" t="s">
+        <v>9570</v>
+      </c>
+      <c r="C481" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>296</v>
+        <v>7144</v>
       </c>
       <c r="B482" t="s">
-        <v>9472</v>
+        <v>9680</v>
       </c>
       <c r="C482" t="s">
-        <v>5373</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>402</v>
+        <v>3845</v>
       </c>
       <c r="B483" t="s">
-        <v>9469</v>
+        <v>9431</v>
       </c>
       <c r="C483" t="s">
-        <v>5381</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>564</v>
+        <v>480</v>
       </c>
       <c r="B484" t="s">
-        <v>9462</v>
+        <v>9459</v>
       </c>
       <c r="C484" t="s">
-        <v>5376</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>447</v>
+        <v>9564</v>
       </c>
       <c r="B485" t="s">
-        <v>9474</v>
+        <v>9565</v>
       </c>
       <c r="C485" t="s">
-        <v>5375</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>434</v>
+        <v>9579</v>
       </c>
       <c r="B486" t="s">
-        <v>9478</v>
+        <v>9580</v>
       </c>
       <c r="C486" t="s">
-        <v>5403</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>526</v>
+        <v>9588</v>
       </c>
       <c r="B487" t="s">
-        <v>9464</v>
+        <v>9589</v>
       </c>
       <c r="C487" t="s">
-        <v>5393</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>777</v>
+        <v>9498</v>
       </c>
       <c r="B488" t="s">
-        <v>9468</v>
+        <v>9458</v>
       </c>
       <c r="C488" t="s">
         <v>5387</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>7039</v>
+      </c>
+      <c r="B489" t="s">
+        <v>9527</v>
+      </c>
+      <c r="C489" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>9609</v>
+      </c>
+      <c r="B490" t="s">
+        <v>9610</v>
+      </c>
+      <c r="C490" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>576</v>
       </c>
-      <c r="B489" t="s">
-        <v>9471</v>
-      </c>
-      <c r="C489" t="s">
+      <c r="B491" t="s">
+        <v>9441</v>
+      </c>
+      <c r="C491" t="s">
         <v>5391</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>5329</v>
-      </c>
-      <c r="B490" t="s">
-        <v>9473</v>
-      </c>
-      <c r="C490" t="s">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>361</v>
+      </c>
+      <c r="B492" t="s">
+        <v>9461</v>
+      </c>
+      <c r="C492" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>9652</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9653</v>
+      </c>
+      <c r="C493" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>9568</v>
+      </c>
+      <c r="B494" t="s">
+        <v>9569</v>
+      </c>
+      <c r="C494" t="s">
         <v>5377</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>4176</v>
-      </c>
-      <c r="B491" t="s">
-        <v>9477</v>
-      </c>
-      <c r="C491" t="s">
-        <v>5384</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>499</v>
-      </c>
-      <c r="B492" t="s">
-        <v>9506</v>
-      </c>
-      <c r="C492" t="s">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>9677</v>
+      </c>
+      <c r="B495" t="s">
+        <v>9678</v>
+      </c>
+      <c r="C495" t="s">
+        <v>5377</v>
+      </c>
+      <c r="E495" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>9607</v>
+      </c>
+      <c r="B496" t="s">
+        <v>9608</v>
+      </c>
+      <c r="C496" t="s">
         <v>5410</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>4490</v>
-      </c>
-      <c r="B493" t="s">
-        <v>9466</v>
-      </c>
-      <c r="C493" t="s">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>9562</v>
+      </c>
+      <c r="B497" t="s">
+        <v>9563</v>
+      </c>
+      <c r="C497" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>9581</v>
+      </c>
+      <c r="B498" t="s">
+        <v>9582</v>
+      </c>
+      <c r="C498" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>8378</v>
+      </c>
+      <c r="B499" t="s">
+        <v>9618</v>
+      </c>
+      <c r="C499" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>8251</v>
+      </c>
+      <c r="B500" t="s">
+        <v>9440</v>
+      </c>
+      <c r="C500" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>7165</v>
+      </c>
+      <c r="B501" t="s">
+        <v>9619</v>
+      </c>
+      <c r="C501" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>9516</v>
+      </c>
+      <c r="B502" t="s">
+        <v>9517</v>
+      </c>
+      <c r="C502" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>9444</v>
+      </c>
+      <c r="B503" t="s">
+        <v>9439</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>7204</v>
+      </c>
+      <c r="B504" t="s">
+        <v>9551</v>
+      </c>
+      <c r="C504" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>7206</v>
+      </c>
+      <c r="B505" t="s">
+        <v>9583</v>
+      </c>
+      <c r="C505" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>9525</v>
+      </c>
+      <c r="B506" t="s">
+        <v>9526</v>
+      </c>
+      <c r="C506" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>382</v>
-      </c>
-      <c r="B494" t="s">
-        <v>9470</v>
-      </c>
-      <c r="C494" t="s">
-        <v>5411</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>4563</v>
-      </c>
-      <c r="B495" t="s">
-        <v>9476</v>
-      </c>
-      <c r="C495" t="s">
-        <v>5411</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>415</v>
-      </c>
-      <c r="B496" t="s">
-        <v>9463</v>
-      </c>
-      <c r="C496" t="s">
-        <v>5380</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>390</v>
-      </c>
-      <c r="B497" t="s">
-        <v>9465</v>
-      </c>
-      <c r="C497" t="s">
-        <v>5407</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>393</v>
-      </c>
-      <c r="B498" t="s">
-        <v>9467</v>
-      </c>
-      <c r="C498" t="s">
-        <v>5407</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>400</v>
-      </c>
-      <c r="B499" t="s">
-        <v>9475</v>
-      </c>
-      <c r="C499" t="s">
-        <v>5407</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>9532</v>
-      </c>
-      <c r="B500" t="s">
-        <v>9533</v>
-      </c>
-      <c r="C500" t="s">
-        <v>5391</v>
-      </c>
-      <c r="E500" t="s">
-        <v>9561</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>9534</v>
-      </c>
-      <c r="B501" t="s">
-        <v>9535</v>
-      </c>
-      <c r="C501" t="s">
-        <v>5396</v>
-      </c>
-      <c r="E501" t="s">
-        <v>9561</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>8376</v>
-      </c>
-      <c r="B502" t="s">
-        <v>9536</v>
-      </c>
-      <c r="C502" t="s">
-        <v>5376</v>
-      </c>
-      <c r="E502" t="s">
-        <v>9561</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>8355</v>
-      </c>
-      <c r="B503" t="s">
-        <v>9562</v>
-      </c>
-      <c r="C503" t="s">
-        <v>5373</v>
-      </c>
-      <c r="E503" t="s">
-        <v>9561</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>9603</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>9574</v>
-      </c>
-      <c r="B506" t="s">
-        <v>9575</v>
-      </c>
-      <c r="C506" t="s">
-        <v>5386</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>9591</v>
+        <v>9549</v>
       </c>
       <c r="B507" t="s">
-        <v>9592</v>
+        <v>9550</v>
       </c>
       <c r="C507" t="s">
-        <v>5407</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>9593</v>
+        <v>9549</v>
       </c>
       <c r="B508" t="s">
-        <v>9594</v>
+        <v>9567</v>
       </c>
       <c r="C508" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>9595</v>
+        <v>9499</v>
       </c>
       <c r="B509" t="s">
-        <v>9596</v>
+        <v>9479</v>
       </c>
       <c r="C509" t="s">
-        <v>5402</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>9027</v>
+        <v>9523</v>
       </c>
       <c r="B510" t="s">
-        <v>9597</v>
+        <v>9524</v>
       </c>
       <c r="C510" t="s">
-        <v>5403</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>7173</v>
+        <v>9616</v>
       </c>
       <c r="B511" t="s">
-        <v>9598</v>
+        <v>9617</v>
       </c>
       <c r="C511" t="s">
-        <v>5374</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>9602</v>
+        <v>9650</v>
       </c>
       <c r="B512" t="s">
-        <v>9588</v>
+        <v>9651</v>
       </c>
       <c r="C512" t="s">
-        <v>5393</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>9656</v>
+      </c>
+      <c r="B513" t="s">
+        <v>9657</v>
+      </c>
+      <c r="C513" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>459</v>
+      </c>
+      <c r="B514" t="s">
+        <v>9438</v>
+      </c>
+      <c r="C514" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>395</v>
+      </c>
+      <c r="B515" t="s">
+        <v>9460</v>
+      </c>
+      <c r="C515" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>9605</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9606</v>
+      </c>
+      <c r="C516" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>455</v>
+      </c>
+      <c r="B517" t="s">
+        <v>9480</v>
+      </c>
+      <c r="C517" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>9686</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>296</v>
+      </c>
+      <c r="B521" t="s">
+        <v>9472</v>
+      </c>
+      <c r="C521" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>402</v>
+      </c>
+      <c r="B522" t="s">
+        <v>9469</v>
+      </c>
+      <c r="C522" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>564</v>
+      </c>
+      <c r="B523" t="s">
+        <v>9462</v>
+      </c>
+      <c r="C523" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>447</v>
+      </c>
+      <c r="B524" t="s">
+        <v>9474</v>
+      </c>
+      <c r="C524" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>434</v>
+      </c>
+      <c r="B525" t="s">
+        <v>9478</v>
+      </c>
+      <c r="C525" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526" t="s">
+        <v>9464</v>
+      </c>
+      <c r="C526" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>777</v>
+      </c>
+      <c r="B527" t="s">
+        <v>9468</v>
+      </c>
+      <c r="C527" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>576</v>
+      </c>
+      <c r="B528" t="s">
+        <v>9471</v>
+      </c>
+      <c r="C528" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B529" t="s">
+        <v>9473</v>
+      </c>
+      <c r="C529" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9477</v>
+      </c>
+      <c r="C530" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>499</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9506</v>
+      </c>
+      <c r="C531" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9466</v>
+      </c>
+      <c r="C532" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
         <v>382</v>
       </c>
-      <c r="B513" t="s">
-        <v>9604</v>
-      </c>
-      <c r="C513" t="s">
+      <c r="B533" t="s">
+        <v>9470</v>
+      </c>
+      <c r="C533" t="s">
         <v>5411</v>
       </c>
     </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9476</v>
+      </c>
+      <c r="C534" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>415</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9463</v>
+      </c>
+      <c r="C535" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>390</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9465</v>
+      </c>
+      <c r="C536" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>393</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9467</v>
+      </c>
+      <c r="C537" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>400</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9475</v>
+      </c>
+      <c r="C538" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>9532</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9533</v>
+      </c>
+      <c r="C539" t="s">
+        <v>5391</v>
+      </c>
+      <c r="E539" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>9534</v>
+      </c>
+      <c r="B540" t="s">
+        <v>9535</v>
+      </c>
+      <c r="C540" t="s">
+        <v>5396</v>
+      </c>
+      <c r="E540" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>8376</v>
+      </c>
+      <c r="B541" t="s">
+        <v>9536</v>
+      </c>
+      <c r="C541" t="s">
+        <v>5376</v>
+      </c>
+      <c r="E541" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>8355</v>
+      </c>
+      <c r="B542" t="s">
+        <v>9561</v>
+      </c>
+      <c r="C542" t="s">
+        <v>5373</v>
+      </c>
+      <c r="E542" t="s">
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>8886</v>
+      </c>
+      <c r="B543" t="s">
+        <v>9676</v>
+      </c>
+      <c r="C543" t="s">
+        <v>5381</v>
+      </c>
+      <c r="E543" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>9008</v>
+      </c>
+      <c r="B544" t="s">
+        <v>9671</v>
+      </c>
+      <c r="C544" t="s">
+        <v>5413</v>
+      </c>
+      <c r="E544" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>7097</v>
+      </c>
+      <c r="B545" t="s">
+        <v>9675</v>
+      </c>
+      <c r="C545" t="s">
+        <v>5378</v>
+      </c>
+      <c r="E545" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>8374</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9679</v>
+      </c>
+      <c r="C546" t="s">
+        <v>5416</v>
+      </c>
+      <c r="E546" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>7115</v>
+      </c>
+      <c r="B547" t="s">
+        <v>9670</v>
+      </c>
+      <c r="C547" t="s">
+        <v>5403</v>
+      </c>
+      <c r="E547" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>8988</v>
+      </c>
+      <c r="B548" t="s">
+        <v>9664</v>
+      </c>
+      <c r="C548" t="s">
+        <v>5387</v>
+      </c>
+      <c r="E548" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>8407</v>
+      </c>
+      <c r="B549" t="s">
+        <v>9663</v>
+      </c>
+      <c r="C549" t="s">
+        <v>5394</v>
+      </c>
+      <c r="E549" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>9668</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9669</v>
+      </c>
+      <c r="C550" t="s">
+        <v>5394</v>
+      </c>
+      <c r="E550" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>7224</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9660</v>
+      </c>
+      <c r="C551" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E551" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>9004</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9661</v>
+      </c>
+      <c r="C552" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E552" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>7206</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9667</v>
+      </c>
+      <c r="C553" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E553" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>7220</v>
+      </c>
+      <c r="B554" t="s">
+        <v>9674</v>
+      </c>
+      <c r="C554" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E554" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>9665</v>
+      </c>
+      <c r="B555" t="s">
+        <v>9666</v>
+      </c>
+      <c r="C555" t="s">
+        <v>5392</v>
+      </c>
+      <c r="E555" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>8411</v>
+      </c>
+      <c r="B556" t="s">
+        <v>9662</v>
+      </c>
+      <c r="C556" t="s">
+        <v>5400</v>
+      </c>
+      <c r="E556" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>9672</v>
+      </c>
+      <c r="B557" t="s">
+        <v>9673</v>
+      </c>
+      <c r="C557" t="s">
+        <v>5400</v>
+      </c>
+      <c r="E557" t="s">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>9602</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>9573</v>
+      </c>
+      <c r="B560" t="s">
+        <v>9574</v>
+      </c>
+      <c r="C560" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>9590</v>
+      </c>
+      <c r="B561" t="s">
+        <v>9591</v>
+      </c>
+      <c r="C561" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>9592</v>
+      </c>
+      <c r="B562" t="s">
+        <v>9593</v>
+      </c>
+      <c r="C562" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>9594</v>
+      </c>
+      <c r="B563" t="s">
+        <v>9595</v>
+      </c>
+      <c r="C563" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>9027</v>
+      </c>
+      <c r="B564" t="s">
+        <v>9596</v>
+      </c>
+      <c r="C564" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>7173</v>
+      </c>
+      <c r="B565" t="s">
+        <v>9597</v>
+      </c>
+      <c r="C565" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>9601</v>
+      </c>
+      <c r="B566" t="s">
+        <v>9587</v>
+      </c>
+      <c r="C566" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>382</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9603</v>
+      </c>
+      <c r="C567" t="s">
+        <v>5411</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A436:F474">
-    <sortCondition ref="C436:C474"/>
+  <sortState ref="A446:F460">
+    <sortCondition ref="C446:C460"/>
   </sortState>
-  <conditionalFormatting sqref="A140">
+  <conditionalFormatting sqref="A141">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>"AND(ISBLANK(D17),ISBLANK(E17),ISBLANK(F17),ISBLANK(G17),ISBLANK(H17),ISBLANK(I17),ISBLANK(J17),ISBLANK(K17),ISBLANK(L17),ISBLANK(M17))"</formula>
     </cfRule>
@@ -39201,8 +40066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
